--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6672" uniqueCount="1145">
   <si>
     <t>DATA_TYPE</t>
   </si>
@@ -3274,6 +3274,213 @@
   </si>
   <si>
     <t>Counts of various BHL entities (ex. Titles, Items).  Accumulating these counts can be time-consuming, so the values contained in this table are used to display counts when performance is important and real-time accuracy is not crucial.</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>ImportFile</t>
+  </si>
+  <si>
+    <t>ImportFileID</t>
+  </si>
+  <si>
+    <t>ImportFileStatusID</t>
+  </si>
+  <si>
+    <t>ImportFileName</t>
+  </si>
+  <si>
+    <t>ImportFileStatus</t>
+  </si>
+  <si>
+    <t>ImportRecord</t>
+  </si>
+  <si>
+    <t>ImportRecordID</t>
+  </si>
+  <si>
+    <t>ImportRecordStatusID</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>JournalTitle</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>StartPage</t>
+  </si>
+  <si>
+    <t>EndPage</t>
+  </si>
+  <si>
+    <t>LCCN</t>
+  </si>
+  <si>
+    <t>ImportRecordCreator</t>
+  </si>
+  <si>
+    <t>ImportRecordCreatorID</t>
+  </si>
+  <si>
+    <t>ImportRecordErrorLog</t>
+  </si>
+  <si>
+    <t>ImportRecordErrorLogID</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>ImportRecordKeyword</t>
+  </si>
+  <si>
+    <t>ImportRecordKeywordID</t>
+  </si>
+  <si>
+    <t>ImportRecordStatus</t>
+  </si>
+  <si>
+    <t>Identifier of the file from which this record originated.</t>
+  </si>
+  <si>
+    <t>Identifier of the record status.</t>
+  </si>
+  <si>
+    <t>Identifier of the imported record.</t>
+  </si>
+  <si>
+    <t>The keyword</t>
+  </si>
+  <si>
+    <t>Errors encountered when processing imported citations.</t>
+  </si>
+  <si>
+    <t>Keywords/subjects that apply to imported citations.</t>
+  </si>
+  <si>
+    <t>Authors associated with imported citations.</t>
+  </si>
+  <si>
+    <t>Date and time of the error.</t>
+  </si>
+  <si>
+    <t>Details of the error.</t>
+  </si>
+  <si>
+    <t>Statuses of imported citations (ex. New, Imported, Rejected, Error).</t>
+  </si>
+  <si>
+    <t>Processing statuses of files containing citations (ex. Loading , New, Imported, Rejected).</t>
+  </si>
+  <si>
+    <t>Files containing citations to be imported into BHL.</t>
+  </si>
+  <si>
+    <t>Name of the file.</t>
+  </si>
+  <si>
+    <t>A citation to be imported into BHL.</t>
+  </si>
+  <si>
+    <t>The full name of the author.  This might be the combined first and last names of a person, the name of a corporation, or the name of a conference/meeting.</t>
+  </si>
+  <si>
+    <t>Last name of the author.</t>
+  </si>
+  <si>
+    <t>First name of the author.</t>
+  </si>
+  <si>
+    <t>Identifies the type of the author. (ex. Person, corporation)</t>
+  </si>
+  <si>
+    <t>Genre of the cited work.</t>
+  </si>
+  <si>
+    <t>Title of the cited work.</t>
+  </si>
+  <si>
+    <t>Translated title of the cited work.</t>
+  </si>
+  <si>
+    <t>Title of the container of the cited work.  For example, the container of an article would be the journal in which the article appears.</t>
+  </si>
+  <si>
+    <t>Complete publication details (Name, Place, Date) for the cited work.</t>
+  </si>
+  <si>
+    <t>Publisher of the cited work.</t>
+  </si>
+  <si>
+    <t>Place of publication of the cited work.</t>
+  </si>
+  <si>
+    <t>Year of the cited work.</t>
+  </si>
+  <si>
+    <t>End year of the cited work (for example, if a journal is cited)</t>
+  </si>
+  <si>
+    <t>Start year of the cited work (for example, if a journal is cited)</t>
+  </si>
+  <si>
+    <t>The range of pages in the container on which the cited work appears.</t>
+  </si>
+  <si>
+    <t>First page number in the container on which the cited work appears.</t>
+  </si>
+  <si>
+    <t>Last page number in the container on which the cited work appears.</t>
+  </si>
+  <si>
+    <t>Language of the cited work.</t>
+  </si>
+  <si>
+    <t>URL of a location external to BHL at which the cited work is located</t>
+  </si>
+  <si>
+    <t>URL for downloading the cited work.</t>
+  </si>
+  <si>
+    <t>ISSN of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>ISBN of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>OCLC # of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>LCCN of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>DOI of the cited work (or the work's container).</t>
+  </si>
+  <si>
+    <t>Rights statement of the cited work.</t>
+  </si>
+  <si>
+    <t>Copyright status of the cited work.</t>
+  </si>
+  <si>
+    <t>Name of the license that applies to this cited work's content.</t>
+  </si>
+  <si>
+    <t>URL to the license (ex. Creative Commons) that applies to the cited work's content.</t>
+  </si>
+  <si>
+    <t>Due diligence statement of the cited work.</t>
+  </si>
+  <si>
+    <t>Summary or abstract of the cited work.</t>
+  </si>
+  <si>
+    <t>General notes about the cited work.</t>
   </si>
 </sst>
 </file>
@@ -3667,11 +3874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1044"/>
+  <dimension ref="A1:I1146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3679,8 +3886,7 @@
     <col min="1" max="1" width="8.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -26443,7 +26649,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="1035" spans="1:9" ht="409.6">
+    <row r="1035" spans="1:9">
       <c r="A1035" s="4" t="s">
         <v>111</v>
       </c>
@@ -26521,11 +26727,11 @@
         <v>774</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" s="9" customFormat="1" ht="409.6">
+    <row r="1038" spans="1:9" s="9" customFormat="1">
       <c r="G1038" s="10"/>
       <c r="I1038" s="11"/>
     </row>
-    <row r="1039" spans="1:9" ht="409.6">
+    <row r="1039" spans="1:9">
       <c r="A1039" s="4" t="s">
         <v>111</v>
       </c>
@@ -26562,7 +26768,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" ht="409.6">
+    <row r="1041" spans="1:9">
       <c r="A1041" s="4" t="s">
         <v>111</v>
       </c>
@@ -26585,7 +26791,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" ht="409.6">
+    <row r="1042" spans="1:9">
       <c r="A1042" s="4" t="s">
         <v>111</v>
       </c>
@@ -26652,6 +26858,2609 @@
       </c>
       <c r="I1044" s="6" t="s">
         <v>830</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" s="9" customFormat="1">
+      <c r="G1045" s="10"/>
+      <c r="I1045" s="11"/>
+    </row>
+    <row r="1046" spans="1:9">
+      <c r="A1046" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1046" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1046" s="6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9">
+      <c r="A1047" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1047" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1047" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1047" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1047" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1047" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1047" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1047" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9">
+      <c r="A1048" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1048" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1048" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1048" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1048" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1048" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1048" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9">
+      <c r="A1049" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1049" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1049" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1049" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1049" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1049" s="4">
+        <v>200</v>
+      </c>
+      <c r="I1049" s="6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9">
+      <c r="A1050" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1050" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1050" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1050" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1050" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1050" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1050" s="4">
+        <v>10</v>
+      </c>
+      <c r="I1050" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9">
+      <c r="A1051" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1051" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1051" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1051" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1051" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1051" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1051" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1051" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1051" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9">
+      <c r="A1052" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1052" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1052" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1052" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1052" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1052" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1052" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1052" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9">
+      <c r="A1053" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1053" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1053" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1053" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1053" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1053" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1053" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1053" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1053" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" ht="22.5">
+      <c r="A1054" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1054" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1054" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1054" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1054" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1054" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1054" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1054" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1054" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9" s="9" customFormat="1">
+      <c r="G1055" s="10"/>
+      <c r="I1055" s="11"/>
+    </row>
+    <row r="1056" spans="1:9" ht="22.5">
+      <c r="A1056" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1056" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I1056" s="6" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9">
+      <c r="A1057" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1057" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1057" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1057" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1057" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1057" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1057" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1057" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9">
+      <c r="A1058" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1058" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1058" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1058" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1058" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1058" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1058" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1058" s="4">
+        <v>50</v>
+      </c>
+      <c r="I1058" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9">
+      <c r="A1059" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1059" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1059" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1059" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1059" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1059" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1059" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1059" s="4">
+        <v>500</v>
+      </c>
+      <c r="I1059" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9">
+      <c r="A1060" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1060" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1060" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1060" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1060" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1060" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1060" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1060" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1060" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9">
+      <c r="A1061" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1061" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1061" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1061" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1061" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1061" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1061" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1061" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9">
+      <c r="A1062" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1062" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1062" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1062" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1062" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1062" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1062" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1062" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9" ht="22.5">
+      <c r="A1063" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1063" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1063" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1063" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1063" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1063" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1063" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1063" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1063" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" s="9" customFormat="1">
+      <c r="G1064" s="10"/>
+      <c r="I1064" s="11"/>
+    </row>
+    <row r="1065" spans="1:9">
+      <c r="A1065" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1065" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1065" s="6" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9">
+      <c r="A1066" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1066" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1066" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1066" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1066" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1066" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1066" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1066" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9" ht="22.5">
+      <c r="A1067" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1067" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1067" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1067" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1067" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1067" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1067" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1067" s="6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9">
+      <c r="A1068" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1068" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1068" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1068" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1068" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1068" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1068" s="6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9">
+      <c r="A1069" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1069" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1069" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1069" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1069" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1069" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1069" s="4">
+        <v>50</v>
+      </c>
+      <c r="I1069" s="6" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9">
+      <c r="A1070" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1070" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1070" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1070" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1070" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1070" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1070" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I1070" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9">
+      <c r="A1071" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1071" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1071" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1071" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1071" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1071" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1071" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1071" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I1071" s="6" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9" ht="33.75">
+      <c r="A1072" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1072" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1072" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1072" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1072" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1072" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1072" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I1072" s="6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9">
+      <c r="A1073" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1073" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1073" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1073" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1073" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1073" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1073" s="4">
+        <v>100</v>
+      </c>
+      <c r="I1073" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9">
+      <c r="A1074" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1074" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1074" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1074" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1074" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1074" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1074" s="4">
+        <v>100</v>
+      </c>
+      <c r="I1074" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9">
+      <c r="A1075" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1075" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1075" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1075" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1075" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1075" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1075" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1075" s="4">
+        <v>100</v>
+      </c>
+      <c r="I1075" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9">
+      <c r="A1076" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1076" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1076" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1076" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1076" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1076" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1076" s="4">
+        <v>400</v>
+      </c>
+      <c r="I1076" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" ht="22.5">
+      <c r="A1077" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1077" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1077" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1077" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1077" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1077" s="4">
+        <v>400</v>
+      </c>
+      <c r="I1077" s="6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9">
+      <c r="A1078" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1078" s="4">
+        <v>13</v>
+      </c>
+      <c r="E1078" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1078" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1078" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1078" s="4">
+        <v>250</v>
+      </c>
+      <c r="I1078" s="6" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9">
+      <c r="A1079" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1079" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1079" s="4">
+        <v>14</v>
+      </c>
+      <c r="E1079" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1079" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1079" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1079" s="4">
+        <v>150</v>
+      </c>
+      <c r="I1079" s="6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9">
+      <c r="A1080" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1080" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1080" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1080" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1080" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1080" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1080" s="4">
+        <v>20</v>
+      </c>
+      <c r="I1080" s="6" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" ht="22.5">
+      <c r="A1081" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1081" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1081" s="4">
+        <v>16</v>
+      </c>
+      <c r="F1081" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1081" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1081" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1081" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" ht="22.5">
+      <c r="A1082" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1082" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1082" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1082" s="4">
+        <v>17</v>
+      </c>
+      <c r="F1082" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1082" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1082" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1082" s="6" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9">
+      <c r="A1083" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1083" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1083" s="4">
+        <v>18</v>
+      </c>
+      <c r="F1083" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1083" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1083" s="4">
+        <v>30</v>
+      </c>
+      <c r="I1083" s="6" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9">
+      <c r="A1084" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1084" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1084" s="4">
+        <v>19</v>
+      </c>
+      <c r="E1084" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1084" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1084" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1084" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1084" s="6" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9">
+      <c r="A1085" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1085" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1085" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1085" s="4">
+        <v>20</v>
+      </c>
+      <c r="E1085" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1085" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1085" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1085" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1085" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9">
+      <c r="A1086" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1086" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1086" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1086" s="4">
+        <v>21</v>
+      </c>
+      <c r="E1086" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1086" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1086" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1086" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1086" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9">
+      <c r="A1087" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1087" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1087" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1087" s="4">
+        <v>22</v>
+      </c>
+      <c r="E1087" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1087" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1087" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1087" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1087" s="6" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9">
+      <c r="A1088" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1088" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1088" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1088" s="4">
+        <v>23</v>
+      </c>
+      <c r="E1088" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1088" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1088" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1088" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1088" s="6" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9" ht="22.5">
+      <c r="A1089" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1089" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1089" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1089" s="4">
+        <v>24</v>
+      </c>
+      <c r="E1089" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1089" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1089" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1089" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1089" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" ht="22.5">
+      <c r="A1090" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1090" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1090" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1090" s="4">
+        <v>25</v>
+      </c>
+      <c r="E1090" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1090" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1090" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1090" s="4">
+        <v>200</v>
+      </c>
+      <c r="I1090" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" ht="22.5">
+      <c r="A1091" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1091" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1091" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1091" s="4">
+        <v>26</v>
+      </c>
+      <c r="E1091" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1091" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1091" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1091" s="4">
+        <v>50</v>
+      </c>
+      <c r="I1091" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:9" ht="22.5">
+      <c r="A1092" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1092" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D1092" s="4">
+        <v>27</v>
+      </c>
+      <c r="E1092" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1092" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1092" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1092" s="4">
+        <v>20</v>
+      </c>
+      <c r="I1092" s="6" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" ht="22.5">
+      <c r="A1093" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1093" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1093" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1093" s="4">
+        <v>28</v>
+      </c>
+      <c r="E1093" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1093" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1093" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1093" s="4">
+        <v>20</v>
+      </c>
+      <c r="I1093" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9" ht="22.5">
+      <c r="A1094" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1094" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1094" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1094" s="4">
+        <v>29</v>
+      </c>
+      <c r="E1094" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1094" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1094" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1094" s="4">
+        <v>200</v>
+      </c>
+      <c r="I1094" s="6" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9">
+      <c r="A1095" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1095" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1095" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1095" s="4">
+        <v>30</v>
+      </c>
+      <c r="E1095" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1095" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1095" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1095" s="4">
+        <v>200</v>
+      </c>
+      <c r="I1095" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9">
+      <c r="A1096" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1096" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1096" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1096" s="4">
+        <v>31</v>
+      </c>
+      <c r="E1096" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1096" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1096" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1096" s="4">
+        <v>125</v>
+      </c>
+      <c r="I1096" s="6" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9">
+      <c r="A1097" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1097" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1097" s="4">
+        <v>32</v>
+      </c>
+      <c r="E1097" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1097" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1097" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1097" s="4">
+        <v>125</v>
+      </c>
+      <c r="I1097" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9">
+      <c r="A1098" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1098" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1098" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1098" s="4">
+        <v>33</v>
+      </c>
+      <c r="E1098" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1098" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1098" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1098" s="4">
+        <v>125</v>
+      </c>
+      <c r="I1098" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" ht="22.5">
+      <c r="A1099" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1099" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1099" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1099" s="4">
+        <v>34</v>
+      </c>
+      <c r="E1099" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1099" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1099" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1099" s="4">
+        <v>125</v>
+      </c>
+      <c r="I1099" s="6" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9">
+      <c r="A1100" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1100" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1100" s="4">
+        <v>35</v>
+      </c>
+      <c r="E1100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1100" s="4">
+        <v>125</v>
+      </c>
+      <c r="I1100" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9">
+      <c r="A1101" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1101" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1101" s="4">
+        <v>36</v>
+      </c>
+      <c r="E1101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1101" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9">
+      <c r="A1102" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1102" s="4">
+        <v>37</v>
+      </c>
+      <c r="E1102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1102" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9">
+      <c r="A1103" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1103" s="4">
+        <v>38</v>
+      </c>
+      <c r="E1103" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1103" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" ht="22.5">
+      <c r="A1104" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1104" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1104" s="4">
+        <v>39</v>
+      </c>
+      <c r="E1104" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1104" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" s="9" customFormat="1">
+      <c r="G1105" s="10"/>
+      <c r="I1105" s="11"/>
+    </row>
+    <row r="1106" spans="1:9">
+      <c r="A1106" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I1106" s="6" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9">
+      <c r="A1107" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1107" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D1107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1107" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1107" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9">
+      <c r="A1108" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1108" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1108" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1108" s="6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" ht="45">
+      <c r="A1109" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1109" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1109" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1109" s="4">
+        <v>300</v>
+      </c>
+      <c r="I1109" s="6" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9">
+      <c r="A1110" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1110" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1110" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1110" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1110" s="4">
+        <v>150</v>
+      </c>
+      <c r="I1110" s="6" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9">
+      <c r="A1111" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1111" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1111" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1111" s="4">
+        <v>150</v>
+      </c>
+      <c r="I1111" s="6" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" ht="33.75">
+      <c r="A1112" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1112" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1112" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1112" s="4">
+        <v>25</v>
+      </c>
+      <c r="I1112" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" ht="33.75">
+      <c r="A1113" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1113" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1113" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1113" s="4">
+        <v>25</v>
+      </c>
+      <c r="I1113" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" ht="22.5">
+      <c r="A1114" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1114" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1114" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1114" s="4">
+        <v>50</v>
+      </c>
+      <c r="I1114" s="6" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9">
+      <c r="A1115" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1115" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1115" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1115" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9">
+      <c r="A1116" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1116" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1116" s="4">
+        <v>10</v>
+      </c>
+      <c r="E1116" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1116" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9">
+      <c r="A1117" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1117" s="4">
+        <v>11</v>
+      </c>
+      <c r="E1117" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1117" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" ht="22.5">
+      <c r="A1118" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1118" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1118" s="4">
+        <v>12</v>
+      </c>
+      <c r="E1118" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1118" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1118" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" s="9" customFormat="1">
+      <c r="G1119" s="10"/>
+      <c r="I1119" s="11"/>
+    </row>
+    <row r="1120" spans="1:9" ht="22.5">
+      <c r="A1120" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I1120" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9">
+      <c r="A1121" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D1121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1121" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9">
+      <c r="A1122" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1122" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1122" s="6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9">
+      <c r="A1123" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1123" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1123" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1123" s="6" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9">
+      <c r="A1124" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D1124" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1124" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I1124" s="6" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9">
+      <c r="A1125" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1125" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1125" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1125" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9">
+      <c r="A1126" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1126" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1126" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9">
+      <c r="A1127" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1127" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1127" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1127" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" ht="22.5">
+      <c r="A1128" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1128" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1128" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1128" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1128" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" s="9" customFormat="1">
+      <c r="G1129" s="10"/>
+      <c r="I1129" s="11"/>
+    </row>
+    <row r="1130" spans="1:9" ht="22.5">
+      <c r="A1130" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I1130" s="6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9">
+      <c r="A1131" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1131" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9">
+      <c r="A1132" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1132" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1132" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1132" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1132" s="6" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9">
+      <c r="A1133" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1133" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1133" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1133" s="4">
+        <v>50</v>
+      </c>
+      <c r="I1133" s="6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9">
+      <c r="A1134" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1134" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1134" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1134" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9">
+      <c r="A1135" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1135" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1135" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1135" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1135" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9">
+      <c r="A1136" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1136" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1136" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1136" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1136" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" ht="22.5">
+      <c r="A1137" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1137" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1137" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1137" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" s="9" customFormat="1">
+      <c r="G1138" s="10"/>
+      <c r="I1138" s="11"/>
+    </row>
+    <row r="1139" spans="1:9" ht="22.5">
+      <c r="A1139" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1139" s="6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9">
+      <c r="A1140" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1140" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1140" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1140" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1140" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9">
+      <c r="A1141" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1141" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1141" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1141" s="4">
+        <v>50</v>
+      </c>
+      <c r="I1141" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9">
+      <c r="A1142" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1142" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1142" s="4">
+        <v>500</v>
+      </c>
+      <c r="I1142" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9">
+      <c r="A1143" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1143" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1143" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1143" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9">
+      <c r="A1144" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1144" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1144" s="4">
+        <v>5</v>
+      </c>
+      <c r="E1144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1144" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1144" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9">
+      <c r="A1145" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1145" s="4">
+        <v>6</v>
+      </c>
+      <c r="E1145" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1145" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1145" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" ht="22.5">
+      <c r="A1146" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1146" s="4">
+        <v>7</v>
+      </c>
+      <c r="E1146" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1146" s="6" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6782" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7038" uniqueCount="1203">
   <si>
     <t>DATA_TYPE</t>
   </si>
@@ -3197,6 +3197,315 @@
   </si>
   <si>
     <t>Identifier of an existing BHL title which matches the title contained in this MARC record.</t>
+  </si>
+  <si>
+    <t>NULL
+ABLE</t>
+  </si>
+  <si>
+    <t>CHAR_
+MAX_
+LENGTH</t>
+  </si>
+  <si>
+    <t>EntityCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbo </t>
+  </si>
+  <si>
+    <t>EntityCountID</t>
+  </si>
+  <si>
+    <t>EntityCountTypeID</t>
+  </si>
+  <si>
+    <t>CountValue</t>
+  </si>
+  <si>
+    <t>EntityCountType</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Identifier of the count type</t>
+  </si>
+  <si>
+    <t>Number of occurences of the entity type</t>
+  </si>
+  <si>
+    <t>Full name of the entity type</t>
+  </si>
+  <si>
+    <t>Short name of the entity type used on some user interfaces</t>
+  </si>
+  <si>
+    <t>Sequence order of the type used when it is necessary to display entity counts in a specific order.</t>
+  </si>
+  <si>
+    <t>Types of entities which can be counted (ex. Active Titles, Inactive Pages)</t>
+  </si>
+  <si>
+    <t>Counts of various BHL entities (ex. Titles, Items).  Accumulating these counts can be time-consuming, so the values contained in this table are used to display counts when performance is important and real-time accuracy is not crucial.</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>ImportFile</t>
+  </si>
+  <si>
+    <t>ImportFileID</t>
+  </si>
+  <si>
+    <t>ImportFileStatusID</t>
+  </si>
+  <si>
+    <t>ImportFileName</t>
+  </si>
+  <si>
+    <t>ImportFileStatus</t>
+  </si>
+  <si>
+    <t>ImportRecord</t>
+  </si>
+  <si>
+    <t>ImportRecordID</t>
+  </si>
+  <si>
+    <t>ImportRecordStatusID</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>JournalTitle</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>StartPage</t>
+  </si>
+  <si>
+    <t>EndPage</t>
+  </si>
+  <si>
+    <t>LCCN</t>
+  </si>
+  <si>
+    <t>ImportRecordCreator</t>
+  </si>
+  <si>
+    <t>ImportRecordCreatorID</t>
+  </si>
+  <si>
+    <t>ImportRecordErrorLog</t>
+  </si>
+  <si>
+    <t>ImportRecordErrorLogID</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>ImportRecordKeyword</t>
+  </si>
+  <si>
+    <t>ImportRecordKeywordID</t>
+  </si>
+  <si>
+    <t>ImportRecordStatus</t>
+  </si>
+  <si>
+    <t>Identifier of the file from which this record originated.</t>
+  </si>
+  <si>
+    <t>Identifier of the record status.</t>
+  </si>
+  <si>
+    <t>Identifier of the imported record.</t>
+  </si>
+  <si>
+    <t>The keyword</t>
+  </si>
+  <si>
+    <t>Errors encountered when processing imported citations.</t>
+  </si>
+  <si>
+    <t>Keywords/subjects that apply to imported citations.</t>
+  </si>
+  <si>
+    <t>Authors associated with imported citations.</t>
+  </si>
+  <si>
+    <t>Date and time of the error.</t>
+  </si>
+  <si>
+    <t>Details of the error.</t>
+  </si>
+  <si>
+    <t>Statuses of imported citations (ex. New, Imported, Rejected, Error).</t>
+  </si>
+  <si>
+    <t>Processing statuses of files containing citations (ex. Loading , New, Imported, Rejected).</t>
+  </si>
+  <si>
+    <t>Files containing citations to be imported into BHL.</t>
+  </si>
+  <si>
+    <t>Name of the file.</t>
+  </si>
+  <si>
+    <t>A citation to be imported into BHL.</t>
+  </si>
+  <si>
+    <t>The full name of the author.  This might be the combined first and last names of a person, the name of a corporation, or the name of a conference/meeting.</t>
+  </si>
+  <si>
+    <t>Last name of the author.</t>
+  </si>
+  <si>
+    <t>First name of the author.</t>
+  </si>
+  <si>
+    <t>Identifies the type of the author. (ex. Person, corporation)</t>
+  </si>
+  <si>
+    <t>Genre of the cited work.</t>
+  </si>
+  <si>
+    <t>Title of the cited work.</t>
+  </si>
+  <si>
+    <t>Translated title of the cited work.</t>
+  </si>
+  <si>
+    <t>Title of the container of the cited work.  For example, the container of an article would be the journal in which the article appears.</t>
+  </si>
+  <si>
+    <t>Complete publication details (Name, Place, Date) for the cited work.</t>
+  </si>
+  <si>
+    <t>Publisher of the cited work.</t>
+  </si>
+  <si>
+    <t>Place of publication of the cited work.</t>
+  </si>
+  <si>
+    <t>Year of the cited work.</t>
+  </si>
+  <si>
+    <t>End year of the cited work (for example, if a journal is cited)</t>
+  </si>
+  <si>
+    <t>Start year of the cited work (for example, if a journal is cited)</t>
+  </si>
+  <si>
+    <t>The range of pages in the container on which the cited work appears.</t>
+  </si>
+  <si>
+    <t>First page number in the container on which the cited work appears.</t>
+  </si>
+  <si>
+    <t>Last page number in the container on which the cited work appears.</t>
+  </si>
+  <si>
+    <t>Language of the cited work.</t>
+  </si>
+  <si>
+    <t>URL of a location external to BHL at which the cited work is located</t>
+  </si>
+  <si>
+    <t>URL for downloading the cited work.</t>
+  </si>
+  <si>
+    <t>ISSN of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>ISBN of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>OCLC # of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>LCCN of the cited work (or the work's container)</t>
+  </si>
+  <si>
+    <t>DOI of the cited work (or the work's container).</t>
+  </si>
+  <si>
+    <t>Rights statement of the cited work.</t>
+  </si>
+  <si>
+    <t>Copyright status of the cited work.</t>
+  </si>
+  <si>
+    <t>Name of the license that applies to this cited work's content.</t>
+  </si>
+  <si>
+    <t>URL to the license (ex. Creative Commons) that applies to the cited work's content.</t>
+  </si>
+  <si>
+    <t>Due diligence statement of the cited work.</t>
+  </si>
+  <si>
+    <t>Summary or abstract of the cited work.</t>
+  </si>
+  <si>
+    <t>General notes about the cited work.</t>
+  </si>
+  <si>
+    <t>NoteType</t>
+  </si>
+  <si>
+    <t>NoteTypeID</t>
+  </si>
+  <si>
+    <t>NoteTypeName</t>
+  </si>
+  <si>
+    <t>NoteTypeDisplay</t>
+  </si>
+  <si>
+    <t>MarcIndicator1</t>
+  </si>
+  <si>
+    <t>Label for the type to display in user interfaces.</t>
+  </si>
+  <si>
+    <t>MARC first indicator associated with the note.  Only populated when the source of the note was a MARC record.</t>
+  </si>
+  <si>
+    <t>MARC data field containing the note.  Only populated when the source of the note was a MARC record.</t>
+  </si>
+  <si>
+    <t>Types of notes relating to titles.  (examples: General, Contents, Summary)</t>
+  </si>
+  <si>
+    <t>TitleNote</t>
+  </si>
+  <si>
+    <t>TitleNoteID</t>
+  </si>
+  <si>
+    <t>NoteSequence</t>
+  </si>
+  <si>
+    <t>Identifier of the title</t>
+  </si>
+  <si>
+    <t>Identifier of the note type</t>
+  </si>
+  <si>
+    <t>Text of the note.</t>
+  </si>
+  <si>
+    <t>Postiion at which the note should be displayed, when all notes are displayed in a list.</t>
+  </si>
+  <si>
+    <t>Notes associated with the title.</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT t.TABLE_SCHEMA,   t.TABLE_NAME, 
@@ -3218,320 +3527,134 @@
    AND tc.CONSTRAINT_NAME = cu.CONSTRAINT_NAME
 WHERE t.TABLE_TYPE = 'BASE TABLE'
 UNION
-SELECT t.TABLE_SCHEMA,   t.TABLE_NAME,   '',   0,   '',   '',   '',   NULL,   '',  ''
+SELECT t.TABLE_SCHEMA,   t.TABLE_NAME,   '',   0,   '',   '',   NULL,   '',  ''
 FROM INFORMATION_SCHEMA.TABLES t
 WHERE t.TABLE_TYPE = 'BASE TABLE'
 ORDER BY t.TABLE_SCHEMA,   t.TABLE_NAME,   c.ORDINAL_POSITION
 </t>
   </si>
   <si>
-    <t>NULL
-ABLE</t>
-  </si>
-  <si>
-    <t>CHAR_
-MAX_
-LENGTH</t>
-  </si>
-  <si>
-    <t>EntityCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbo </t>
-  </si>
-  <si>
-    <t>EntityCountID</t>
-  </si>
-  <si>
-    <t>EntityCountTypeID</t>
-  </si>
-  <si>
-    <t>CountValue</t>
-  </si>
-  <si>
-    <t>EntityCountType</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>Identifier of the count type</t>
-  </si>
-  <si>
-    <t>Number of occurences of the entity type</t>
-  </si>
-  <si>
-    <t>Full name of the entity type</t>
-  </si>
-  <si>
-    <t>Short name of the entity type used on some user interfaces</t>
-  </si>
-  <si>
-    <t>Sequence order of the type used when it is necessary to display entity counts in a specific order.</t>
-  </si>
-  <si>
-    <t>Types of entities which can be counted (ex. Active Titles, Inactive Pages)</t>
-  </si>
-  <si>
-    <t>Counts of various BHL entities (ex. Titles, Items).  Accumulating these counts can be time-consuming, so the values contained in this table are used to display counts when performance is important and real-time accuracy is not crucial.</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>ImportFile</t>
-  </si>
-  <si>
-    <t>ImportFileID</t>
-  </si>
-  <si>
-    <t>ImportFileStatusID</t>
-  </si>
-  <si>
-    <t>ImportFileName</t>
-  </si>
-  <si>
-    <t>ImportFileStatus</t>
-  </si>
-  <si>
-    <t>ImportRecord</t>
-  </si>
-  <si>
-    <t>ImportRecordID</t>
-  </si>
-  <si>
-    <t>ImportRecordStatusID</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>JournalTitle</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>StartPage</t>
-  </si>
-  <si>
-    <t>EndPage</t>
-  </si>
-  <si>
-    <t>LCCN</t>
-  </si>
-  <si>
-    <t>ImportRecordCreator</t>
-  </si>
-  <si>
-    <t>ImportRecordCreatorID</t>
-  </si>
-  <si>
-    <t>ImportRecordErrorLog</t>
-  </si>
-  <si>
-    <t>ImportRecordErrorLogID</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>ImportRecordKeyword</t>
-  </si>
-  <si>
-    <t>ImportRecordKeywordID</t>
-  </si>
-  <si>
-    <t>ImportRecordStatus</t>
-  </si>
-  <si>
-    <t>Identifier of the file from which this record originated.</t>
-  </si>
-  <si>
-    <t>Identifier of the record status.</t>
-  </si>
-  <si>
-    <t>Identifier of the imported record.</t>
-  </si>
-  <si>
-    <t>The keyword</t>
-  </si>
-  <si>
-    <t>Errors encountered when processing imported citations.</t>
-  </si>
-  <si>
-    <t>Keywords/subjects that apply to imported citations.</t>
-  </si>
-  <si>
-    <t>Authors associated with imported citations.</t>
-  </si>
-  <si>
-    <t>Date and time of the error.</t>
-  </si>
-  <si>
-    <t>Details of the error.</t>
-  </si>
-  <si>
-    <t>Statuses of imported citations (ex. New, Imported, Rejected, Error).</t>
-  </si>
-  <si>
-    <t>Processing statuses of files containing citations (ex. Loading , New, Imported, Rejected).</t>
-  </si>
-  <si>
-    <t>Files containing citations to be imported into BHL.</t>
-  </si>
-  <si>
-    <t>Name of the file.</t>
-  </si>
-  <si>
-    <t>A citation to be imported into BHL.</t>
-  </si>
-  <si>
-    <t>The full name of the author.  This might be the combined first and last names of a person, the name of a corporation, or the name of a conference/meeting.</t>
-  </si>
-  <si>
-    <t>Last name of the author.</t>
-  </si>
-  <si>
-    <t>First name of the author.</t>
-  </si>
-  <si>
-    <t>Identifies the type of the author. (ex. Person, corporation)</t>
-  </si>
-  <si>
-    <t>Genre of the cited work.</t>
-  </si>
-  <si>
-    <t>Title of the cited work.</t>
-  </si>
-  <si>
-    <t>Translated title of the cited work.</t>
-  </si>
-  <si>
-    <t>Title of the container of the cited work.  For example, the container of an article would be the journal in which the article appears.</t>
-  </si>
-  <si>
-    <t>Complete publication details (Name, Place, Date) for the cited work.</t>
-  </si>
-  <si>
-    <t>Publisher of the cited work.</t>
-  </si>
-  <si>
-    <t>Place of publication of the cited work.</t>
-  </si>
-  <si>
-    <t>Year of the cited work.</t>
-  </si>
-  <si>
-    <t>End year of the cited work (for example, if a journal is cited)</t>
-  </si>
-  <si>
-    <t>Start year of the cited work (for example, if a journal is cited)</t>
-  </si>
-  <si>
-    <t>The range of pages in the container on which the cited work appears.</t>
-  </si>
-  <si>
-    <t>First page number in the container on which the cited work appears.</t>
-  </si>
-  <si>
-    <t>Last page number in the container on which the cited work appears.</t>
-  </si>
-  <si>
-    <t>Language of the cited work.</t>
-  </si>
-  <si>
-    <t>URL of a location external to BHL at which the cited work is located</t>
-  </si>
-  <si>
-    <t>URL for downloading the cited work.</t>
-  </si>
-  <si>
-    <t>ISSN of the cited work (or the work's container)</t>
-  </si>
-  <si>
-    <t>ISBN of the cited work (or the work's container)</t>
-  </si>
-  <si>
-    <t>OCLC # of the cited work (or the work's container)</t>
-  </si>
-  <si>
-    <t>LCCN of the cited work (or the work's container)</t>
-  </si>
-  <si>
-    <t>DOI of the cited work (or the work's container).</t>
-  </si>
-  <si>
-    <t>Rights statement of the cited work.</t>
-  </si>
-  <si>
-    <t>Copyright status of the cited work.</t>
-  </si>
-  <si>
-    <t>Name of the license that applies to this cited work's content.</t>
-  </si>
-  <si>
-    <t>URL to the license (ex. Creative Commons) that applies to the cited work's content.</t>
-  </si>
-  <si>
-    <t>Due diligence statement of the cited work.</t>
-  </si>
-  <si>
-    <t>Summary or abstract of the cited work.</t>
-  </si>
-  <si>
-    <t>General notes about the cited work.</t>
-  </si>
-  <si>
-    <t>NoteType</t>
-  </si>
-  <si>
-    <t>NoteTypeID</t>
-  </si>
-  <si>
-    <t>NoteTypeName</t>
-  </si>
-  <si>
-    <t>NoteTypeDisplay</t>
-  </si>
-  <si>
-    <t>MarcIndicator1</t>
-  </si>
-  <si>
-    <t>Label for the type to display in user interfaces.</t>
-  </si>
-  <si>
-    <t>MARC first indicator associated with the note.  Only populated when the source of the note was a MARC record.</t>
-  </si>
-  <si>
-    <t>MARC data field containing the note.  Only populated when the source of the note was a MARC record.</t>
-  </si>
-  <si>
-    <t>Types of notes relating to titles.  (examples: General, Contents, Summary)</t>
-  </si>
-  <si>
-    <t>TitleNote</t>
-  </si>
-  <si>
-    <t>TitleNoteID</t>
-  </si>
-  <si>
-    <t>NoteSequence</t>
-  </si>
-  <si>
-    <t>Identifier of the title</t>
-  </si>
-  <si>
-    <t>Identifier of the note type</t>
-  </si>
-  <si>
-    <t>Text of the note.</t>
-  </si>
-  <si>
-    <t>Postiion at which the note should be displayed, when all notes are displayed in a list.</t>
-  </si>
-  <si>
-    <t>Notes associated with the title.</t>
+    <t>reqlog</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>ApplicationID</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>RequestHistory</t>
+  </si>
+  <si>
+    <t>RequestHistoryID</t>
+  </si>
+  <si>
+    <t>RequestDate</t>
+  </si>
+  <si>
+    <t>NumRequests</t>
+  </si>
+  <si>
+    <t>RequestHistoryByTopUsers</t>
+  </si>
+  <si>
+    <t>RankForDate</t>
+  </si>
+  <si>
+    <t>IPAddress</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>RequestHistoryByType</t>
+  </si>
+  <si>
+    <t>RequestHistoryByTypeID</t>
+  </si>
+  <si>
+    <t>RequestTypeID</t>
+  </si>
+  <si>
+    <t>RequestLog</t>
+  </si>
+  <si>
+    <t>RequestLogID</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>RequestLogArchive</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>RequestTypeName</t>
+  </si>
+  <si>
+    <t>Identifier of the logged application.</t>
+  </si>
+  <si>
+    <t>Identifier of the logged request type.</t>
+  </si>
+  <si>
+    <t>Date of the logged request.</t>
+  </si>
+  <si>
+    <t>Identifier of the user submitting the request.</t>
+  </si>
+  <si>
+    <t>IP Address of the user submitting the request.</t>
+  </si>
+  <si>
+    <t>Extra detail about the request.  May include API, OpenURL, or search parameters.</t>
+  </si>
+  <si>
+    <t>Number of requests submitted by the specified user on the specified date.</t>
+  </si>
+  <si>
+    <t>Number of requests submitted of the specific type on the specified date.</t>
+  </si>
+  <si>
+    <t>Rank of this user on the date.  (Most, 2nd most, etc)</t>
+  </si>
+  <si>
+    <t>Description of the type of request being logged.</t>
+  </si>
+  <si>
+    <t>Number of requests on the specified date.</t>
+  </si>
+  <si>
+    <t>Applications and/or components of BHL for which requests are being logged.  Examples are the BHL API, the OpenURL Resolver, and search requests.</t>
+  </si>
+  <si>
+    <t>Name of the application for which requests are being logged.</t>
+  </si>
+  <si>
+    <t>Types of requests being logged.  Examples are individual API methods.</t>
+  </si>
+  <si>
+    <t>Contains all requests logged in the past 14 days.</t>
+  </si>
+  <si>
+    <t>Contains all requests logged in the past 14-90 days.  Requests older than 90 days are not kept.</t>
+  </si>
+  <si>
+    <t>Aggregated request statistics.  Contains the number of requests per application per day.</t>
+  </si>
+  <si>
+    <t>Aggretated request statistics.  Contains the top 20 users (IP Addresses) per application per day, ranked by the number of requests.</t>
+  </si>
+  <si>
+    <t>Aggregated request statistics.  Contains the number of requests per request type per day.</t>
   </si>
 </sst>
 </file>
@@ -3925,11 +4048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1165"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A1183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1187" sqref="I1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3959,13 +4082,13 @@
         <v>526</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>540</v>
@@ -10609,10 +10732,10 @@
         <v>111</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -10620,10 +10743,10 @@
         <v>111</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>4</v>
@@ -10646,10 +10769,10 @@
         <v>111</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>4</v>
@@ -10664,7 +10787,7 @@
         <v>529</v>
       </c>
       <c r="I308" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -10672,10 +10795,10 @@
         <v>111</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>4</v>
@@ -10687,15 +10810,15 @@
         <v>0</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>13</v>
@@ -10725,10 +10848,10 @@
         <v>111</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I312" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10736,10 +10859,10 @@
         <v>111</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>4</v>
@@ -10762,7 +10885,7 @@
         <v>111</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>136</v>
@@ -10780,7 +10903,7 @@
         <v>30</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="22.5">
@@ -10788,10 +10911,10 @@
         <v>111</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>1067</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>1068</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>10</v>
@@ -10806,7 +10929,7 @@
         <v>20</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="33.75">
@@ -10814,7 +10937,7 @@
         <v>111</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>193</v>
@@ -10829,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="I316" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="9" customFormat="1">
@@ -16356,7 +16479,7 @@
         <v>111</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F573" s="5"/>
       <c r="G573" s="4">
@@ -16364,7 +16487,7 @@
       </c>
       <c r="H573" s="6"/>
       <c r="I573" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="574" spans="1:9">
@@ -16372,10 +16495,10 @@
         <v>111</v>
       </c>
       <c r="B574" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C574" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="C574" s="4" t="s">
-        <v>1146</v>
       </c>
       <c r="E574" s="4" t="s">
         <v>4</v>
@@ -16398,10 +16521,10 @@
         <v>111</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D575" s="4" t="s">
         <v>10</v>
@@ -16425,10 +16548,10 @@
         <v>111</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D576" s="4" t="s">
         <v>10</v>
@@ -16444,7 +16567,7 @@
       </c>
       <c r="H576" s="6"/>
       <c r="I576" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="577" spans="1:9" ht="33.75">
@@ -16452,7 +16575,7 @@
         <v>111</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C577" s="4" t="s">
         <v>509</v>
@@ -16471,7 +16594,7 @@
       </c>
       <c r="H577" s="6"/>
       <c r="I577" s="6" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="578" spans="1:9" ht="33.75">
@@ -16479,10 +16602,10 @@
         <v>111</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D578" s="4" t="s">
         <v>10</v>
@@ -16498,7 +16621,7 @@
       </c>
       <c r="H578" s="6"/>
       <c r="I578" s="6" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="579" spans="1:9">
@@ -16506,7 +16629,7 @@
         <v>111</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>13</v>
@@ -16533,7 +16656,7 @@
         <v>111</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C580" s="4" t="s">
         <v>16</v>
@@ -16560,7 +16683,7 @@
         <v>111</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C581" s="4" t="s">
         <v>128</v>
@@ -16587,7 +16710,7 @@
         <v>111</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C582" s="4" t="s">
         <v>129</v>
@@ -26587,7 +26710,7 @@
         <v>111</v>
       </c>
       <c r="B1029" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F1029" s="5"/>
       <c r="G1029" s="4">
@@ -26595,7 +26718,7 @@
       </c>
       <c r="H1029" s="6"/>
       <c r="I1029" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1030" spans="1:9">
@@ -26603,10 +26726,10 @@
         <v>111</v>
       </c>
       <c r="B1030" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1030" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="C1030" s="4" t="s">
-        <v>1155</v>
       </c>
       <c r="E1030" s="4" t="s">
         <v>4</v>
@@ -26629,7 +26752,7 @@
         <v>111</v>
       </c>
       <c r="B1031" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1031" s="4" t="s">
         <v>32</v>
@@ -26647,7 +26770,7 @@
         <v>529</v>
       </c>
       <c r="I1031" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1032" spans="1:9">
@@ -26655,10 +26778,10 @@
         <v>111</v>
       </c>
       <c r="B1032" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1032" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E1032" s="4" t="s">
         <v>8</v>
@@ -26673,7 +26796,7 @@
         <v>529</v>
       </c>
       <c r="I1032" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1033" spans="1:9">
@@ -26681,7 +26804,7 @@
         <v>111</v>
       </c>
       <c r="B1033" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1033" s="4" t="s">
         <v>73</v>
@@ -26700,7 +26823,7 @@
       </c>
       <c r="H1033" s="6"/>
       <c r="I1033" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
@@ -26708,10 +26831,10 @@
         <v>111</v>
       </c>
       <c r="B1034" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1034" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E1034" s="4" t="s">
         <v>8</v>
@@ -26724,7 +26847,7 @@
       </c>
       <c r="H1034" s="6"/>
       <c r="I1034" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1035" spans="1:9">
@@ -26732,7 +26855,7 @@
         <v>111</v>
       </c>
       <c r="B1035" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1035" s="4" t="s">
         <v>13</v>
@@ -26759,7 +26882,7 @@
         <v>111</v>
       </c>
       <c r="B1036" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C1036" s="4" t="s">
         <v>128</v>
@@ -27360,36 +27483,36 @@
     </row>
     <row r="1065" spans="1:9">
       <c r="A1065" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1065" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="B1065" s="4" t="s">
-        <v>1077</v>
-      </c>
       <c r="I1065" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1066" spans="1:9">
       <c r="A1066" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1066" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="B1066" s="4" t="s">
+      <c r="C1066" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="C1066" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D1066" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1066" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1066" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1066" s="4">
-        <v>0</v>
+      <c r="E1066" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1066" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1066" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1066" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1066" s="6" t="s">
         <v>528</v>
@@ -27397,25 +27520,25 @@
     </row>
     <row r="1067" spans="1:9">
       <c r="A1067" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1067" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="B1067" s="4" t="s">
-        <v>1077</v>
-      </c>
       <c r="C1067" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1067" s="4">
-        <v>2</v>
-      </c>
-      <c r="F1067" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1067" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1067" s="4">
-        <v>0</v>
+        <v>1078</v>
+      </c>
+      <c r="E1067" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1067" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1067" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1067" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="I1067" s="6" t="s">
         <v>529</v>
@@ -27423,50 +27546,44 @@
     </row>
     <row r="1068" spans="1:9">
       <c r="A1068" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1068" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="B1068" s="4" t="s">
-        <v>1077</v>
-      </c>
       <c r="C1068" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D1068" s="4">
-        <v>3</v>
-      </c>
-      <c r="F1068" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1068" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1068" s="4">
+        <v>1079</v>
+      </c>
+      <c r="E1068" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1068" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1068" s="4">
         <v>200</v>
       </c>
       <c r="I1068" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1069" spans="1:9">
       <c r="A1069" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1069" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="B1069" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C1069" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D1069" s="4">
-        <v>4</v>
-      </c>
-      <c r="F1069" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1069" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1069" s="4">
+      <c r="E1069" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1069" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1069" s="4">
         <v>10</v>
       </c>
       <c r="I1069" s="6" t="s">
@@ -27475,27 +27592,24 @@
     </row>
     <row r="1070" spans="1:9">
       <c r="A1070" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1070" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="B1070" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C1070" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1070" s="4">
-        <v>5</v>
+      <c r="D1070" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1070" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1070" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1070" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1070" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1070" s="4">
+      <c r="G1070" s="4">
         <v>0</v>
       </c>
       <c r="I1070" s="6" t="s">
@@ -27504,27 +27618,24 @@
     </row>
     <row r="1071" spans="1:9">
       <c r="A1071" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1071" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="B1071" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C1071" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1071" s="4">
-        <v>6</v>
+      <c r="D1071" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1071" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1071" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1071" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1071" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1071" s="4">
+      <c r="G1071" s="4">
         <v>0</v>
       </c>
       <c r="I1071" s="6" t="s">
@@ -27533,27 +27644,24 @@
     </row>
     <row r="1072" spans="1:9">
       <c r="A1072" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1072" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="B1072" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C1072" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1072" s="4">
-        <v>7</v>
+      <c r="D1072" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1072" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1072" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1072" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1072" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1072" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1072" s="4">
         <v>0</v>
       </c>
       <c r="I1072" s="6" t="s">
@@ -27562,27 +27670,24 @@
     </row>
     <row r="1073" spans="1:9" ht="22.5">
       <c r="A1073" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1073" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="B1073" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="C1073" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1073" s="4">
-        <v>8</v>
+      <c r="D1073" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1073" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1073" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1073" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1073" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1073" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1073" s="4">
         <v>0</v>
       </c>
       <c r="I1073" s="6" t="s">
@@ -27595,36 +27700,36 @@
     </row>
     <row r="1075" spans="1:9" ht="22.5">
       <c r="A1075" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1075" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I1075" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1076" spans="1:9">
       <c r="A1076" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1076" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1076" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1076" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1076" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1076" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1076" s="4">
-        <v>0</v>
+        <v>1078</v>
+      </c>
+      <c r="E1076" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1076" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1076" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1076" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1076" s="6" t="s">
         <v>528</v>
@@ -27632,27 +27737,24 @@
     </row>
     <row r="1077" spans="1:9">
       <c r="A1077" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1077" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1077" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D1077" s="4">
-        <v>2</v>
+      <c r="D1077" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1077" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1077" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1077" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1077" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1077" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1077" s="4">
         <v>50</v>
       </c>
       <c r="I1077" s="6" t="s">
@@ -27661,27 +27763,24 @@
     </row>
     <row r="1078" spans="1:9">
       <c r="A1078" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1078" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1078" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D1078" s="4">
-        <v>3</v>
+      <c r="D1078" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1078" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1078" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1078" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1078" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1078" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1078" s="4">
         <v>500</v>
       </c>
       <c r="I1078" s="6" t="s">
@@ -27690,27 +27789,24 @@
     </row>
     <row r="1079" spans="1:9">
       <c r="A1079" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1079" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1079" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1079" s="4">
-        <v>4</v>
+      <c r="D1079" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1079" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1079" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1079" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1079" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1079" s="4">
+      <c r="G1079" s="4">
         <v>0</v>
       </c>
       <c r="I1079" s="6" t="s">
@@ -27719,27 +27815,24 @@
     </row>
     <row r="1080" spans="1:9">
       <c r="A1080" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1080" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1080" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1080" s="4">
-        <v>5</v>
+      <c r="D1080" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1080" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1080" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1080" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1080" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1080" s="4">
+      <c r="G1080" s="4">
         <v>0</v>
       </c>
       <c r="I1080" s="6" t="s">
@@ -27748,27 +27841,24 @@
     </row>
     <row r="1081" spans="1:9">
       <c r="A1081" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1081" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1081" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1081" s="4">
-        <v>6</v>
+      <c r="D1081" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1081" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1081" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1081" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1081" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1081" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1081" s="4">
         <v>0</v>
       </c>
       <c r="I1081" s="6" t="s">
@@ -27777,27 +27867,24 @@
     </row>
     <row r="1082" spans="1:9" ht="22.5">
       <c r="A1082" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1082" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C1082" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1082" s="4">
-        <v>7</v>
+      <c r="D1082" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1082" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1082" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1082" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1082" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1082" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1082" s="4">
         <v>0</v>
       </c>
       <c r="I1082" s="6" t="s">
@@ -27810,36 +27897,36 @@
     </row>
     <row r="1084" spans="1:9">
       <c r="A1084" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1084" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I1084" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1085" spans="1:9">
       <c r="A1085" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1085" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1085" s="4" t="s">
         <v>1082</v>
       </c>
-      <c r="C1085" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D1085" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1085" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1085" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1085" s="4">
-        <v>0</v>
+      <c r="E1085" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1085" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1085" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1085" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1085" s="6" t="s">
         <v>528</v>
@@ -27847,195 +27934,174 @@
     </row>
     <row r="1086" spans="1:9" ht="22.5">
       <c r="A1086" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1086" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1086" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D1086" s="4">
-        <v>2</v>
-      </c>
-      <c r="F1086" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1086" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1086" s="4">
+        <v>1077</v>
+      </c>
+      <c r="E1086" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1086" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1086" s="4">
         <v>0</v>
       </c>
       <c r="I1086" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1087" spans="1:9">
       <c r="A1087" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1087" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1087" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D1087" s="4">
-        <v>3</v>
-      </c>
-      <c r="F1087" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1087" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1087" s="4">
+        <v>1083</v>
+      </c>
+      <c r="E1087" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1087" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1087" s="4">
         <v>0</v>
       </c>
       <c r="I1087" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1088" spans="1:9">
       <c r="A1088" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1088" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1088" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D1088" s="4">
-        <v>4</v>
+        <v>1084</v>
+      </c>
+      <c r="D1088" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1088" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1088" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1088" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1088" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1088" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1088" s="4">
         <v>50</v>
       </c>
       <c r="I1088" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1089" spans="1:9">
       <c r="A1089" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1089" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1089" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1089" s="4">
-        <v>5</v>
+      <c r="D1089" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1089" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1089" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1089" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1089" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1089" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1089" s="4">
         <v>2000</v>
       </c>
       <c r="I1089" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1090" spans="1:9">
       <c r="A1090" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1090" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1090" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D1090" s="4">
-        <v>6</v>
+      <c r="D1090" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1090" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1090" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1090" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1090" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1090" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1090" s="4">
         <v>2000</v>
       </c>
       <c r="I1090" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1091" spans="1:9" ht="33.75">
       <c r="A1091" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1091" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1091" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D1091" s="4">
-        <v>7</v>
+        <v>1085</v>
+      </c>
+      <c r="D1091" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1091" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1091" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1091" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1091" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1091" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1091" s="4">
         <v>2000</v>
       </c>
       <c r="I1091" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1092" spans="1:9">
       <c r="A1092" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1092" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1092" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1092" s="4">
-        <v>8</v>
+      <c r="D1092" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1092" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1092" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1092" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1092" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1092" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1092" s="4">
         <v>100</v>
       </c>
       <c r="I1092" s="6" t="s">
@@ -28044,27 +28110,24 @@
     </row>
     <row r="1093" spans="1:9">
       <c r="A1093" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1093" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1093" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D1093" s="4">
-        <v>9</v>
+      <c r="D1093" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1093" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1093" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1093" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1093" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1093" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1093" s="4">
         <v>100</v>
       </c>
       <c r="I1093" s="6" t="s">
@@ -28073,27 +28136,24 @@
     </row>
     <row r="1094" spans="1:9">
       <c r="A1094" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1094" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1094" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D1094" s="4">
+      <c r="D1094" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E1094" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1094" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1094" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1094" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1094" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1094" s="4">
         <v>100</v>
       </c>
       <c r="I1094" s="6" t="s">
@@ -28102,27 +28162,24 @@
     </row>
     <row r="1095" spans="1:9">
       <c r="A1095" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1095" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1095" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1095" s="4">
-        <v>11</v>
+      <c r="D1095" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1095" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1095" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1095" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1095" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1095" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1095" s="4">
         <v>400</v>
       </c>
       <c r="I1095" s="6" t="s">
@@ -28131,714 +28188,639 @@
     </row>
     <row r="1096" spans="1:9" ht="22.5">
       <c r="A1096" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1096" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1096" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1096" s="4">
-        <v>12</v>
+      <c r="D1096" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1096" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1096" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1096" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1096" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1096" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1096" s="4">
         <v>400</v>
       </c>
       <c r="I1096" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1097" spans="1:9">
       <c r="A1097" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1097" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1097" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D1097" s="4">
-        <v>13</v>
+      <c r="D1097" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1097" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1097" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1097" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1097" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1097" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1097" s="4">
         <v>250</v>
       </c>
       <c r="I1097" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1098" spans="1:9">
       <c r="A1098" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1098" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1098" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D1098" s="4">
-        <v>14</v>
+      <c r="D1098" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1098" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1098" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1098" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1098" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1098" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1098" s="4">
         <v>150</v>
       </c>
       <c r="I1098" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1099" spans="1:9">
       <c r="A1099" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1099" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1099" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D1099" s="4">
-        <v>15</v>
+      <c r="D1099" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1099" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1099" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1099" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1099" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1099" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1099" s="4">
         <v>20</v>
       </c>
       <c r="I1099" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1100" spans="1:9" ht="22.5">
       <c r="A1100" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1100" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1100" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D1100" s="4">
-        <v>16</v>
-      </c>
-      <c r="F1100" s="4" t="s">
+      <c r="E1100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1100" s="5" t="s">
+      <c r="F1100" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H1100" s="4">
+      <c r="G1100" s="4">
         <v>0</v>
       </c>
       <c r="I1100" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1101" spans="1:9" ht="22.5">
       <c r="A1101" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1101" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1101" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D1101" s="4">
-        <v>17</v>
-      </c>
-      <c r="F1101" s="4" t="s">
+      <c r="E1101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1101" s="5" t="s">
+      <c r="F1101" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H1101" s="4">
+      <c r="G1101" s="4">
         <v>0</v>
       </c>
       <c r="I1101" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1102" spans="1:9">
       <c r="A1102" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1102" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D1102" s="4">
-        <v>18</v>
-      </c>
-      <c r="F1102" s="4" t="s">
+      <c r="E1102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1102" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1102" s="4">
+      <c r="F1102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1102" s="4">
         <v>30</v>
       </c>
       <c r="I1102" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1103" spans="1:9">
       <c r="A1103" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1103" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1103" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D1103" s="4">
-        <v>19</v>
+      <c r="D1103" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1103" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1103" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1103" s="4">
         <v>-1</v>
       </c>
       <c r="I1103" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1104" spans="1:9">
       <c r="A1104" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1104" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1104" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D1104" s="4">
-        <v>20</v>
+      <c r="D1104" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1104" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1104" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1104" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1104" s="4">
         <v>-1</v>
       </c>
       <c r="I1104" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1105" spans="1:9">
       <c r="A1105" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1105" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1105" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D1105" s="4">
-        <v>21</v>
+      <c r="D1105" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1105" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1105" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1105" s="4">
         <v>-1</v>
       </c>
       <c r="I1105" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1106" spans="1:9">
       <c r="A1106" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1106" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1106" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D1106" s="4">
-        <v>22</v>
+      <c r="D1106" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1106" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1106" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1106" s="4">
         <v>-1</v>
       </c>
       <c r="I1106" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1107" spans="1:9">
       <c r="A1107" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1107" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1107" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D1107" s="4">
-        <v>23</v>
+      <c r="D1107" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1107" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1107" s="4">
         <v>-1</v>
       </c>
       <c r="I1107" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1108" spans="1:9" ht="22.5">
       <c r="A1108" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1108" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1108" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D1108" s="4">
-        <v>24</v>
+        <v>1086</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1108" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1108" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1108" s="4">
         <v>-1</v>
       </c>
       <c r="I1108" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1109" spans="1:9" ht="22.5">
       <c r="A1109" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1109" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1109" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D1109" s="4">
-        <v>25</v>
+      <c r="D1109" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1109" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1109" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1109" s="4">
         <v>200</v>
       </c>
       <c r="I1109" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1110" spans="1:9" ht="22.5">
       <c r="A1110" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1110" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1110" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D1110" s="4">
-        <v>26</v>
+      <c r="D1110" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1110" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1110" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1110" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1110" s="4">
         <v>50</v>
       </c>
       <c r="I1110" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1111" spans="1:9" ht="22.5">
       <c r="A1111" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1111" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1111" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1111" s="4">
-        <v>27</v>
+        <v>1087</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1111" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1111" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1111" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1111" s="4">
         <v>20</v>
       </c>
       <c r="I1111" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1112" spans="1:9" ht="22.5">
       <c r="A1112" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1112" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D1112" s="4">
-        <v>28</v>
+        <v>1088</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1112" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1112" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1112" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1112" s="4">
         <v>20</v>
       </c>
       <c r="I1112" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1113" spans="1:9" ht="22.5">
       <c r="A1113" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1113" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1113" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D1113" s="4">
-        <v>29</v>
+      <c r="D1113" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1113" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1113" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1113" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1113" s="4">
         <v>200</v>
       </c>
       <c r="I1113" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1114" spans="1:9">
       <c r="A1114" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1114" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D1114" s="4">
-        <v>30</v>
+      <c r="D1114" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1114" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1114" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1114" s="4">
         <v>200</v>
       </c>
       <c r="I1114" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1115" spans="1:9">
       <c r="A1115" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1115" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D1115" s="4">
-        <v>31</v>
+      <c r="D1115" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1115" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1115" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1115" s="4">
         <v>125</v>
       </c>
       <c r="I1115" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1116" spans="1:9">
       <c r="A1116" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1116" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D1116" s="4">
-        <v>32</v>
+      <c r="D1116" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1116" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1116" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1116" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1116" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1116" s="4">
         <v>125</v>
       </c>
       <c r="I1116" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1117" spans="1:9">
       <c r="A1117" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1117" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D1117" s="4">
-        <v>33</v>
+      <c r="D1117" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1117" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1117" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1117" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1117" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1117" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1117" s="4">
         <v>125</v>
       </c>
       <c r="I1117" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1118" spans="1:9" ht="22.5">
       <c r="A1118" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1118" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D1118" s="4">
-        <v>34</v>
+      <c r="D1118" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1118" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1118" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1118" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1118" s="4">
         <v>125</v>
       </c>
       <c r="I1118" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1119" spans="1:9">
       <c r="A1119" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1119" s="4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D1119" s="4">
-        <v>35</v>
+        <v>1089</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1119" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1119" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1119" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1119" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1119" s="4">
         <v>125</v>
       </c>
       <c r="I1119" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1120" spans="1:9">
       <c r="A1120" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1120" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1120" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1120" s="4">
-        <v>36</v>
+      <c r="D1120" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1120" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1120" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1120" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1120" s="4">
+      <c r="G1120" s="4">
         <v>0</v>
       </c>
       <c r="I1120" s="6" t="s">
@@ -28847,27 +28829,24 @@
     </row>
     <row r="1121" spans="1:9">
       <c r="A1121" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1121" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1121" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1121" s="4">
-        <v>37</v>
+      <c r="D1121" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1121" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1121" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1121" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1121" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1121" s="4">
+      <c r="G1121" s="4">
         <v>0</v>
       </c>
       <c r="I1121" s="6" t="s">
@@ -28876,27 +28855,24 @@
     </row>
     <row r="1122" spans="1:9">
       <c r="A1122" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1122" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1122" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1122" s="4">
-        <v>38</v>
+      <c r="D1122" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1122" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1122" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1122" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1122" s="4">
         <v>0</v>
       </c>
       <c r="I1122" s="6" t="s">
@@ -28905,27 +28881,24 @@
     </row>
     <row r="1123" spans="1:9" ht="22.5">
       <c r="A1123" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1123" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C1123" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1123" s="4">
-        <v>39</v>
+      <c r="D1123" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1123" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1123" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1123" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1123" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1123" s="4">
         <v>0</v>
       </c>
       <c r="I1123" s="6" t="s">
@@ -28938,36 +28911,36 @@
     </row>
     <row r="1125" spans="1:9">
       <c r="A1125" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1125" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I1125" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1126" spans="1:9">
       <c r="A1126" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1126" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1126" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="C1126" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D1126" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1126" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1126" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1126" s="4">
-        <v>0</v>
+      <c r="E1126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1126" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1126" s="6" t="s">
         <v>528</v>
@@ -28975,140 +28948,125 @@
     </row>
     <row r="1127" spans="1:9">
       <c r="A1127" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1127" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1127" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D1127" s="4">
-        <v>2</v>
-      </c>
-      <c r="F1127" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1127" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1127" s="4">
+        <v>1082</v>
+      </c>
+      <c r="E1127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1127" s="4">
         <v>0</v>
       </c>
       <c r="I1127" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1128" spans="1:9" ht="45">
       <c r="A1128" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1128" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1128" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D1128" s="4">
-        <v>3</v>
+      <c r="D1128" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1128" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1128" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1128" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1128" s="4">
         <v>300</v>
       </c>
       <c r="I1128" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1129" spans="1:9">
       <c r="A1129" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1129" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1129" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D1129" s="4">
-        <v>4</v>
+      <c r="D1129" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1129" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1129" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1129" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1129" s="4">
         <v>150</v>
       </c>
       <c r="I1129" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1130" spans="1:9">
       <c r="A1130" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1130" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1130" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D1130" s="4">
-        <v>5</v>
+      <c r="D1130" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1130" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1130" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1130" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1130" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1130" s="4">
         <v>150</v>
       </c>
       <c r="I1130" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1131" spans="1:9" ht="33.75">
       <c r="A1131" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1131" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1131" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D1131" s="4">
-        <v>6</v>
+      <c r="D1131" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1131" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1131" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1131" s="4">
         <v>25</v>
       </c>
       <c r="I1131" s="6" t="s">
@@ -29117,27 +29075,24 @@
     </row>
     <row r="1132" spans="1:9" ht="33.75">
       <c r="A1132" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1132" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1132" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D1132" s="4">
-        <v>7</v>
+      <c r="D1132" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1132" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1132" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1132" s="4">
         <v>25</v>
       </c>
       <c r="I1132" s="6" t="s">
@@ -29146,56 +29101,50 @@
     </row>
     <row r="1133" spans="1:9" ht="22.5">
       <c r="A1133" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1133" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1133" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D1133" s="4">
-        <v>8</v>
+      <c r="D1133" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1133" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1133" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1133" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1133" s="4">
         <v>50</v>
       </c>
       <c r="I1133" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1134" spans="1:9">
       <c r="A1134" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1134" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1134" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1134" s="4">
-        <v>9</v>
+      <c r="D1134" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1134" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1134" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1134" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1134" s="4">
+      <c r="G1134" s="4">
         <v>0</v>
       </c>
       <c r="I1134" s="6" t="s">
@@ -29204,27 +29153,24 @@
     </row>
     <row r="1135" spans="1:9">
       <c r="A1135" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1135" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1135" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1135" s="4">
-        <v>10</v>
+      <c r="D1135" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1135" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1135" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1135" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1135" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1135" s="4">
+      <c r="G1135" s="4">
         <v>0</v>
       </c>
       <c r="I1135" s="6" t="s">
@@ -29233,27 +29179,24 @@
     </row>
     <row r="1136" spans="1:9">
       <c r="A1136" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1136" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1136" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1136" s="4">
-        <v>11</v>
+      <c r="D1136" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1136" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1136" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1136" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1136" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1136" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1136" s="4">
         <v>0</v>
       </c>
       <c r="I1136" s="6" t="s">
@@ -29262,27 +29205,24 @@
     </row>
     <row r="1137" spans="1:9" ht="22.5">
       <c r="A1137" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1137" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1137" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1137" s="4">
-        <v>12</v>
+      <c r="D1137" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1137" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1137" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1137" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1137" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1137" s="4">
         <v>0</v>
       </c>
       <c r="I1137" s="6" t="s">
@@ -29295,36 +29235,36 @@
     </row>
     <row r="1139" spans="1:9" ht="22.5">
       <c r="A1139" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1139" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I1139" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1140" spans="1:9">
       <c r="A1140" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1140" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1140" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="C1140" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D1140" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1140" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1140" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1140" s="4">
-        <v>0</v>
+      <c r="E1140" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1140" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1140" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1140" s="6" t="s">
         <v>528</v>
@@ -29332,111 +29272,99 @@
     </row>
     <row r="1141" spans="1:9">
       <c r="A1141" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1141" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1141" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D1141" s="4">
-        <v>2</v>
-      </c>
-      <c r="F1141" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1141" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1141" s="4">
+        <v>1082</v>
+      </c>
+      <c r="E1141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1141" s="4">
         <v>0</v>
       </c>
       <c r="I1141" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1142" spans="1:9">
       <c r="A1142" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1142" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1142" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D1142" s="4">
-        <v>3</v>
+      <c r="D1142" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1142" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1142" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1142" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1142" s="4">
+      <c r="G1142" s="4">
         <v>0</v>
       </c>
       <c r="I1142" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1143" spans="1:9">
       <c r="A1143" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1143" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1143" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D1143" s="4">
-        <v>4</v>
+        <v>1094</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1143" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1143" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1143" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1143" s="4">
         <v>-1</v>
       </c>
       <c r="I1143" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1144" spans="1:9">
       <c r="A1144" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1144" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1144" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1144" s="4">
-        <v>5</v>
+      <c r="D1144" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1144" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1144" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1144" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1144" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1144" s="4">
+      <c r="G1144" s="4">
         <v>0</v>
       </c>
       <c r="I1144" s="6" t="s">
@@ -29445,27 +29373,24 @@
     </row>
     <row r="1145" spans="1:9">
       <c r="A1145" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1145" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1145" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1145" s="4">
-        <v>6</v>
+      <c r="D1145" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1145" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1145" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1145" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1145" s="4">
+      <c r="G1145" s="4">
         <v>0</v>
       </c>
       <c r="I1145" s="6" t="s">
@@ -29474,27 +29399,24 @@
     </row>
     <row r="1146" spans="1:9">
       <c r="A1146" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1146" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1146" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1146" s="4">
-        <v>7</v>
+      <c r="D1146" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1146" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1146" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1146" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1146" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1146" s="4">
         <v>0</v>
       </c>
       <c r="I1146" s="6" t="s">
@@ -29503,69 +29425,66 @@
     </row>
     <row r="1147" spans="1:9" ht="22.5">
       <c r="A1147" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1147" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1147" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1147" s="4">
-        <v>8</v>
+      <c r="D1147" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1147" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1147" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1147" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1147" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1147" s="4">
         <v>0</v>
       </c>
       <c r="I1147" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="1148" spans="1:9" s="9" customFormat="1" ht="409.6">
+    <row r="1148" spans="1:9" s="9" customFormat="1">
       <c r="G1148" s="10"/>
       <c r="I1148" s="11"/>
     </row>
     <row r="1149" spans="1:9" ht="22.5">
       <c r="A1149" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1149" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I1149" s="6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9">
+      <c r="A1150" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1150" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1150" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="I1149" s="6" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:9" ht="409.6">
-      <c r="A1150" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B1150" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C1150" s="4" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D1150" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1150" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1150" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1150" s="4">
-        <v>0</v>
+      <c r="E1150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1150" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1150" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1150" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1150" s="6" t="s">
         <v>528</v>
@@ -29573,82 +29492,73 @@
     </row>
     <row r="1151" spans="1:9">
       <c r="A1151" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1151" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1151" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D1151" s="4">
-        <v>2</v>
-      </c>
-      <c r="F1151" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1151" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1151" s="4">
+        <v>1082</v>
+      </c>
+      <c r="E1151" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1151" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1151" s="4">
         <v>0</v>
       </c>
       <c r="I1151" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1152" spans="1:9">
       <c r="A1152" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1152" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1152" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D1152" s="4">
-        <v>3</v>
+      <c r="D1152" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1152" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1152" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1152" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1152" s="4">
         <v>50</v>
       </c>
       <c r="I1152" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1153" spans="1:9">
       <c r="A1153" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1153" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1153" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1153" s="4">
-        <v>4</v>
+      <c r="D1153" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1153" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1153" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1153" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1153" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1153" s="4">
+      <c r="G1153" s="4">
         <v>0</v>
       </c>
       <c r="I1153" s="6" t="s">
@@ -29657,27 +29567,24 @@
     </row>
     <row r="1154" spans="1:9">
       <c r="A1154" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1154" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1154" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1154" s="4">
-        <v>5</v>
+      <c r="D1154" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1154" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1154" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1154" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1154" s="4">
+      <c r="G1154" s="4">
         <v>0</v>
       </c>
       <c r="I1154" s="6" t="s">
@@ -29686,27 +29593,24 @@
     </row>
     <row r="1155" spans="1:9">
       <c r="A1155" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1155" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1155" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1155" s="4">
-        <v>6</v>
+      <c r="D1155" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1155" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1155" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1155" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1155" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1155" s="4">
         <v>0</v>
       </c>
       <c r="I1155" s="6" t="s">
@@ -29715,27 +29619,24 @@
     </row>
     <row r="1156" spans="1:9" ht="22.5">
       <c r="A1156" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1156" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1156" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1156" s="4">
-        <v>7</v>
+      <c r="D1156" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1156" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1156" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1156" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1156" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1156" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1156" s="4">
         <v>0</v>
       </c>
       <c r="I1156" s="6" t="s">
@@ -29748,93 +29649,87 @@
     </row>
     <row r="1158" spans="1:9" ht="22.5">
       <c r="A1158" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1158" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I1158" s="6" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:9" ht="409.6">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9">
       <c r="A1159" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1159" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D1159" s="4">
-        <v>1</v>
-      </c>
-      <c r="F1159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1159" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1159" s="4">
-        <v>0</v>
+        <v>1083</v>
+      </c>
+      <c r="E1159" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1159" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1159" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="I1159" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="1160" spans="1:9" ht="409.6">
+    <row r="1160" spans="1:9">
       <c r="A1160" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1160" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1160" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D1160" s="4">
-        <v>2</v>
+      <c r="D1160" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1160" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1160" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1160" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1160" s="4">
         <v>50</v>
       </c>
       <c r="I1160" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="1161" spans="1:9" ht="409.6">
+    <row r="1161" spans="1:9">
       <c r="A1161" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1161" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1161" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D1161" s="4">
-        <v>3</v>
+      <c r="D1161" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E1161" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1161" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1161" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1161" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1161" s="4">
         <v>500</v>
       </c>
       <c r="I1161" s="6" t="s">
@@ -29843,85 +29738,76 @@
     </row>
     <row r="1162" spans="1:9">
       <c r="A1162" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1162" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1162" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1162" s="4">
-        <v>4</v>
+      <c r="D1162" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1162" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1162" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1162" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1162" s="4">
+      <c r="G1162" s="4">
         <v>0</v>
       </c>
       <c r="I1162" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="1163" spans="1:9" ht="409.6">
+    <row r="1163" spans="1:9">
       <c r="A1163" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1163" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1163" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1163" s="4">
-        <v>5</v>
+      <c r="D1163" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E1163" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1163" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1163" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1163" s="4">
+      <c r="G1163" s="4">
         <v>0</v>
       </c>
       <c r="I1163" s="6" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="1164" spans="1:9" ht="409.6">
+    <row r="1164" spans="1:9">
       <c r="A1164" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1164" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1164" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D1164" s="4">
-        <v>6</v>
+      <c r="D1164" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1164" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1164" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1164" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1164" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1164" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1164" s="4">
         <v>0</v>
       </c>
       <c r="I1164" s="6" t="s">
@@ -29930,31 +29816,1032 @@
     </row>
     <row r="1165" spans="1:9" ht="22.5">
       <c r="A1165" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1165" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C1165" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1165" s="4">
-        <v>7</v>
+      <c r="D1165" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E1165" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1165" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1165" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1165" s="4">
         <v>0</v>
       </c>
       <c r="I1165" s="6" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" s="9" customFormat="1">
+      <c r="G1166" s="10"/>
+      <c r="I1166" s="11"/>
+    </row>
+    <row r="1167" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A1167" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1167" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F1167" s="5"/>
+      <c r="G1167" s="4"/>
+      <c r="H1167" s="6"/>
+      <c r="I1167" s="6" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9">
+      <c r="A1168" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1168" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1168" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1168" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1168" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" ht="22.5">
+      <c r="A1169" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1169" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1169" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E1169" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1169" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1169" s="4">
+        <v>50</v>
+      </c>
+      <c r="H1169" s="6"/>
+      <c r="I1169" s="6" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" s="9" customFormat="1">
+      <c r="G1170" s="10"/>
+      <c r="I1170" s="11"/>
+    </row>
+    <row r="1171" spans="1:9" ht="22.5">
+      <c r="A1171" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F1171" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G1171" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1171" s="6"/>
+      <c r="I1171" s="6" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9">
+      <c r="A1172" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1172" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1172" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E1172" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1172" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1172" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1172" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1172" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9">
+      <c r="A1173" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1173" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1173" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1173" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1173" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1173" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1173" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1173" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9">
+      <c r="A1174" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1174" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1174" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1174" s="6"/>
+      <c r="I1174" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9">
+      <c r="A1175" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1175" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1175" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1175" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1175" s="6"/>
+      <c r="I1175" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" s="9" customFormat="1">
+      <c r="G1176" s="10"/>
+      <c r="I1176" s="11"/>
+    </row>
+    <row r="1177" spans="1:9" ht="33.75">
+      <c r="A1177" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F1177" s="5"/>
+      <c r="G1177" s="4"/>
+      <c r="H1177" s="6"/>
+      <c r="I1177" s="6" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9">
+      <c r="A1178" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E1178" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1178" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1178" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1178" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1178" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9">
+      <c r="A1179" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1179" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1179" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1179" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1179" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1179" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9">
+      <c r="A1180" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1180" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1180" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1180" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1180" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1180" s="6"/>
+      <c r="I1180" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" ht="22.5">
+      <c r="A1181" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1181" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E1181" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1181" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1181" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1181" s="6"/>
+      <c r="I1181" s="6" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9">
+      <c r="A1182" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1182" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1182" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1182" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1182" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1182" s="6"/>
+      <c r="I1182" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9">
+      <c r="A1183" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1183" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E1183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1183" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1183" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1183" s="6"/>
+      <c r="I1183" s="6" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9" ht="22.5">
+      <c r="A1184" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1184" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1184" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1184" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1184" s="6"/>
+      <c r="I1184" s="6" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9" s="9" customFormat="1">
+      <c r="G1185" s="10"/>
+      <c r="I1185" s="11"/>
+    </row>
+    <row r="1186" spans="1:9" ht="22.5">
+      <c r="A1186" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F1186" s="5"/>
+      <c r="G1186" s="4"/>
+      <c r="H1186" s="6"/>
+      <c r="I1186" s="6" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9">
+      <c r="A1187" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E1187" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1187" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1187" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1187" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9">
+      <c r="A1188" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1188" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1188" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1188" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1188" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1188" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1188" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9">
+      <c r="A1189" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1189" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E1189" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1189" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1189" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1189" s="6"/>
+      <c r="I1189" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9">
+      <c r="A1190" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1190" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1190" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1190" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1190" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1190" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" ht="22.5">
+      <c r="A1191" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E1191" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1191" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1191" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1191" s="6"/>
+      <c r="I1191" s="6" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" s="9" customFormat="1">
+      <c r="G1192" s="10"/>
+      <c r="I1192" s="11"/>
+    </row>
+    <row r="1193" spans="1:9">
+      <c r="A1193" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1193" s="5"/>
+      <c r="G1193" s="4"/>
+      <c r="H1193" s="6"/>
+      <c r="I1193" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9">
+      <c r="A1194" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1194" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1194" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1194" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1194" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1194" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9">
+      <c r="A1195" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1195" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1195" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1195" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1195" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1195" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9">
+      <c r="A1196" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1196" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1196" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1196" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1196" s="6"/>
+      <c r="I1196" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9">
+      <c r="A1197" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1197" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1197" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E1197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1197" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1197" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1197" s="6"/>
+      <c r="I1197" s="6" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9">
+      <c r="A1198" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1198" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1198" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1198" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1198" s="6"/>
+      <c r="I1198" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9">
+      <c r="A1199" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1199" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1199" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1199" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1199" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1199" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" ht="22.5">
+      <c r="A1200" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1200" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1200" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H1200" s="6"/>
+      <c r="I1200" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" s="9" customFormat="1">
+      <c r="G1201" s="10"/>
+      <c r="I1201" s="11"/>
+    </row>
+    <row r="1202" spans="1:9" ht="22.5">
+      <c r="A1202" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F1202" s="5"/>
+      <c r="G1202" s="4"/>
+      <c r="H1202" s="6"/>
+      <c r="I1202" s="6" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9">
+      <c r="A1203" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1203" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1203" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1203" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1203" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1203" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9">
+      <c r="A1204" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1204" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1204" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1204" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1204" s="6"/>
+      <c r="I1204" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9">
+      <c r="A1205" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E1205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1205" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1205" s="4">
+        <v>15</v>
+      </c>
+      <c r="H1205" s="6"/>
+      <c r="I1205" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9">
+      <c r="A1206" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E1206" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1206" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1206" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1206" s="6"/>
+      <c r="I1206" s="6" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9">
+      <c r="A1207" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1207" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1207" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1207" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1207" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1207" s="6"/>
+      <c r="I1207" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9">
+      <c r="A1208" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1208" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1208" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1208" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1208" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1208" s="6"/>
+      <c r="I1208" s="6" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" ht="22.5">
+      <c r="A1209" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1209" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E1209" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1209" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1209" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H1209" s="6"/>
+      <c r="I1209" s="6" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" s="9" customFormat="1">
+      <c r="G1210" s="10"/>
+      <c r="I1210" s="11"/>
+    </row>
+    <row r="1211" spans="1:9" ht="22.5">
+      <c r="A1211" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1211" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F1211" s="5"/>
+      <c r="G1211" s="4"/>
+      <c r="H1211" s="6"/>
+      <c r="I1211" s="6" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9">
+      <c r="A1212" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1212" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1212" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E1212" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1212" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1212" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1212" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1212" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9">
+      <c r="A1213" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1213" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1213" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1213" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1213" s="4">
+        <v>50</v>
+      </c>
+      <c r="H1213" s="6"/>
+      <c r="I1213" s="6" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9">
+      <c r="A1214" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1214" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1214" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1214" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1214" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1214" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1214" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1214" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1214" s="6" t="s">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -29977,7 +30864,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="360">
       <c r="A1" s="2" t="s">
-        <v>1059</v>
+        <v>1161</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -2441,9 +2441,6 @@
   </si>
   <si>
     <t>Identifier of the language of the item.</t>
-  </si>
-  <si>
-    <t>Additional information about the item.  Not used.</t>
   </si>
   <si>
     <t>Identifier of the user performing the scanning operation.  Not used.</t>
@@ -3925,6 +3922,9 @@
   </si>
   <si>
     <t>Identifier of the Role performed by the Institution for the Segment.</t>
+  </si>
+  <si>
+    <t>Copy-specific information about the item.</t>
   </si>
 </sst>
 </file>
@@ -4324,8 +4324,8 @@
   <dimension ref="A1:I1297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4356,13 +4356,13 @@
         <v>523</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>537</v>
@@ -4379,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4431,7 +4431,7 @@
         <v>526</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5">
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.5">
@@ -4506,7 +4506,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4573,7 +4573,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4625,7 +4625,7 @@
         <v>526</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22.5">
@@ -4726,7 +4726,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4793,7 +4793,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4845,7 +4845,7 @@
         <v>526</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33.75">
@@ -4871,7 +4871,7 @@
         <v>-1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="22.5">
@@ -4897,7 +4897,7 @@
         <v>-1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4923,7 +4923,7 @@
         <v>-1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4990,7 +4990,7 @@
         <v>27</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5042,7 +5042,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5068,7 +5068,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5135,7 +5135,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5187,7 +5187,7 @@
         <v>526</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="22.5">
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5">
@@ -5262,7 +5262,7 @@
         <v>100</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="22.5">
@@ -5288,7 +5288,7 @@
         <v>200</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="22.5">
@@ -5314,7 +5314,7 @@
         <v>50</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="22.5">
@@ -5340,7 +5340,7 @@
         <v>50</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="22.5">
@@ -5366,7 +5366,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="22.5">
@@ -5392,7 +5392,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5418,7 +5418,7 @@
         <v>50</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5444,7 +5444,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5470,7 +5470,7 @@
         <v>200</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5537,7 +5537,7 @@
         <v>41</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5589,7 +5589,7 @@
         <v>526</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="22.5">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5667,7 +5667,7 @@
         <v>-1</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="22.5">
@@ -5693,7 +5693,7 @@
         <v>-1</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="22.5">
@@ -5719,7 +5719,7 @@
         <v>-1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5745,7 +5745,7 @@
         <v>-1</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5771,7 +5771,7 @@
         <v>-1</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5797,7 +5797,7 @@
         <v>-1</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5864,7 +5864,7 @@
         <v>51</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5890,7 +5890,7 @@
         <v>525</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5916,7 +5916,7 @@
         <v>525</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5942,7 +5942,7 @@
         <v>525</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6003,7 +6003,7 @@
         <v>54</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -6055,7 +6055,7 @@
         <v>526</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="22.5">
@@ -6081,7 +6081,7 @@
         <v>100</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45">
@@ -6107,7 +6107,7 @@
         <v>526</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6226,7 +6226,7 @@
         <v>20</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6293,7 +6293,7 @@
         <v>59</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6319,7 +6319,7 @@
         <v>525</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6368,7 +6368,7 @@
         <v>50</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6420,7 +6420,7 @@
         <v>50</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6446,7 +6446,7 @@
         <v>526</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6472,7 +6472,7 @@
         <v>-1</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6498,7 +6498,7 @@
         <v>-1</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6524,7 +6524,7 @@
         <v>-1</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="9" customFormat="1">
@@ -6683,7 +6683,7 @@
         <v>69</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6709,7 +6709,7 @@
         <v>525</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6735,7 +6735,7 @@
         <v>30</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="9" customFormat="1">
@@ -6802,7 +6802,7 @@
         <v>71</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6854,7 +6854,7 @@
         <v>526</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="22.5">
@@ -6880,7 +6880,7 @@
         <v>-1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6906,7 +6906,7 @@
         <v>-1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="22.5">
@@ -6932,7 +6932,7 @@
         <v>-1</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7025,7 +7025,7 @@
         <v>79</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7077,7 +7077,7 @@
         <v>526</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="22.5">
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="22.5">
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="22.5">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="22.5">
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7236,7 +7236,7 @@
         <v>81</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7262,7 +7262,7 @@
         <v>525</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="33.75">
@@ -7291,7 +7291,7 @@
         <v>525</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7317,7 +7317,7 @@
         <v>-1</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7384,7 +7384,7 @@
         <v>84</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7436,7 +7436,7 @@
         <v>30</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="22.5">
@@ -7462,7 +7462,7 @@
         <v>-1</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7529,7 +7529,7 @@
         <v>87</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7581,7 +7581,7 @@
         <v>526</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7607,7 +7607,7 @@
         <v>526</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7633,7 +7633,7 @@
         <v>526</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="22.5">
@@ -7659,7 +7659,7 @@
         <v>150</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7726,7 +7726,7 @@
         <v>91</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7778,7 +7778,7 @@
         <v>526</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="22.5">
@@ -7804,7 +7804,7 @@
         <v>20</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="22.5">
@@ -7830,7 +7830,7 @@
         <v>50</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7897,7 +7897,7 @@
         <v>94</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7923,7 +7923,7 @@
         <v>525</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7949,7 +7949,7 @@
         <v>525</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7975,7 +7975,7 @@
         <v>20</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1">
@@ -7987,13 +7987,13 @@
         <v>111</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="4"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8001,10 +8001,10 @@
         <v>111</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>1198</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>4</v>
@@ -8027,7 +8027,7 @@
         <v>111</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>294</v>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="22.5">
@@ -8051,7 +8051,7 @@
         <v>111</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>451</v>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="9" customFormat="1">
@@ -8082,13 +8082,13 @@
         <v>111</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="4"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8096,10 +8096,10 @@
         <v>111</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>4</v>
@@ -8114,7 +8114,7 @@
         <v>525</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -8122,10 +8122,10 @@
         <v>111</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>1199</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>1200</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>4</v>
@@ -8140,7 +8140,7 @@
         <v>526</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -8148,10 +8148,10 @@
         <v>111</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>8</v>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="H176" s="6"/>
       <c r="I176" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -8172,10 +8172,10 @@
         <v>111</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>8</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="H177" s="6"/>
       <c r="I177" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1">
@@ -8200,13 +8200,13 @@
         <v>111</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="4"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8214,10 +8214,10 @@
         <v>111</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>1203</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>1204</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>4</v>
@@ -8232,7 +8232,7 @@
         <v>525</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8240,10 +8240,10 @@
         <v>111</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>4</v>
@@ -8258,7 +8258,7 @@
         <v>525</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="22.5">
@@ -8266,10 +8266,10 @@
         <v>111</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>4</v>
@@ -8284,7 +8284,7 @@
         <v>525</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="9" customFormat="1">
@@ -8296,13 +8296,13 @@
         <v>111</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="4"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8310,10 +8310,10 @@
         <v>111</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>4</v>
@@ -8328,7 +8328,7 @@
         <v>525</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8336,10 +8336,10 @@
         <v>111</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>1206</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>1207</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>4</v>
@@ -8354,7 +8354,7 @@
         <v>525</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1">
@@ -8366,13 +8366,13 @@
         <v>111</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="4"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8380,10 +8380,10 @@
         <v>111</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>4</v>
@@ -8406,7 +8406,7 @@
         <v>111</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>138</v>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8430,7 +8430,7 @@
         <v>111</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>137</v>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8454,10 +8454,10 @@
         <v>111</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>1208</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>1209</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>4</v>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8478,10 +8478,10 @@
         <v>111</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>8</v>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8502,10 +8502,10 @@
         <v>111</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>4</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="H194" s="6"/>
       <c r="I194" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8526,10 +8526,10 @@
         <v>111</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>8</v>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8550,10 +8550,10 @@
         <v>111</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>8</v>
@@ -8571,10 +8571,10 @@
         <v>111</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>8</v>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="H197" s="6"/>
       <c r="I197" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8595,10 +8595,10 @@
         <v>111</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>4</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H198" s="6"/>
       <c r="I198" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8619,10 +8619,10 @@
         <v>111</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>4</v>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="H199" s="6"/>
       <c r="I199" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8643,10 +8643,10 @@
         <v>111</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>8</v>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="H200" s="6"/>
       <c r="I200" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8667,10 +8667,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>4</v>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="H201" s="6"/>
       <c r="I201" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8691,10 +8691,10 @@
         <v>111</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>4</v>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="H202" s="6"/>
       <c r="I202" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -8715,10 +8715,10 @@
         <v>111</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>4</v>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H203" s="6"/>
       <c r="I203" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="9" customFormat="1">
@@ -9402,7 +9402,7 @@
         <v>33</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9480,7 +9480,7 @@
         <v>25</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="33.75">
@@ -9506,7 +9506,7 @@
         <v>25</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -9532,7 +9532,7 @@
         <v>300</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9558,7 +9558,7 @@
         <v>200</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9584,7 +9584,7 @@
         <v>300</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="22.5">
@@ -9610,7 +9610,7 @@
         <v>200</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="33.75">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10001,7 +10001,7 @@
         <v>134</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10079,7 +10079,7 @@
         <v>300</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="33.75">
@@ -10105,7 +10105,7 @@
         <v>150</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="33.75">
@@ -10131,7 +10131,7 @@
         <v>150</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="45">
@@ -10157,7 +10157,7 @@
         <v>150</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="56.25">
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10763,7 +10763,7 @@
         <v>152</v>
       </c>
       <c r="I297" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -10815,7 +10815,7 @@
         <v>50</v>
       </c>
       <c r="I299" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="22.5">
@@ -10841,7 +10841,7 @@
         <v>4000</v>
       </c>
       <c r="I300" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="33.75">
@@ -10867,7 +10867,7 @@
         <v>50</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="67.5">
@@ -10893,7 +10893,7 @@
         <v>-1</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="33.75">
@@ -10971,7 +10971,7 @@
         <v>526</v>
       </c>
       <c r="I305" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="33.75">
@@ -10997,7 +10997,7 @@
         <v>526</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="33.75">
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -11101,7 +11101,7 @@
         <v>30</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="22.5">
@@ -11127,7 +11127,7 @@
         <v>100</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -11153,7 +11153,7 @@
         <v>100</v>
       </c>
       <c r="I312" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="22.5">
@@ -11179,7 +11179,7 @@
         <v>100</v>
       </c>
       <c r="I313" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="33.75">
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="9" customFormat="1">
@@ -11434,7 +11434,7 @@
         <v>50</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="I330" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -11762,10 +11762,10 @@
         <v>111</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I343" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -11773,10 +11773,10 @@
         <v>111</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>4</v>
@@ -11799,10 +11799,10 @@
         <v>111</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>4</v>
@@ -11817,7 +11817,7 @@
         <v>526</v>
       </c>
       <c r="I345" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -11825,10 +11825,10 @@
         <v>111</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>4</v>
@@ -11840,15 +11840,15 @@
         <v>0</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>13</v>
@@ -11878,10 +11878,10 @@
         <v>111</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11889,10 +11889,10 @@
         <v>111</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E350" s="4" t="s">
         <v>4</v>
@@ -11915,7 +11915,7 @@
         <v>111</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>136</v>
@@ -11933,7 +11933,7 @@
         <v>30</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="22.5">
@@ -11941,10 +11941,10 @@
         <v>111</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>1060</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>1061</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>10</v>
@@ -11959,7 +11959,7 @@
         <v>20</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="33.75">
@@ -11967,7 +11967,7 @@
         <v>111</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>193</v>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="354" spans="1:9" s="9" customFormat="1">
@@ -12697,10 +12697,10 @@
         <v>111</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I387" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12708,10 +12708,10 @@
         <v>111</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C388" s="4" t="s">
         <v>1267</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>1268</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>4</v>
@@ -12734,10 +12734,10 @@
         <v>111</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>10</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="H389" s="6"/>
       <c r="I389" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12761,10 +12761,10 @@
         <v>111</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>10</v>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="H390" s="6"/>
       <c r="I390" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -12788,7 +12788,7 @@
         <v>111</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>13</v>
@@ -12814,7 +12814,7 @@
         <v>111</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>16</v>
@@ -12840,7 +12840,7 @@
         <v>111</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>128</v>
@@ -12866,7 +12866,7 @@
         <v>111</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>129</v>
@@ -13092,7 +13092,7 @@
         <v>-1</v>
       </c>
       <c r="I404" s="6" t="s">
-        <v>807</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="22.5">
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="I405" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -13138,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="I406" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="22.5">
@@ -13164,7 +13164,7 @@
         <v>526</v>
       </c>
       <c r="I407" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="22.5">
@@ -13187,7 +13187,7 @@
         <v>255</v>
       </c>
       <c r="I408" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -13320,7 +13320,7 @@
         <v>526</v>
       </c>
       <c r="I413" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13343,7 +13343,7 @@
         <v>100</v>
       </c>
       <c r="I414" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="22.5">
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="22.5">
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13438,7 +13438,7 @@
         <v>526</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="22.5">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="22.5">
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="33.75">
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="I421" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13533,7 +13533,7 @@
         <v>526</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="78.75">
@@ -13556,7 +13556,7 @@
         <v>20</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="22.5">
@@ -13579,7 +13579,7 @@
         <v>50</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="45">
@@ -13605,7 +13605,7 @@
         <v>250</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="33.75">
@@ -13628,7 +13628,7 @@
         <v>200</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="22.5">
@@ -13651,7 +13651,7 @@
         <v>100</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="22.5">
@@ -13677,7 +13677,7 @@
         <v>-1</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="22.5">
@@ -13703,7 +13703,7 @@
         <v>-1</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -13729,7 +13729,7 @@
         <v>-1</v>
       </c>
       <c r="I430" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -13755,7 +13755,7 @@
         <v>-1</v>
       </c>
       <c r="I431" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="22.5">
@@ -13781,7 +13781,7 @@
         <v>50</v>
       </c>
       <c r="I432" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="22.5">
@@ -13807,7 +13807,7 @@
         <v>-1</v>
       </c>
       <c r="I433" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="33.75">
@@ -13833,7 +13833,7 @@
         <v>-1</v>
       </c>
       <c r="I434" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="22.5">
@@ -13859,7 +13859,7 @@
         <v>100</v>
       </c>
       <c r="I435" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="22.5">
@@ -13885,7 +13885,7 @@
         <v>30</v>
       </c>
       <c r="I436" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="22.5">
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="I437" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="67.5">
@@ -13934,7 +13934,7 @@
         <v>526</v>
       </c>
       <c r="I438" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="22.5">
@@ -13960,7 +13960,7 @@
         <v>500</v>
       </c>
       <c r="I439" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="45">
@@ -13986,7 +13986,7 @@
         <v>20</v>
       </c>
       <c r="I440" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="56.25">
@@ -13997,7 +13997,7 @@
         <v>201</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>10</v>
@@ -14012,7 +14012,7 @@
         <v>10</v>
       </c>
       <c r="I441" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="56.25">
@@ -14023,7 +14023,7 @@
         <v>201</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>10</v>
@@ -14038,7 +14038,7 @@
         <v>10</v>
       </c>
       <c r="I442" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="56.25">
@@ -14049,7 +14049,7 @@
         <v>201</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>10</v>
@@ -14064,7 +14064,7 @@
         <v>10</v>
       </c>
       <c r="I443" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="45">
@@ -14075,7 +14075,7 @@
         <v>201</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>10</v>
@@ -14090,7 +14090,7 @@
         <v>10</v>
       </c>
       <c r="I444" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="56.25">
@@ -14101,7 +14101,7 @@
         <v>201</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>10</v>
@@ -14116,7 +14116,7 @@
         <v>10</v>
       </c>
       <c r="I445" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="56.25">
@@ -14127,7 +14127,7 @@
         <v>201</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>10</v>
@@ -14142,7 +14142,7 @@
         <v>10</v>
       </c>
       <c r="I446" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="56.25">
@@ -14153,7 +14153,7 @@
         <v>201</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>10</v>
@@ -14168,7 +14168,7 @@
         <v>10</v>
       </c>
       <c r="I447" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="45">
@@ -14179,7 +14179,7 @@
         <v>201</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>10</v>
@@ -14194,7 +14194,7 @@
         <v>10</v>
       </c>
       <c r="I448" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="56.25">
@@ -14205,7 +14205,7 @@
         <v>201</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>10</v>
@@ -14220,7 +14220,7 @@
         <v>10</v>
       </c>
       <c r="I449" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="45">
@@ -14231,7 +14231,7 @@
         <v>201</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>10</v>
@@ -14246,7 +14246,7 @@
         <v>10</v>
       </c>
       <c r="I450" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="56.25">
@@ -14257,7 +14257,7 @@
         <v>201</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>77</v>
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="I451" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="33.75">
@@ -14283,7 +14283,7 @@
         <v>201</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E452" s="4" t="s">
         <v>8</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="I452" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="33.75">
@@ -14306,7 +14306,7 @@
         <v>201</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>8</v>
@@ -14318,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="I453" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="454" spans="1:9" s="9" customFormat="1">
@@ -14449,10 +14449,10 @@
         <v>111</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I461" s="6" t="s">
         <v>1274</v>
-      </c>
-      <c r="I461" s="6" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -14460,10 +14460,10 @@
         <v>111</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>4</v>
@@ -14486,7 +14486,7 @@
         <v>111</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>7</v>
@@ -14504,7 +14504,7 @@
         <v>526</v>
       </c>
       <c r="I463" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -14512,7 +14512,7 @@
         <v>111</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>160</v>
@@ -14530,7 +14530,7 @@
         <v>526</v>
       </c>
       <c r="I464" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="22.5">
@@ -14538,10 +14538,10 @@
         <v>111</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>4</v>
@@ -14556,7 +14556,7 @@
         <v>526</v>
       </c>
       <c r="I465" s="6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -14564,7 +14564,7 @@
         <v>111</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>13</v>
@@ -14590,7 +14590,7 @@
         <v>111</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>16</v>
@@ -14616,7 +14616,7 @@
         <v>111</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>128</v>
@@ -14642,7 +14642,7 @@
         <v>111</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>129</v>
@@ -15533,7 +15533,7 @@
         <v>260</v>
       </c>
       <c r="I513" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -15585,7 +15585,7 @@
         <v>526</v>
       </c>
       <c r="I515" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="22.5">
@@ -15611,7 +15611,7 @@
         <v>526</v>
       </c>
       <c r="I516" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -15637,7 +15637,7 @@
         <v>500</v>
       </c>
       <c r="I517" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -15686,7 +15686,7 @@
         <v>200</v>
       </c>
       <c r="I519" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="22.5">
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="I520" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -15776,7 +15776,7 @@
         <v>266</v>
       </c>
       <c r="I524" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -15828,7 +15828,7 @@
         <v>526</v>
       </c>
       <c r="I526" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -15854,7 +15854,7 @@
         <v>3</v>
       </c>
       <c r="I527" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -15880,7 +15880,7 @@
         <v>200</v>
       </c>
       <c r="I528" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -15947,7 +15947,7 @@
         <v>270</v>
       </c>
       <c r="I532" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -15999,7 +15999,7 @@
         <v>526</v>
       </c>
       <c r="I534" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -16025,7 +16025,7 @@
         <v>3</v>
       </c>
       <c r="I535" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="22.5">
@@ -16051,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="I536" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="22.5">
@@ -16077,7 +16077,7 @@
         <v>1</v>
       </c>
       <c r="I537" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -16144,7 +16144,7 @@
         <v>274</v>
       </c>
       <c r="I541" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -16196,7 +16196,7 @@
         <v>500</v>
       </c>
       <c r="I543" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="22.5">
@@ -16219,7 +16219,7 @@
         <v>10</v>
       </c>
       <c r="I544" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -16260,7 +16260,7 @@
         <v>276</v>
       </c>
       <c r="I547" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -16309,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="I549" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -16332,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="I550" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -16358,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="I551" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="I552" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
       <c r="I553" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -16427,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="I554" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="555" spans="1:9">
@@ -16453,7 +16453,7 @@
         <v>126</v>
       </c>
       <c r="I555" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="556" spans="1:9" ht="22.5">
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="I556" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -16502,7 +16502,7 @@
         <v>4000</v>
       </c>
       <c r="I557" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="558" spans="1:9" s="9" customFormat="1">
@@ -16517,7 +16517,7 @@
         <v>285</v>
       </c>
       <c r="I559" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -16569,7 +16569,7 @@
         <v>30</v>
       </c>
       <c r="I561" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="562" spans="1:9" s="9" customFormat="1">
@@ -16584,7 +16584,7 @@
         <v>287</v>
       </c>
       <c r="I563" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -16636,7 +16636,7 @@
         <v>526</v>
       </c>
       <c r="I565" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -16662,7 +16662,7 @@
         <v>1</v>
       </c>
       <c r="I566" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="567" spans="1:9" ht="45">
@@ -16688,7 +16688,7 @@
         <v>200</v>
       </c>
       <c r="I567" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="I620" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="621" spans="1:9">
@@ -18341,7 +18341,7 @@
         <v>111</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F645" s="5"/>
       <c r="G645" s="4">
@@ -18349,7 +18349,7 @@
       </c>
       <c r="H645" s="6"/>
       <c r="I645" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="646" spans="1:9">
@@ -18357,10 +18357,10 @@
         <v>111</v>
       </c>
       <c r="B646" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C646" s="4" t="s">
         <v>1138</v>
-      </c>
-      <c r="C646" s="4" t="s">
-        <v>1139</v>
       </c>
       <c r="E646" s="4" t="s">
         <v>4</v>
@@ -18383,10 +18383,10 @@
         <v>111</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D647" s="4" t="s">
         <v>10</v>
@@ -18410,10 +18410,10 @@
         <v>111</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D648" s="4" t="s">
         <v>10</v>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="H648" s="6"/>
       <c r="I648" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="649" spans="1:9" ht="33.75">
@@ -18437,7 +18437,7 @@
         <v>111</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>506</v>
@@ -18456,7 +18456,7 @@
       </c>
       <c r="H649" s="6"/>
       <c r="I649" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="650" spans="1:9" ht="33.75">
@@ -18464,10 +18464,10 @@
         <v>111</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D650" s="4" t="s">
         <v>10</v>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="H650" s="6"/>
       <c r="I650" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="651" spans="1:9">
@@ -18491,7 +18491,7 @@
         <v>111</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>13</v>
@@ -18518,7 +18518,7 @@
         <v>111</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>16</v>
@@ -18545,7 +18545,7 @@
         <v>111</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C653" s="4" t="s">
         <v>128</v>
@@ -18572,7 +18572,7 @@
         <v>111</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>129</v>
@@ -18606,7 +18606,7 @@
         <v>315</v>
       </c>
       <c r="I656" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="657" spans="1:9">
@@ -18658,7 +18658,7 @@
         <v>526</v>
       </c>
       <c r="I658" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="659" spans="1:9" ht="22.5">
@@ -18681,7 +18681,7 @@
         <v>50</v>
       </c>
       <c r="I659" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="660" spans="1:9" ht="56.25">
@@ -18704,7 +18704,7 @@
         <v>0</v>
       </c>
       <c r="I660" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="661" spans="1:9">
@@ -18727,7 +18727,7 @@
         <v>255</v>
       </c>
       <c r="I661" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="662" spans="1:9" ht="33.75">
@@ -18753,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="I662" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="663" spans="1:9">
@@ -18776,7 +18776,7 @@
         <v>255</v>
       </c>
       <c r="I663" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="664" spans="1:9">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="I664" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="665" spans="1:9">
@@ -18822,7 +18822,7 @@
         <v>5</v>
       </c>
       <c r="I665" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="11.25" customHeight="1">
@@ -18952,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="I670" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="671" spans="1:9">
@@ -18975,7 +18975,7 @@
         <v>20</v>
       </c>
       <c r="I671" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="672" spans="1:9">
@@ -18998,7 +18998,7 @@
         <v>20</v>
       </c>
       <c r="I672" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="673" spans="1:9">
@@ -19021,7 +19021,7 @@
         <v>20</v>
       </c>
       <c r="I673" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="674" spans="1:9">
@@ -19044,7 +19044,7 @@
         <v>20</v>
       </c>
       <c r="I674" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="675" spans="1:9" ht="22.5">
@@ -19067,7 +19067,7 @@
         <v>500</v>
       </c>
       <c r="I675" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="676" spans="1:9" ht="22.5">
@@ -19090,7 +19090,7 @@
         <v>20</v>
       </c>
       <c r="I676" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="677" spans="1:9" ht="33.75">
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="I677" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="22.5">
@@ -19136,7 +19136,7 @@
         <v>0</v>
       </c>
       <c r="I678" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="679" spans="1:9" ht="22.5">
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="I679" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="22.5">
@@ -19182,7 +19182,7 @@
         <v>500</v>
       </c>
       <c r="I680" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="681" spans="1:9" s="9" customFormat="1">
@@ -22102,7 +22102,7 @@
         <v>401</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D813" s="4" t="s">
         <v>10</v>
@@ -22117,7 +22117,7 @@
         <v>-1</v>
       </c>
       <c r="I813" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="814" spans="1:9">
@@ -22128,7 +22128,7 @@
         <v>401</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D814" s="4" t="s">
         <v>10</v>
@@ -22143,7 +22143,7 @@
         <v>-1</v>
       </c>
       <c r="I814" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="815" spans="1:9" ht="22.5">
@@ -22154,7 +22154,7 @@
         <v>401</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E815" s="4" t="s">
         <v>8</v>
@@ -22166,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="I815" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="816" spans="1:9" s="9" customFormat="1">
@@ -22886,7 +22886,7 @@
         <v>421</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D848" s="4" t="s">
         <v>10</v>
@@ -22901,7 +22901,7 @@
         <v>-1</v>
       </c>
       <c r="I848" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="849" spans="1:9" s="9" customFormat="1">
@@ -22916,7 +22916,7 @@
         <v>425</v>
       </c>
       <c r="I850" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -23017,7 +23017,7 @@
         <v>0</v>
       </c>
       <c r="I854" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="855" spans="1:9">
@@ -23069,7 +23069,7 @@
         <v>2000</v>
       </c>
       <c r="I856" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="857" spans="1:9">
@@ -23095,7 +23095,7 @@
         <v>2000</v>
       </c>
       <c r="I857" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="858" spans="1:9" ht="45">
@@ -23121,7 +23121,7 @@
         <v>2000</v>
       </c>
       <c r="I858" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="859" spans="1:9" ht="22.5">
@@ -23147,7 +23147,7 @@
         <v>400</v>
       </c>
       <c r="I859" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="860" spans="1:9">
@@ -23173,7 +23173,7 @@
         <v>250</v>
       </c>
       <c r="I860" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="861" spans="1:9">
@@ -23199,7 +23199,7 @@
         <v>150</v>
       </c>
       <c r="I861" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="862" spans="1:9">
@@ -23225,7 +23225,7 @@
         <v>-1</v>
       </c>
       <c r="I862" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="863" spans="1:9">
@@ -23251,7 +23251,7 @@
         <v>-1</v>
       </c>
       <c r="I863" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="864" spans="1:9">
@@ -23277,7 +23277,7 @@
         <v>100</v>
       </c>
       <c r="I864" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="865" spans="1:9">
@@ -23303,7 +23303,7 @@
         <v>100</v>
       </c>
       <c r="I865" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="866" spans="1:9">
@@ -23326,7 +23326,7 @@
         <v>100</v>
       </c>
       <c r="I866" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="867" spans="1:9">
@@ -23352,7 +23352,7 @@
         <v>400</v>
       </c>
       <c r="I867" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="868" spans="1:9">
@@ -23378,7 +23378,7 @@
         <v>20</v>
       </c>
       <c r="I868" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="22.5">
@@ -23404,7 +23404,7 @@
         <v>50</v>
       </c>
       <c r="I869" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="870" spans="1:9" ht="22.5">
@@ -23430,7 +23430,7 @@
         <v>20</v>
       </c>
       <c r="I870" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="22.5">
@@ -23456,7 +23456,7 @@
         <v>20</v>
       </c>
       <c r="I871" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="872" spans="1:9">
@@ -23508,7 +23508,7 @@
         <v>526</v>
       </c>
       <c r="I873" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="874" spans="1:9" ht="22.5">
@@ -23534,7 +23534,7 @@
         <v>200</v>
       </c>
       <c r="I874" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="875" spans="1:9">
@@ -23560,7 +23560,7 @@
         <v>200</v>
       </c>
       <c r="I875" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="876" spans="1:9">
@@ -23586,7 +23586,7 @@
         <v>500</v>
       </c>
       <c r="I876" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="877" spans="1:9">
@@ -23612,7 +23612,7 @@
         <v>500</v>
       </c>
       <c r="I877" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="878" spans="1:9" ht="22.5">
@@ -23638,7 +23638,7 @@
         <v>200</v>
       </c>
       <c r="I878" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="879" spans="1:9" ht="22.5">
@@ -23664,7 +23664,7 @@
         <v>200</v>
       </c>
       <c r="I879" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="880" spans="1:9" ht="33.75">
@@ -23687,7 +23687,7 @@
         <v>0</v>
       </c>
       <c r="I880" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="881" spans="1:9" ht="33.75">
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="I881" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="882" spans="1:9">
@@ -23840,7 +23840,7 @@
         <v>2000</v>
       </c>
       <c r="I886" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="887" spans="1:9" ht="67.5">
@@ -23866,7 +23866,7 @@
         <v>526</v>
       </c>
       <c r="I887" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="888" spans="1:9" s="9" customFormat="1">
@@ -25002,10 +25002,10 @@
         <v>111</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I941" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="942" spans="1:9">
@@ -25013,10 +25013,10 @@
         <v>111</v>
       </c>
       <c r="B942" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C942" s="4" t="s">
         <v>1288</v>
-      </c>
-      <c r="C942" s="4" t="s">
-        <v>1289</v>
       </c>
       <c r="E942" s="5" t="s">
         <v>4</v>
@@ -25039,7 +25039,7 @@
         <v>111</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C943" s="4" t="s">
         <v>313</v>
@@ -25057,7 +25057,7 @@
         <v>526</v>
       </c>
       <c r="I943" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="944" spans="1:9">
@@ -25065,7 +25065,7 @@
         <v>111</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C944" s="4" t="s">
         <v>160</v>
@@ -25083,7 +25083,7 @@
         <v>526</v>
       </c>
       <c r="I944" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="22.5">
@@ -25091,10 +25091,10 @@
         <v>111</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E945" s="5" t="s">
         <v>4</v>
@@ -25109,7 +25109,7 @@
         <v>526</v>
       </c>
       <c r="I945" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="946" spans="1:9">
@@ -25117,7 +25117,7 @@
         <v>111</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C946" s="4" t="s">
         <v>13</v>
@@ -25143,7 +25143,7 @@
         <v>111</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C947" s="4" t="s">
         <v>16</v>
@@ -25169,7 +25169,7 @@
         <v>111</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C948" s="4" t="s">
         <v>128</v>
@@ -25195,7 +25195,7 @@
         <v>111</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C949" s="4" t="s">
         <v>129</v>
@@ -26056,7 +26056,7 @@
         <v>34</v>
       </c>
       <c r="I989" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -26105,7 +26105,7 @@
         <v>50</v>
       </c>
       <c r="I991" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -26128,7 +26128,7 @@
         <v>24</v>
       </c>
       <c r="I992" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -26151,7 +26151,7 @@
         <v>0</v>
       </c>
       <c r="I993" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="994" spans="1:9" ht="67.5">
@@ -26177,7 +26177,7 @@
         <v>526</v>
       </c>
       <c r="I994" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="995" spans="1:9" ht="22.5">
@@ -26203,7 +26203,7 @@
         <v>2000</v>
       </c>
       <c r="I995" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -26226,7 +26226,7 @@
         <v>255</v>
       </c>
       <c r="I996" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="997" spans="1:9">
@@ -26249,7 +26249,7 @@
         <v>255</v>
       </c>
       <c r="I997" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="998" spans="1:9" ht="33.75">
@@ -26272,7 +26272,7 @@
         <v>60</v>
       </c>
       <c r="I998" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="999" spans="1:9" ht="22.5">
@@ -26295,7 +26295,7 @@
         <v>100</v>
       </c>
       <c r="I999" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1000" spans="1:9" ht="22.5">
@@ -26318,7 +26318,7 @@
         <v>255</v>
       </c>
       <c r="I1000" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1001" spans="1:9" ht="45">
@@ -26344,7 +26344,7 @@
         <v>527</v>
       </c>
       <c r="I1001" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1002" spans="1:9" ht="45">
@@ -26370,7 +26370,7 @@
         <v>527</v>
       </c>
       <c r="I1002" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1003" spans="1:9" ht="22.5">
@@ -26393,7 +26393,7 @@
         <v>150</v>
       </c>
       <c r="I1003" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1004" spans="1:9" ht="22.5">
@@ -26416,7 +26416,7 @@
         <v>255</v>
       </c>
       <c r="I1004" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1005" spans="1:9" ht="22.5">
@@ -26439,7 +26439,7 @@
         <v>100</v>
       </c>
       <c r="I1005" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
@@ -26465,7 +26465,7 @@
         <v>526</v>
       </c>
       <c r="I1006" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
@@ -26488,7 +26488,7 @@
         <v>-1</v>
       </c>
       <c r="I1007" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
@@ -26511,7 +26511,7 @@
         <v>100</v>
       </c>
       <c r="I1008" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1009" spans="1:9" ht="45">
@@ -26537,7 +26537,7 @@
         <v>0</v>
       </c>
       <c r="I1009" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
@@ -26563,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="I1010" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1011" spans="1:9" ht="22.5">
@@ -26586,7 +26586,7 @@
         <v>255</v>
       </c>
       <c r="I1011" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
@@ -26713,7 +26713,7 @@
         <v>100</v>
       </c>
       <c r="I1016" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1017" spans="1:9" ht="22.5">
@@ -26736,7 +26736,7 @@
         <v>450</v>
       </c>
       <c r="I1017" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1018" spans="1:9" ht="22.5">
@@ -26759,7 +26759,7 @@
         <v>100</v>
       </c>
       <c r="I1018" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1019" spans="1:9" ht="22.5">
@@ -26782,7 +26782,7 @@
         <v>255</v>
       </c>
       <c r="I1019" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1020" spans="1:9" ht="22.5">
@@ -26805,7 +26805,7 @@
         <v>255</v>
       </c>
       <c r="I1020" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="22.5">
@@ -26831,7 +26831,7 @@
         <v>526</v>
       </c>
       <c r="I1021" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1022" spans="1:9" s="9" customFormat="1">
@@ -27069,7 +27069,7 @@
         <v>482</v>
       </c>
       <c r="I1033" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
@@ -27147,7 +27147,7 @@
         <v>526</v>
       </c>
       <c r="I1036" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1037" spans="1:9">
@@ -27173,7 +27173,7 @@
         <v>500</v>
       </c>
       <c r="I1037" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1038" spans="1:9">
@@ -27199,7 +27199,7 @@
         <v>500</v>
       </c>
       <c r="I1038" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1039" spans="1:9">
@@ -27225,7 +27225,7 @@
         <v>500</v>
       </c>
       <c r="I1039" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="33.75">
@@ -27251,7 +27251,7 @@
         <v>0</v>
       </c>
       <c r="I1040" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -27277,7 +27277,7 @@
         <v>526</v>
       </c>
       <c r="I1041" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1042" spans="1:9">
@@ -27355,7 +27355,7 @@
         <v>500</v>
       </c>
       <c r="I1044" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
@@ -27381,7 +27381,7 @@
         <v>500</v>
       </c>
       <c r="I1045" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1046" spans="1:9">
@@ -27407,7 +27407,7 @@
         <v>500</v>
       </c>
       <c r="I1046" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1047" spans="1:9">
@@ -28815,7 +28815,7 @@
         <v>111</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F1112" s="5"/>
       <c r="G1112" s="4">
@@ -28823,7 +28823,7 @@
       </c>
       <c r="H1112" s="6"/>
       <c r="I1112" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1113" spans="1:9">
@@ -28831,10 +28831,10 @@
         <v>111</v>
       </c>
       <c r="B1113" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C1113" s="4" t="s">
         <v>1147</v>
-      </c>
-      <c r="C1113" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1113" s="4" t="s">
         <v>4</v>
@@ -28857,7 +28857,7 @@
         <v>111</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1114" s="4" t="s">
         <v>32</v>
@@ -28875,7 +28875,7 @@
         <v>526</v>
       </c>
       <c r="I1114" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1115" spans="1:9">
@@ -28883,10 +28883,10 @@
         <v>111</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1115" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E1115" s="4" t="s">
         <v>8</v>
@@ -28901,7 +28901,7 @@
         <v>526</v>
       </c>
       <c r="I1115" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1116" spans="1:9">
@@ -28909,7 +28909,7 @@
         <v>111</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1116" s="4" t="s">
         <v>73</v>
@@ -28928,7 +28928,7 @@
       </c>
       <c r="H1116" s="6"/>
       <c r="I1116" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1117" spans="1:9">
@@ -28936,10 +28936,10 @@
         <v>111</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E1117" s="4" t="s">
         <v>8</v>
@@ -28952,7 +28952,7 @@
       </c>
       <c r="H1117" s="6"/>
       <c r="I1117" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1118" spans="1:9">
@@ -28960,7 +28960,7 @@
         <v>111</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1118" s="4" t="s">
         <v>13</v>
@@ -28987,7 +28987,7 @@
         <v>111</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C1119" s="4" t="s">
         <v>128</v>
@@ -29021,7 +29021,7 @@
         <v>510</v>
       </c>
       <c r="I1121" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1122" spans="1:9">
@@ -29099,7 +29099,7 @@
         <v>526</v>
       </c>
       <c r="I1124" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1125" spans="1:9">
@@ -29125,7 +29125,7 @@
         <v>-1</v>
       </c>
       <c r="I1125" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1126" spans="1:9">
@@ -29151,7 +29151,7 @@
         <v>-1</v>
       </c>
       <c r="I1126" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1127" spans="1:9" ht="33.75">
@@ -29177,7 +29177,7 @@
         <v>255</v>
       </c>
       <c r="I1127" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1128" spans="1:9" ht="33.75">
@@ -29203,7 +29203,7 @@
         <v>255</v>
       </c>
       <c r="I1128" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1129" spans="1:9">
@@ -29579,7 +29579,7 @@
         <v>100</v>
       </c>
       <c r="I1146" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1147" spans="1:9" s="9" customFormat="1">
@@ -29588,24 +29588,24 @@
     </row>
     <row r="1148" spans="1:9">
       <c r="A1148" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1148" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B1148" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="I1148" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1149" spans="1:9">
       <c r="A1149" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1149" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B1149" s="4" t="s">
+      <c r="C1149" s="4" t="s">
         <v>1070</v>
-      </c>
-      <c r="C1149" s="4" t="s">
-        <v>1071</v>
       </c>
       <c r="E1149" s="4" t="s">
         <v>4</v>
@@ -29625,13 +29625,13 @@
     </row>
     <row r="1150" spans="1:9">
       <c r="A1150" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1150" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B1150" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C1150" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E1150" s="4" t="s">
         <v>4</v>
@@ -29651,13 +29651,13 @@
     </row>
     <row r="1151" spans="1:9">
       <c r="A1151" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1151" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B1151" s="4" t="s">
-        <v>1070</v>
-      </c>
       <c r="C1151" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E1151" s="4" t="s">
         <v>4</v>
@@ -29669,15 +29669,15 @@
         <v>200</v>
       </c>
       <c r="I1151" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1152" spans="1:9">
       <c r="A1152" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1152" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="B1152" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="C1152" s="4" t="s">
         <v>427</v>
@@ -29697,10 +29697,10 @@
     </row>
     <row r="1153" spans="1:9">
       <c r="A1153" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1153" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="B1153" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="C1153" s="4" t="s">
         <v>13</v>
@@ -29723,10 +29723,10 @@
     </row>
     <row r="1154" spans="1:9">
       <c r="A1154" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1154" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="B1154" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="C1154" s="4" t="s">
         <v>16</v>
@@ -29749,10 +29749,10 @@
     </row>
     <row r="1155" spans="1:9">
       <c r="A1155" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1155" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="B1155" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="C1155" s="4" t="s">
         <v>128</v>
@@ -29775,10 +29775,10 @@
     </row>
     <row r="1156" spans="1:9" ht="22.5">
       <c r="A1156" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1156" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="B1156" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="C1156" s="4" t="s">
         <v>129</v>
@@ -29805,24 +29805,24 @@
     </row>
     <row r="1158" spans="1:9" ht="22.5">
       <c r="A1158" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1158" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I1158" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1159" spans="1:9">
       <c r="A1159" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1159" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E1159" s="4" t="s">
         <v>4</v>
@@ -29842,10 +29842,10 @@
     </row>
     <row r="1160" spans="1:9">
       <c r="A1160" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1160" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1160" s="4" t="s">
         <v>467</v>
@@ -29868,10 +29868,10 @@
     </row>
     <row r="1161" spans="1:9">
       <c r="A1161" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1161" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1161" s="4" t="s">
         <v>286</v>
@@ -29894,10 +29894,10 @@
     </row>
     <row r="1162" spans="1:9">
       <c r="A1162" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1162" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1162" s="4" t="s">
         <v>13</v>
@@ -29920,10 +29920,10 @@
     </row>
     <row r="1163" spans="1:9">
       <c r="A1163" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1163" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1163" s="4" t="s">
         <v>16</v>
@@ -29946,10 +29946,10 @@
     </row>
     <row r="1164" spans="1:9">
       <c r="A1164" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1164" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1164" s="4" t="s">
         <v>128</v>
@@ -29972,10 +29972,10 @@
     </row>
     <row r="1165" spans="1:9" ht="22.5">
       <c r="A1165" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1165" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1165" s="4" t="s">
         <v>129</v>
@@ -30002,24 +30002,24 @@
     </row>
     <row r="1167" spans="1:9">
       <c r="A1167" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1167" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I1167" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1168" spans="1:9">
       <c r="A1168" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1168" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1168" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="C1168" s="4" t="s">
-        <v>1076</v>
       </c>
       <c r="E1168" s="4" t="s">
         <v>4</v>
@@ -30039,13 +30039,13 @@
     </row>
     <row r="1169" spans="1:9" ht="22.5">
       <c r="A1169" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1169" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1169" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E1169" s="4" t="s">
         <v>4</v>
@@ -30057,18 +30057,18 @@
         <v>0</v>
       </c>
       <c r="I1169" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1170" spans="1:9">
       <c r="A1170" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1170" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1170" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E1170" s="4" t="s">
         <v>4</v>
@@ -30080,18 +30080,18 @@
         <v>0</v>
       </c>
       <c r="I1170" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1171" spans="1:9">
       <c r="A1171" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1171" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1171" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D1171" s="4" t="s">
         <v>10</v>
@@ -30106,15 +30106,15 @@
         <v>50</v>
       </c>
       <c r="I1171" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1172" spans="1:9">
       <c r="A1172" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1172" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1172" s="4" t="s">
         <v>34</v>
@@ -30132,15 +30132,15 @@
         <v>2000</v>
       </c>
       <c r="I1172" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1173" spans="1:9">
       <c r="A1173" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1173" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1173" s="4" t="s">
         <v>423</v>
@@ -30158,18 +30158,18 @@
         <v>2000</v>
       </c>
       <c r="I1173" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1174" spans="1:9" ht="33.75">
       <c r="A1174" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1174" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1174" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D1174" s="4" t="s">
         <v>10</v>
@@ -30184,15 +30184,15 @@
         <v>2000</v>
       </c>
       <c r="I1174" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1175" spans="1:9">
       <c r="A1175" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1175" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1175" s="4" t="s">
         <v>12</v>
@@ -30210,15 +30210,15 @@
         <v>100</v>
       </c>
       <c r="I1175" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1176" spans="1:9">
       <c r="A1176" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1176" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1176" s="4" t="s">
         <v>322</v>
@@ -30236,15 +30236,15 @@
         <v>100</v>
       </c>
       <c r="I1176" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1177" spans="1:9">
       <c r="A1177" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1177" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1177" s="4" t="s">
         <v>323</v>
@@ -30262,15 +30262,15 @@
         <v>100</v>
       </c>
       <c r="I1177" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1178" spans="1:9">
       <c r="A1178" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1178" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1178" s="4" t="s">
         <v>35</v>
@@ -30288,15 +30288,15 @@
         <v>400</v>
       </c>
       <c r="I1178" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1179" spans="1:9" ht="22.5">
       <c r="A1179" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1179" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1179" s="4" t="s">
         <v>36</v>
@@ -30314,15 +30314,15 @@
         <v>400</v>
       </c>
       <c r="I1179" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1180" spans="1:9">
       <c r="A1180" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1180" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1180" s="4" t="s">
         <v>406</v>
@@ -30340,15 +30340,15 @@
         <v>250</v>
       </c>
       <c r="I1180" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1181" spans="1:9">
       <c r="A1181" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1181" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1181" s="4" t="s">
         <v>405</v>
@@ -30366,15 +30366,15 @@
         <v>150</v>
       </c>
       <c r="I1181" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1182" spans="1:9">
       <c r="A1182" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1182" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1182" s="4" t="s">
         <v>222</v>
@@ -30392,15 +30392,15 @@
         <v>20</v>
       </c>
       <c r="I1182" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1183" spans="1:9" ht="22.5">
       <c r="A1183" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1183" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1183" s="4" t="s">
         <v>470</v>
@@ -30415,15 +30415,15 @@
         <v>0</v>
       </c>
       <c r="I1183" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1184" spans="1:9" ht="22.5">
       <c r="A1184" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1184" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1184" s="4" t="s">
         <v>471</v>
@@ -30438,15 +30438,15 @@
         <v>0</v>
       </c>
       <c r="I1184" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1185" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1185" s="4" t="s">
         <v>258</v>
@@ -30461,15 +30461,15 @@
         <v>30</v>
       </c>
       <c r="I1185" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1186" spans="1:9">
       <c r="A1186" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1186" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>549</v>
@@ -30487,15 +30487,15 @@
         <v>-1</v>
       </c>
       <c r="I1186" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
       <c r="A1187" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1187" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1187" s="4" t="s">
         <v>429</v>
@@ -30513,15 +30513,15 @@
         <v>-1</v>
       </c>
       <c r="I1187" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1188" spans="1:9">
       <c r="A1188" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1188" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1188" s="4" t="s">
         <v>228</v>
@@ -30539,15 +30539,15 @@
         <v>-1</v>
       </c>
       <c r="I1188" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1189" spans="1:9">
       <c r="A1189" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1189" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1189" s="4" t="s">
         <v>229</v>
@@ -30565,15 +30565,15 @@
         <v>-1</v>
       </c>
       <c r="I1189" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1190" spans="1:9">
       <c r="A1190" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1190" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1190" s="4" t="s">
         <v>230</v>
@@ -30591,18 +30591,18 @@
         <v>-1</v>
       </c>
       <c r="I1190" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1191" spans="1:9" ht="22.5">
       <c r="A1191" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1191" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1191" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D1191" s="4" t="s">
         <v>10</v>
@@ -30617,15 +30617,15 @@
         <v>-1</v>
       </c>
       <c r="I1191" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1192" spans="1:9" ht="22.5">
       <c r="A1192" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1192" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1192" s="4" t="s">
         <v>227</v>
@@ -30643,15 +30643,15 @@
         <v>200</v>
       </c>
       <c r="I1192" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1193" spans="1:9" ht="22.5">
       <c r="A1193" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1193" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1193" s="4" t="s">
         <v>430</v>
@@ -30669,18 +30669,18 @@
         <v>50</v>
       </c>
       <c r="I1193" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1194" spans="1:9" ht="22.5">
       <c r="A1194" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1194" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D1194" s="4" t="s">
         <v>10</v>
@@ -30695,18 +30695,18 @@
         <v>20</v>
       </c>
       <c r="I1194" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="22.5">
       <c r="A1195" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1195" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1195" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D1195" s="4" t="s">
         <v>10</v>
@@ -30721,15 +30721,15 @@
         <v>20</v>
       </c>
       <c r="I1195" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1196" spans="1:9" ht="22.5">
       <c r="A1196" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1196" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1196" s="4" t="s">
         <v>434</v>
@@ -30747,15 +30747,15 @@
         <v>200</v>
       </c>
       <c r="I1196" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1197" spans="1:9">
       <c r="A1197" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1197" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1197" s="4" t="s">
         <v>252</v>
@@ -30773,15 +30773,15 @@
         <v>200</v>
       </c>
       <c r="I1197" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1198" spans="1:9">
       <c r="A1198" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1198" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1198" s="4" t="s">
         <v>173</v>
@@ -30799,15 +30799,15 @@
         <v>125</v>
       </c>
       <c r="I1198" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
       <c r="A1199" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1199" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1199" s="4" t="s">
         <v>399</v>
@@ -30825,15 +30825,15 @@
         <v>125</v>
       </c>
       <c r="I1199" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
       <c r="A1200" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1200" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1200" s="4" t="s">
         <v>398</v>
@@ -30851,15 +30851,15 @@
         <v>125</v>
       </c>
       <c r="I1200" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1201" spans="1:9" ht="22.5">
       <c r="A1201" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1201" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1201" s="4" t="s">
         <v>397</v>
@@ -30877,18 +30877,18 @@
         <v>125</v>
       </c>
       <c r="I1201" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1202" spans="1:9">
       <c r="A1202" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1202" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1202" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D1202" s="4" t="s">
         <v>10</v>
@@ -30903,15 +30903,15 @@
         <v>125</v>
       </c>
       <c r="I1202" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1203" spans="1:9">
       <c r="A1203" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1203" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1203" s="4" t="s">
         <v>13</v>
@@ -30934,10 +30934,10 @@
     </row>
     <row r="1204" spans="1:9">
       <c r="A1204" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1204" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1204" s="4" t="s">
         <v>16</v>
@@ -30960,10 +30960,10 @@
     </row>
     <row r="1205" spans="1:9">
       <c r="A1205" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1205" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1205" s="4" t="s">
         <v>128</v>
@@ -30986,10 +30986,10 @@
     </row>
     <row r="1206" spans="1:9" ht="22.5">
       <c r="A1206" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1206" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1206" s="4" t="s">
         <v>129</v>
@@ -31016,24 +31016,24 @@
     </row>
     <row r="1208" spans="1:9">
       <c r="A1208" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1208" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="I1208" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1209" spans="1:9">
       <c r="A1209" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1209" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1209" s="4" t="s">
         <v>1084</v>
-      </c>
-      <c r="C1209" s="4" t="s">
-        <v>1085</v>
       </c>
       <c r="E1209" s="4" t="s">
         <v>4</v>
@@ -31053,13 +31053,13 @@
     </row>
     <row r="1210" spans="1:9">
       <c r="A1210" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1210" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1210" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1210" s="4" t="s">
         <v>4</v>
@@ -31071,15 +31071,15 @@
         <v>0</v>
       </c>
       <c r="I1210" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1211" spans="1:9" ht="45">
       <c r="A1211" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1211" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1211" s="4" t="s">
         <v>136</v>
@@ -31097,15 +31097,15 @@
         <v>300</v>
       </c>
       <c r="I1211" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1212" spans="1:9">
       <c r="A1212" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1212" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1212" s="4" t="s">
         <v>138</v>
@@ -31123,15 +31123,15 @@
         <v>150</v>
       </c>
       <c r="I1212" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1213" spans="1:9">
       <c r="A1213" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1213" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1213" s="4" t="s">
         <v>137</v>
@@ -31149,15 +31149,15 @@
         <v>150</v>
       </c>
       <c r="I1213" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1214" spans="1:9" ht="33.75">
       <c r="A1214" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1214" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1214" s="4" t="s">
         <v>470</v>
@@ -31175,15 +31175,15 @@
         <v>25</v>
       </c>
       <c r="I1214" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1215" spans="1:9" ht="33.75">
       <c r="A1215" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1215" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1215" s="4" t="s">
         <v>471</v>
@@ -31201,15 +31201,15 @@
         <v>25</v>
       </c>
       <c r="I1215" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1216" spans="1:9" ht="22.5">
       <c r="A1216" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1216" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1216" s="4" t="s">
         <v>146</v>
@@ -31227,15 +31227,15 @@
         <v>50</v>
       </c>
       <c r="I1216" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1217" spans="1:9">
       <c r="A1217" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1217" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1217" s="4" t="s">
         <v>13</v>
@@ -31258,10 +31258,10 @@
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1218" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1218" s="4" t="s">
         <v>16</v>
@@ -31284,10 +31284,10 @@
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1219" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1219" s="4" t="s">
         <v>128</v>
@@ -31310,10 +31310,10 @@
     </row>
     <row r="1220" spans="1:9" ht="22.5">
       <c r="A1220" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1220" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1220" s="4" t="s">
         <v>129</v>
@@ -31340,24 +31340,24 @@
     </row>
     <row r="1222" spans="1:9" ht="22.5">
       <c r="A1222" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1222" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I1222" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1223" spans="1:9">
       <c r="A1223" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1223" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1223" s="4" t="s">
         <v>1086</v>
-      </c>
-      <c r="C1223" s="4" t="s">
-        <v>1087</v>
       </c>
       <c r="E1223" s="4" t="s">
         <v>4</v>
@@ -31377,13 +31377,13 @@
     </row>
     <row r="1224" spans="1:9">
       <c r="A1224" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1224" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1224" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1224" s="4" t="s">
         <v>4</v>
@@ -31395,15 +31395,15 @@
         <v>0</v>
       </c>
       <c r="I1224" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1225" spans="1:9">
       <c r="A1225" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1225" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1225" s="4" t="s">
         <v>278</v>
@@ -31421,18 +31421,18 @@
         <v>0</v>
       </c>
       <c r="I1225" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1226" spans="1:9">
       <c r="A1226" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1226" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1226" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D1226" s="4" t="s">
         <v>10</v>
@@ -31447,15 +31447,15 @@
         <v>-1</v>
       </c>
       <c r="I1226" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1227" spans="1:9">
       <c r="A1227" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1227" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1227" s="4" t="s">
         <v>13</v>
@@ -31478,10 +31478,10 @@
     </row>
     <row r="1228" spans="1:9">
       <c r="A1228" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1228" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1228" s="4" t="s">
         <v>16</v>
@@ -31504,10 +31504,10 @@
     </row>
     <row r="1229" spans="1:9">
       <c r="A1229" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1229" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1229" s="4" t="s">
         <v>128</v>
@@ -31530,10 +31530,10 @@
     </row>
     <row r="1230" spans="1:9" ht="22.5">
       <c r="A1230" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1230" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C1230" s="4" t="s">
         <v>129</v>
@@ -31560,24 +31560,24 @@
     </row>
     <row r="1232" spans="1:9" ht="22.5">
       <c r="A1232" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1232" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I1232" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1233" spans="1:9">
       <c r="A1233" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1233" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1233" s="4" t="s">
         <v>1089</v>
-      </c>
-      <c r="C1233" s="4" t="s">
-        <v>1090</v>
       </c>
       <c r="E1233" s="4" t="s">
         <v>4</v>
@@ -31597,13 +31597,13 @@
     </row>
     <row r="1234" spans="1:9">
       <c r="A1234" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1234" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1234" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1234" s="4" t="s">
         <v>4</v>
@@ -31615,15 +31615,15 @@
         <v>0</v>
       </c>
       <c r="I1234" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1235" spans="1:9">
       <c r="A1235" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1235" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1235" s="4" t="s">
         <v>256</v>
@@ -31641,15 +31641,15 @@
         <v>50</v>
       </c>
       <c r="I1235" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1236" spans="1:9">
       <c r="A1236" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1236" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1236" s="4" t="s">
         <v>13</v>
@@ -31672,10 +31672,10 @@
     </row>
     <row r="1237" spans="1:9">
       <c r="A1237" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1237" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1237" s="4" t="s">
         <v>16</v>
@@ -31698,10 +31698,10 @@
     </row>
     <row r="1238" spans="1:9">
       <c r="A1238" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1238" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1238" s="4" t="s">
         <v>128</v>
@@ -31724,10 +31724,10 @@
     </row>
     <row r="1239" spans="1:9" ht="22.5">
       <c r="A1239" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1239" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1239" s="4" t="s">
         <v>129</v>
@@ -31754,24 +31754,24 @@
     </row>
     <row r="1241" spans="1:9" ht="22.5">
       <c r="A1241" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1241" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I1241" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1242" spans="1:9">
       <c r="A1242" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1242" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1242" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E1242" s="4" t="s">
         <v>4</v>
@@ -31791,10 +31791,10 @@
     </row>
     <row r="1243" spans="1:9">
       <c r="A1243" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1243" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1243" s="4" t="s">
         <v>467</v>
@@ -31817,10 +31817,10 @@
     </row>
     <row r="1244" spans="1:9">
       <c r="A1244" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1244" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1244" s="4" t="s">
         <v>286</v>
@@ -31843,10 +31843,10 @@
     </row>
     <row r="1245" spans="1:9">
       <c r="A1245" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1245" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1245" s="4" t="s">
         <v>13</v>
@@ -31869,10 +31869,10 @@
     </row>
     <row r="1246" spans="1:9">
       <c r="A1246" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1246" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1246" s="4" t="s">
         <v>16</v>
@@ -31895,10 +31895,10 @@
     </row>
     <row r="1247" spans="1:9">
       <c r="A1247" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1247" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1247" s="4" t="s">
         <v>128</v>
@@ -31921,10 +31921,10 @@
     </row>
     <row r="1248" spans="1:9" ht="22.5">
       <c r="A1248" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1248" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C1248" s="4" t="s">
         <v>129</v>
@@ -31951,27 +31951,27 @@
     </row>
     <row r="1250" spans="1:9" ht="37.5" customHeight="1">
       <c r="A1250" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1250" s="4" t="s">
         <v>1156</v>
-      </c>
-      <c r="B1250" s="4" t="s">
-        <v>1157</v>
       </c>
       <c r="F1250" s="5"/>
       <c r="G1250" s="4"/>
       <c r="H1250" s="6"/>
       <c r="I1250" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1251" spans="1:9">
       <c r="A1251" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1251" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="B1251" s="4" t="s">
-        <v>1157</v>
-      </c>
       <c r="C1251" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1251" s="4" t="s">
         <v>4</v>
@@ -31991,13 +31991,13 @@
     </row>
     <row r="1252" spans="1:9" ht="22.5">
       <c r="A1252" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1252" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="B1252" s="4" t="s">
-        <v>1157</v>
-      </c>
       <c r="C1252" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E1252" s="4" t="s">
         <v>4</v>
@@ -32010,7 +32010,7 @@
       </c>
       <c r="H1252" s="6"/>
       <c r="I1252" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1253" spans="1:9" s="9" customFormat="1">
@@ -32019,31 +32019,31 @@
     </row>
     <row r="1254" spans="1:9" ht="22.5">
       <c r="A1254" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1254" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F1254" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G1254" s="4">
         <v>0</v>
       </c>
       <c r="H1254" s="6"/>
       <c r="I1254" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1255" spans="1:9">
       <c r="A1255" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1255" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1255" s="4" t="s">
         <v>1161</v>
-      </c>
-      <c r="C1255" s="4" t="s">
-        <v>1162</v>
       </c>
       <c r="E1255" s="4" t="s">
         <v>4</v>
@@ -32063,13 +32063,13 @@
     </row>
     <row r="1256" spans="1:9">
       <c r="A1256" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1256" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1256" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1256" s="4" t="s">
         <v>4</v>
@@ -32084,18 +32084,18 @@
         <v>526</v>
       </c>
       <c r="I1256" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1257" spans="1:9">
       <c r="A1257" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1257" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1257" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E1257" s="4" t="s">
         <v>4</v>
@@ -32108,18 +32108,18 @@
       </c>
       <c r="H1257" s="6"/>
       <c r="I1257" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
       <c r="A1258" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1258" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C1258" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E1258" s="4" t="s">
         <v>4</v>
@@ -32132,7 +32132,7 @@
       </c>
       <c r="H1258" s="6"/>
       <c r="I1258" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1259" spans="1:9" s="9" customFormat="1">
@@ -32141,27 +32141,27 @@
     </row>
     <row r="1260" spans="1:9" ht="33.75">
       <c r="A1260" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1260" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F1260" s="5"/>
       <c r="G1260" s="4"/>
       <c r="H1260" s="6"/>
       <c r="I1260" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1261" spans="1:9">
       <c r="A1261" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1261" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E1261" s="4" t="s">
         <v>4</v>
@@ -32181,13 +32181,13 @@
     </row>
     <row r="1262" spans="1:9">
       <c r="A1262" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1262" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1262" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1262" s="4" t="s">
         <v>4</v>
@@ -32202,18 +32202,18 @@
         <v>526</v>
       </c>
       <c r="I1262" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1263" spans="1:9">
       <c r="A1263" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1263" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E1263" s="4" t="s">
         <v>4</v>
@@ -32226,18 +32226,18 @@
       </c>
       <c r="H1263" s="6"/>
       <c r="I1263" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1264" spans="1:9" ht="22.5">
       <c r="A1264" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1264" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1264" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="C1264" s="4" t="s">
-        <v>1166</v>
       </c>
       <c r="E1264" s="4" t="s">
         <v>4</v>
@@ -32250,18 +32250,18 @@
       </c>
       <c r="H1264" s="6"/>
       <c r="I1264" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1265" spans="1:9">
       <c r="A1265" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1265" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1265" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1265" s="4" t="s">
         <v>8</v>
@@ -32274,18 +32274,18 @@
       </c>
       <c r="H1265" s="6"/>
       <c r="I1265" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1266" spans="1:9">
       <c r="A1266" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1266" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1266" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E1266" s="4" t="s">
         <v>8</v>
@@ -32298,18 +32298,18 @@
       </c>
       <c r="H1266" s="6"/>
       <c r="I1266" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1267" spans="1:9" ht="22.5">
       <c r="A1267" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1267" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C1267" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E1267" s="4" t="s">
         <v>4</v>
@@ -32322,7 +32322,7 @@
       </c>
       <c r="H1267" s="6"/>
       <c r="I1267" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1268" spans="1:9" s="9" customFormat="1">
@@ -32331,27 +32331,27 @@
     </row>
     <row r="1269" spans="1:9" ht="22.5">
       <c r="A1269" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1269" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F1269" s="5"/>
       <c r="G1269" s="4"/>
       <c r="H1269" s="6"/>
       <c r="I1269" s="6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1270" spans="1:9">
       <c r="A1270" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1270" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1270" s="4" t="s">
         <v>1169</v>
-      </c>
-      <c r="C1270" s="4" t="s">
-        <v>1170</v>
       </c>
       <c r="E1270" s="4" t="s">
         <v>4</v>
@@ -32371,13 +32371,13 @@
     </row>
     <row r="1271" spans="1:9">
       <c r="A1271" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1271" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1271" s="4" t="s">
         <v>4</v>
@@ -32392,18 +32392,18 @@
         <v>526</v>
       </c>
       <c r="I1271" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
       <c r="A1272" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1272" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1272" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E1272" s="4" t="s">
         <v>4</v>
@@ -32416,18 +32416,18 @@
       </c>
       <c r="H1272" s="6"/>
       <c r="I1272" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1273" spans="1:9">
       <c r="A1273" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1273" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1273" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E1273" s="4" t="s">
         <v>4</v>
@@ -32442,18 +32442,18 @@
         <v>526</v>
       </c>
       <c r="I1273" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1274" spans="1:9" ht="22.5">
       <c r="A1274" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1274" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1274" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E1274" s="4" t="s">
         <v>4</v>
@@ -32466,7 +32466,7 @@
       </c>
       <c r="H1274" s="6"/>
       <c r="I1274" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1275" spans="1:9" s="9" customFormat="1">
@@ -32475,27 +32475,27 @@
     </row>
     <row r="1276" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1276" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1276" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F1276" s="5"/>
       <c r="G1276" s="4"/>
       <c r="H1276" s="6"/>
       <c r="I1276" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1277" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1277" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1277" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1277" s="4" t="s">
         <v>1172</v>
-      </c>
-      <c r="C1277" s="4" t="s">
-        <v>1173</v>
       </c>
       <c r="E1277" s="4" t="s">
         <v>4</v>
@@ -32515,13 +32515,13 @@
     </row>
     <row r="1278" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1278" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1278" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1278" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1278" s="4" t="s">
         <v>4</v>
@@ -32536,18 +32536,18 @@
         <v>526</v>
       </c>
       <c r="I1278" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1279" spans="1:9">
       <c r="A1279" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1279" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1279" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1279" s="4" t="s">
         <v>8</v>
@@ -32560,18 +32560,18 @@
       </c>
       <c r="H1279" s="6"/>
       <c r="I1279" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1280" spans="1:9">
       <c r="A1280" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1280" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E1280" s="4" t="s">
         <v>8</v>
@@ -32584,15 +32584,15 @@
       </c>
       <c r="H1280" s="6"/>
       <c r="I1280" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1281" spans="1:9">
       <c r="A1281" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1281" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1281" s="4" t="s">
         <v>13</v>
@@ -32611,18 +32611,18 @@
       </c>
       <c r="H1281" s="6"/>
       <c r="I1281" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1282" spans="1:9">
       <c r="A1282" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1282" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1282" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E1282" s="4" t="s">
         <v>4</v>
@@ -32637,18 +32637,18 @@
         <v>526</v>
       </c>
       <c r="I1282" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1283" spans="1:9" ht="22.5">
       <c r="A1283" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1283" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E1283" s="4" t="s">
         <v>8</v>
@@ -32661,7 +32661,7 @@
       </c>
       <c r="H1283" s="6"/>
       <c r="I1283" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1284" spans="1:9" s="9" customFormat="1">
@@ -32670,27 +32670,27 @@
     </row>
     <row r="1285" spans="1:9" ht="22.5">
       <c r="A1285" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1285" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1285" s="5"/>
       <c r="G1285" s="4"/>
       <c r="H1285" s="6"/>
       <c r="I1285" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1286" spans="1:9">
       <c r="A1286" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1286" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E1286" s="4" t="s">
         <v>4</v>
@@ -32710,13 +32710,13 @@
     </row>
     <row r="1287" spans="1:9">
       <c r="A1287" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1287" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1287" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1287" s="4" t="s">
         <v>4</v>
@@ -32729,18 +32729,18 @@
       </c>
       <c r="H1287" s="6"/>
       <c r="I1287" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1288" spans="1:9">
       <c r="A1288" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1288" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1288" s="4" t="s">
         <v>8</v>
@@ -32753,18 +32753,18 @@
       </c>
       <c r="H1288" s="6"/>
       <c r="I1288" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1289" spans="1:9">
       <c r="A1289" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1289" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E1289" s="4" t="s">
         <v>8</v>
@@ -32777,15 +32777,15 @@
       </c>
       <c r="H1289" s="6"/>
       <c r="I1289" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1290" spans="1:9">
       <c r="A1290" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1290" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1290" s="4" t="s">
         <v>13</v>
@@ -32801,18 +32801,18 @@
       </c>
       <c r="H1290" s="6"/>
       <c r="I1290" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1291" spans="1:9">
       <c r="A1291" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1291" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1291" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E1291" s="4" t="s">
         <v>4</v>
@@ -32825,18 +32825,18 @@
       </c>
       <c r="H1291" s="6"/>
       <c r="I1291" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1292" spans="1:9" ht="22.5">
       <c r="A1292" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1292" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1292" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E1292" s="4" t="s">
         <v>8</v>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="H1292" s="6"/>
       <c r="I1292" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1293" spans="1:9" s="9" customFormat="1">
@@ -32858,27 +32858,27 @@
     </row>
     <row r="1294" spans="1:9" ht="22.5">
       <c r="A1294" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1294" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F1294" s="5"/>
       <c r="G1294" s="4"/>
       <c r="H1294" s="6"/>
       <c r="I1294" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1295" spans="1:9">
       <c r="A1295" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C1295" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E1295" s="4" t="s">
         <v>4</v>
@@ -32898,13 +32898,13 @@
     </row>
     <row r="1296" spans="1:9">
       <c r="A1296" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1296" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1296" s="4" t="s">
         <v>1176</v>
-      </c>
-      <c r="C1296" s="4" t="s">
-        <v>1177</v>
       </c>
       <c r="E1296" s="4" t="s">
         <v>4</v>
@@ -32917,18 +32917,18 @@
       </c>
       <c r="H1296" s="6"/>
       <c r="I1296" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1297" spans="1:9">
       <c r="A1297" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1297" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C1297" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D1297" s="4" t="s">
         <v>44</v>
@@ -32946,7 +32946,7 @@
         <v>526</v>
       </c>
       <c r="I1297" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -32969,7 +32969,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="360">
       <c r="A1" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7509" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7509" uniqueCount="1292">
   <si>
     <t>DATA_TYPE</t>
   </si>
@@ -2528,9 +2528,6 @@
   </si>
   <si>
     <t>Datestamp that the copyright evidence was added to the item.  Not used.</t>
-  </si>
-  <si>
-    <t>Identifier of the page from which to obtain a thumbnail representation of this item.</t>
   </si>
   <si>
     <t>Identifier of the item to which this item has been redirected.  Used when two copies of the same item are added to BHL, and one is subsequently removed.  All requests for the removed item should redirected (using this identifier) to the still-available item.</t>
@@ -4324,8 +4321,8 @@
   <dimension ref="A1:I1297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A404" sqref="A404"/>
+      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4356,13 +4353,13 @@
         <v>523</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>537</v>
@@ -4379,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4431,7 +4428,7 @@
         <v>526</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5">
@@ -4454,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.5">
@@ -4506,7 +4503,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4573,7 +4570,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4625,7 +4622,7 @@
         <v>526</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5">
@@ -4648,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22.5">
@@ -4726,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4793,7 +4790,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4845,7 +4842,7 @@
         <v>526</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33.75">
@@ -4871,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="22.5">
@@ -4897,7 +4894,7 @@
         <v>-1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4923,7 +4920,7 @@
         <v>-1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4990,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5042,7 +5039,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5068,7 +5065,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5135,7 +5132,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5187,7 +5184,7 @@
         <v>526</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="22.5">
@@ -5210,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5">
@@ -5262,7 +5259,7 @@
         <v>100</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="22.5">
@@ -5288,7 +5285,7 @@
         <v>200</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="22.5">
@@ -5314,7 +5311,7 @@
         <v>50</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="22.5">
@@ -5340,7 +5337,7 @@
         <v>50</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="22.5">
@@ -5366,7 +5363,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="22.5">
@@ -5392,7 +5389,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5418,7 +5415,7 @@
         <v>50</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5444,7 +5441,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5470,7 +5467,7 @@
         <v>200</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5537,7 +5534,7 @@
         <v>41</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5589,7 +5586,7 @@
         <v>526</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="22.5">
@@ -5641,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5667,7 +5664,7 @@
         <v>-1</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="22.5">
@@ -5693,7 +5690,7 @@
         <v>-1</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="22.5">
@@ -5719,7 +5716,7 @@
         <v>-1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5745,7 +5742,7 @@
         <v>-1</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5771,7 +5768,7 @@
         <v>-1</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5797,7 +5794,7 @@
         <v>-1</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5864,7 +5861,7 @@
         <v>51</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5890,7 +5887,7 @@
         <v>525</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5916,7 +5913,7 @@
         <v>525</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5942,7 +5939,7 @@
         <v>525</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6003,7 +6000,7 @@
         <v>54</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -6055,7 +6052,7 @@
         <v>526</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="22.5">
@@ -6081,7 +6078,7 @@
         <v>100</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45">
@@ -6107,7 +6104,7 @@
         <v>526</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6174,7 +6171,7 @@
         <v>57</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6226,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6802,7 +6799,7 @@
         <v>71</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6854,7 +6851,7 @@
         <v>526</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="22.5">
@@ -6880,7 +6877,7 @@
         <v>-1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6906,7 +6903,7 @@
         <v>-1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="22.5">
@@ -6932,7 +6929,7 @@
         <v>-1</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7025,7 +7022,7 @@
         <v>79</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7077,7 +7074,7 @@
         <v>526</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="22.5">
@@ -7100,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="22.5">
@@ -7123,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="22.5">
@@ -7146,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="22.5">
@@ -7169,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7236,7 +7233,7 @@
         <v>81</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7262,7 +7259,7 @@
         <v>525</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="33.75">
@@ -7291,7 +7288,7 @@
         <v>525</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7317,7 +7314,7 @@
         <v>-1</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7384,7 +7381,7 @@
         <v>84</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7436,7 +7433,7 @@
         <v>30</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="22.5">
@@ -7462,7 +7459,7 @@
         <v>-1</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7529,7 +7526,7 @@
         <v>87</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7581,7 +7578,7 @@
         <v>526</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7607,7 +7604,7 @@
         <v>526</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7633,7 +7630,7 @@
         <v>526</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="22.5">
@@ -7659,7 +7656,7 @@
         <v>150</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7726,7 +7723,7 @@
         <v>91</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7778,7 +7775,7 @@
         <v>526</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="22.5">
@@ -7804,7 +7801,7 @@
         <v>20</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="22.5">
@@ -7830,7 +7827,7 @@
         <v>50</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7897,7 +7894,7 @@
         <v>94</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7923,7 +7920,7 @@
         <v>525</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7949,7 +7946,7 @@
         <v>525</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7987,13 +7984,13 @@
         <v>111</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="4"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8001,10 +7998,10 @@
         <v>111</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>1196</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>1197</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>4</v>
@@ -8027,7 +8024,7 @@
         <v>111</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>294</v>
@@ -8043,7 +8040,7 @@
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="22.5">
@@ -8051,7 +8048,7 @@
         <v>111</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>451</v>
@@ -8070,7 +8067,7 @@
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="9" customFormat="1">
@@ -8082,13 +8079,13 @@
         <v>111</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="4"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8096,10 +8093,10 @@
         <v>111</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>4</v>
@@ -8122,10 +8119,10 @@
         <v>111</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>1198</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>4</v>
@@ -8148,10 +8145,10 @@
         <v>111</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>8</v>
@@ -8172,10 +8169,10 @@
         <v>111</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>8</v>
@@ -8200,13 +8197,13 @@
         <v>111</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="4"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8214,10 +8211,10 @@
         <v>111</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>1203</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>4</v>
@@ -8232,7 +8229,7 @@
         <v>525</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8240,10 +8237,10 @@
         <v>111</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>4</v>
@@ -8258,7 +8255,7 @@
         <v>525</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="22.5">
@@ -8266,10 +8263,10 @@
         <v>111</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>4</v>
@@ -8284,7 +8281,7 @@
         <v>525</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="9" customFormat="1">
@@ -8296,13 +8293,13 @@
         <v>111</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="4"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8310,10 +8307,10 @@
         <v>111</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>4</v>
@@ -8328,7 +8325,7 @@
         <v>525</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8336,10 +8333,10 @@
         <v>111</v>
       </c>
       <c r="B186" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>1205</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>1206</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>4</v>
@@ -8354,7 +8351,7 @@
         <v>525</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1">
@@ -8366,13 +8363,13 @@
         <v>111</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="4"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8380,10 +8377,10 @@
         <v>111</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>4</v>
@@ -8406,7 +8403,7 @@
         <v>111</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>138</v>
@@ -8422,7 +8419,7 @@
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8430,7 +8427,7 @@
         <v>111</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>137</v>
@@ -8446,7 +8443,7 @@
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8454,10 +8451,10 @@
         <v>111</v>
       </c>
       <c r="B192" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>1207</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>1208</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>4</v>
@@ -8470,7 +8467,7 @@
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8478,10 +8475,10 @@
         <v>111</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>8</v>
@@ -8494,7 +8491,7 @@
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8502,10 +8499,10 @@
         <v>111</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>4</v>
@@ -8526,10 +8523,10 @@
         <v>111</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>8</v>
@@ -8542,7 +8539,7 @@
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8550,10 +8547,10 @@
         <v>111</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>8</v>
@@ -8571,10 +8568,10 @@
         <v>111</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>8</v>
@@ -8595,10 +8592,10 @@
         <v>111</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>4</v>
@@ -8619,10 +8616,10 @@
         <v>111</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>4</v>
@@ -8643,10 +8640,10 @@
         <v>111</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>8</v>
@@ -8667,10 +8664,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>4</v>
@@ -8691,10 +8688,10 @@
         <v>111</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>4</v>
@@ -8715,10 +8712,10 @@
         <v>111</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>4</v>
@@ -8731,7 +8728,7 @@
       </c>
       <c r="H203" s="6"/>
       <c r="I203" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="9" customFormat="1">
@@ -9402,7 +9399,7 @@
         <v>33</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9480,7 +9477,7 @@
         <v>25</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="33.75">
@@ -9506,7 +9503,7 @@
         <v>25</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -9532,7 +9529,7 @@
         <v>300</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9558,7 +9555,7 @@
         <v>200</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9584,7 +9581,7 @@
         <v>300</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="22.5">
@@ -9610,7 +9607,7 @@
         <v>200</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="33.75">
@@ -9659,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -10001,7 +9998,7 @@
         <v>134</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10079,7 +10076,7 @@
         <v>300</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="33.75">
@@ -10105,7 +10102,7 @@
         <v>150</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="33.75">
@@ -10131,7 +10128,7 @@
         <v>150</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="45">
@@ -10157,7 +10154,7 @@
         <v>150</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="56.25">
@@ -10183,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10763,7 +10760,7 @@
         <v>152</v>
       </c>
       <c r="I297" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -10815,7 +10812,7 @@
         <v>50</v>
       </c>
       <c r="I299" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="22.5">
@@ -10841,7 +10838,7 @@
         <v>4000</v>
       </c>
       <c r="I300" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="33.75">
@@ -10867,7 +10864,7 @@
         <v>50</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="67.5">
@@ -10893,7 +10890,7 @@
         <v>-1</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
@@ -10919,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
@@ -10945,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="33.75">
@@ -10971,7 +10968,7 @@
         <v>526</v>
       </c>
       <c r="I305" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="33.75">
@@ -10997,7 +10994,7 @@
         <v>526</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="33.75">
@@ -11023,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -11101,7 +11098,7 @@
         <v>30</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="22.5">
@@ -11127,7 +11124,7 @@
         <v>100</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -11179,7 +11176,7 @@
         <v>100</v>
       </c>
       <c r="I313" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="33.75">
@@ -11205,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="9" customFormat="1">
@@ -11434,7 +11431,7 @@
         <v>50</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11538,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I330" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -11762,10 +11759,10 @@
         <v>111</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I343" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -11773,10 +11770,10 @@
         <v>111</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>4</v>
@@ -11799,10 +11796,10 @@
         <v>111</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>4</v>
@@ -11817,7 +11814,7 @@
         <v>526</v>
       </c>
       <c r="I345" s="6" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -11825,10 +11822,10 @@
         <v>111</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>4</v>
@@ -11840,15 +11837,15 @@
         <v>0</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>13</v>
@@ -11878,10 +11875,10 @@
         <v>111</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11889,10 +11886,10 @@
         <v>111</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E350" s="4" t="s">
         <v>4</v>
@@ -11915,7 +11912,7 @@
         <v>111</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>136</v>
@@ -11933,7 +11930,7 @@
         <v>30</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="22.5">
@@ -11941,10 +11938,10 @@
         <v>111</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>1060</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>10</v>
@@ -11959,7 +11956,7 @@
         <v>20</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="33.75">
@@ -11967,7 +11964,7 @@
         <v>111</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>193</v>
@@ -11982,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="354" spans="1:9" s="9" customFormat="1">
@@ -12697,10 +12694,10 @@
         <v>111</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I387" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12708,10 +12705,10 @@
         <v>111</v>
       </c>
       <c r="B388" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C388" s="4" t="s">
         <v>1266</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>1267</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>4</v>
@@ -12734,10 +12731,10 @@
         <v>111</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>10</v>
@@ -12753,7 +12750,7 @@
       </c>
       <c r="H389" s="6"/>
       <c r="I389" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12761,10 +12758,10 @@
         <v>111</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>10</v>
@@ -12780,7 +12777,7 @@
       </c>
       <c r="H390" s="6"/>
       <c r="I390" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -12788,7 +12785,7 @@
         <v>111</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>13</v>
@@ -12814,7 +12811,7 @@
         <v>111</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>16</v>
@@ -12840,7 +12837,7 @@
         <v>111</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>128</v>
@@ -12866,7 +12863,7 @@
         <v>111</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>129</v>
@@ -13092,7 +13089,7 @@
         <v>-1</v>
       </c>
       <c r="I404" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="22.5">
@@ -13556,7 +13553,7 @@
         <v>20</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="22.5">
@@ -13579,7 +13576,7 @@
         <v>50</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="45">
@@ -13888,7 +13885,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="22.5">
+    <row r="437" spans="1:9">
       <c r="A437" s="4" t="s">
         <v>111</v>
       </c>
@@ -13908,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="I437" s="6" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="67.5">
@@ -13934,7 +13931,7 @@
         <v>526</v>
       </c>
       <c r="I438" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="22.5">
@@ -13960,7 +13957,7 @@
         <v>500</v>
       </c>
       <c r="I439" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="45">
@@ -13986,7 +13983,7 @@
         <v>20</v>
       </c>
       <c r="I440" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="56.25">
@@ -13997,7 +13994,7 @@
         <v>201</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>10</v>
@@ -14012,7 +14009,7 @@
         <v>10</v>
       </c>
       <c r="I441" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="56.25">
@@ -14023,7 +14020,7 @@
         <v>201</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>10</v>
@@ -14038,7 +14035,7 @@
         <v>10</v>
       </c>
       <c r="I442" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="56.25">
@@ -14049,7 +14046,7 @@
         <v>201</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>10</v>
@@ -14064,7 +14061,7 @@
         <v>10</v>
       </c>
       <c r="I443" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="45">
@@ -14075,7 +14072,7 @@
         <v>201</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>10</v>
@@ -14090,7 +14087,7 @@
         <v>10</v>
       </c>
       <c r="I444" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="56.25">
@@ -14101,7 +14098,7 @@
         <v>201</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>10</v>
@@ -14116,7 +14113,7 @@
         <v>10</v>
       </c>
       <c r="I445" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="56.25">
@@ -14127,7 +14124,7 @@
         <v>201</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>10</v>
@@ -14142,7 +14139,7 @@
         <v>10</v>
       </c>
       <c r="I446" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="56.25">
@@ -14153,7 +14150,7 @@
         <v>201</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>10</v>
@@ -14168,7 +14165,7 @@
         <v>10</v>
       </c>
       <c r="I447" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="45">
@@ -14179,7 +14176,7 @@
         <v>201</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>10</v>
@@ -14194,7 +14191,7 @@
         <v>10</v>
       </c>
       <c r="I448" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="56.25">
@@ -14205,7 +14202,7 @@
         <v>201</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>10</v>
@@ -14220,7 +14217,7 @@
         <v>10</v>
       </c>
       <c r="I449" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="45">
@@ -14231,7 +14228,7 @@
         <v>201</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>10</v>
@@ -14246,7 +14243,7 @@
         <v>10</v>
       </c>
       <c r="I450" s="6" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="56.25">
@@ -14257,7 +14254,7 @@
         <v>201</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>77</v>
@@ -14272,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="I451" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="33.75">
@@ -14283,7 +14280,7 @@
         <v>201</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E452" s="4" t="s">
         <v>8</v>
@@ -14295,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="I452" s="6" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="33.75">
@@ -14306,7 +14303,7 @@
         <v>201</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>8</v>
@@ -14318,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="I453" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="454" spans="1:9" s="9" customFormat="1">
@@ -14449,10 +14446,10 @@
         <v>111</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I461" s="6" t="s">
         <v>1273</v>
-      </c>
-      <c r="I461" s="6" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -14460,10 +14457,10 @@
         <v>111</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>4</v>
@@ -14486,7 +14483,7 @@
         <v>111</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>7</v>
@@ -14504,7 +14501,7 @@
         <v>526</v>
       </c>
       <c r="I463" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -14512,7 +14509,7 @@
         <v>111</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>160</v>
@@ -14530,7 +14527,7 @@
         <v>526</v>
       </c>
       <c r="I464" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="22.5">
@@ -14538,10 +14535,10 @@
         <v>111</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>4</v>
@@ -14556,7 +14553,7 @@
         <v>526</v>
       </c>
       <c r="I465" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -14564,7 +14561,7 @@
         <v>111</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>13</v>
@@ -14590,7 +14587,7 @@
         <v>111</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>16</v>
@@ -14616,7 +14613,7 @@
         <v>111</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>128</v>
@@ -14642,7 +14639,7 @@
         <v>111</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>129</v>
@@ -15533,7 +15530,7 @@
         <v>260</v>
       </c>
       <c r="I513" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -15585,7 +15582,7 @@
         <v>526</v>
       </c>
       <c r="I515" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="22.5">
@@ -15611,7 +15608,7 @@
         <v>526</v>
       </c>
       <c r="I516" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -15637,7 +15634,7 @@
         <v>500</v>
       </c>
       <c r="I517" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -15686,7 +15683,7 @@
         <v>200</v>
       </c>
       <c r="I519" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="22.5">
@@ -15709,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="I520" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -15776,7 +15773,7 @@
         <v>266</v>
       </c>
       <c r="I524" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -15828,7 +15825,7 @@
         <v>526</v>
       </c>
       <c r="I526" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -15854,7 +15851,7 @@
         <v>3</v>
       </c>
       <c r="I527" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -15880,7 +15877,7 @@
         <v>200</v>
       </c>
       <c r="I528" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -15947,7 +15944,7 @@
         <v>270</v>
       </c>
       <c r="I532" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -15999,7 +15996,7 @@
         <v>526</v>
       </c>
       <c r="I534" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -16025,7 +16022,7 @@
         <v>3</v>
       </c>
       <c r="I535" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="22.5">
@@ -16051,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="I536" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="22.5">
@@ -16077,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="I537" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -16144,7 +16141,7 @@
         <v>274</v>
       </c>
       <c r="I541" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -16196,7 +16193,7 @@
         <v>500</v>
       </c>
       <c r="I543" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="22.5">
@@ -16219,7 +16216,7 @@
         <v>10</v>
       </c>
       <c r="I544" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -16260,7 +16257,7 @@
         <v>276</v>
       </c>
       <c r="I547" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -16309,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="I549" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -16358,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="I551" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -16381,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="I552" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -16404,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="I553" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -16427,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="I554" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="555" spans="1:9">
@@ -16453,7 +16450,7 @@
         <v>126</v>
       </c>
       <c r="I555" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="556" spans="1:9" ht="22.5">
@@ -16476,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="I556" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -16502,7 +16499,7 @@
         <v>4000</v>
       </c>
       <c r="I557" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="558" spans="1:9" s="9" customFormat="1">
@@ -16517,7 +16514,7 @@
         <v>285</v>
       </c>
       <c r="I559" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -16569,7 +16566,7 @@
         <v>30</v>
       </c>
       <c r="I561" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="562" spans="1:9" s="9" customFormat="1">
@@ -16584,7 +16581,7 @@
         <v>287</v>
       </c>
       <c r="I563" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -16636,7 +16633,7 @@
         <v>526</v>
       </c>
       <c r="I565" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -16662,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="I566" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="567" spans="1:9" ht="45">
@@ -16688,7 +16685,7 @@
         <v>200</v>
       </c>
       <c r="I567" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -18341,7 +18338,7 @@
         <v>111</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F645" s="5"/>
       <c r="G645" s="4">
@@ -18349,7 +18346,7 @@
       </c>
       <c r="H645" s="6"/>
       <c r="I645" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="646" spans="1:9">
@@ -18357,10 +18354,10 @@
         <v>111</v>
       </c>
       <c r="B646" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C646" s="4" t="s">
         <v>1137</v>
-      </c>
-      <c r="C646" s="4" t="s">
-        <v>1138</v>
       </c>
       <c r="E646" s="4" t="s">
         <v>4</v>
@@ -18383,10 +18380,10 @@
         <v>111</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D647" s="4" t="s">
         <v>10</v>
@@ -18410,10 +18407,10 @@
         <v>111</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D648" s="4" t="s">
         <v>10</v>
@@ -18429,7 +18426,7 @@
       </c>
       <c r="H648" s="6"/>
       <c r="I648" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="649" spans="1:9" ht="33.75">
@@ -18437,7 +18434,7 @@
         <v>111</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>506</v>
@@ -18456,7 +18453,7 @@
       </c>
       <c r="H649" s="6"/>
       <c r="I649" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="650" spans="1:9" ht="33.75">
@@ -18464,10 +18461,10 @@
         <v>111</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D650" s="4" t="s">
         <v>10</v>
@@ -18483,7 +18480,7 @@
       </c>
       <c r="H650" s="6"/>
       <c r="I650" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="651" spans="1:9">
@@ -18491,7 +18488,7 @@
         <v>111</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C651" s="4" t="s">
         <v>13</v>
@@ -18518,7 +18515,7 @@
         <v>111</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C652" s="4" t="s">
         <v>16</v>
@@ -18545,7 +18542,7 @@
         <v>111</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C653" s="4" t="s">
         <v>128</v>
@@ -18572,7 +18569,7 @@
         <v>111</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C654" s="4" t="s">
         <v>129</v>
@@ -18606,7 +18603,7 @@
         <v>315</v>
       </c>
       <c r="I656" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="657" spans="1:9">
@@ -18658,7 +18655,7 @@
         <v>526</v>
       </c>
       <c r="I658" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="659" spans="1:9" ht="22.5">
@@ -18681,7 +18678,7 @@
         <v>50</v>
       </c>
       <c r="I659" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="660" spans="1:9" ht="56.25">
@@ -18704,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="I660" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="661" spans="1:9">
@@ -18727,7 +18724,7 @@
         <v>255</v>
       </c>
       <c r="I661" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="662" spans="1:9" ht="33.75">
@@ -18753,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="I662" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="663" spans="1:9">
@@ -18776,7 +18773,7 @@
         <v>255</v>
       </c>
       <c r="I663" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="664" spans="1:9">
@@ -18952,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="I670" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="671" spans="1:9">
@@ -18975,7 +18972,7 @@
         <v>20</v>
       </c>
       <c r="I671" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="672" spans="1:9">
@@ -19021,7 +19018,7 @@
         <v>20</v>
       </c>
       <c r="I673" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="674" spans="1:9">
@@ -19044,7 +19041,7 @@
         <v>20</v>
       </c>
       <c r="I674" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="675" spans="1:9" ht="22.5">
@@ -19067,7 +19064,7 @@
         <v>500</v>
       </c>
       <c r="I675" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="676" spans="1:9" ht="22.5">
@@ -19090,7 +19087,7 @@
         <v>20</v>
       </c>
       <c r="I676" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="677" spans="1:9" ht="33.75">
@@ -19136,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="I678" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="679" spans="1:9" ht="22.5">
@@ -19159,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="I679" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="22.5">
@@ -19182,7 +19179,7 @@
         <v>500</v>
       </c>
       <c r="I680" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="681" spans="1:9" s="9" customFormat="1">
@@ -22102,7 +22099,7 @@
         <v>401</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D813" s="4" t="s">
         <v>10</v>
@@ -22117,7 +22114,7 @@
         <v>-1</v>
       </c>
       <c r="I813" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="814" spans="1:9">
@@ -22128,7 +22125,7 @@
         <v>401</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D814" s="4" t="s">
         <v>10</v>
@@ -22143,7 +22140,7 @@
         <v>-1</v>
       </c>
       <c r="I814" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="815" spans="1:9" ht="22.5">
@@ -22154,7 +22151,7 @@
         <v>401</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E815" s="4" t="s">
         <v>8</v>
@@ -22166,7 +22163,7 @@
         <v>0</v>
       </c>
       <c r="I815" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="816" spans="1:9" s="9" customFormat="1">
@@ -22886,7 +22883,7 @@
         <v>421</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D848" s="4" t="s">
         <v>10</v>
@@ -22901,7 +22898,7 @@
         <v>-1</v>
       </c>
       <c r="I848" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="849" spans="1:9" s="9" customFormat="1">
@@ -22916,7 +22913,7 @@
         <v>425</v>
       </c>
       <c r="I850" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -23017,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="I854" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="855" spans="1:9">
@@ -23069,7 +23066,7 @@
         <v>2000</v>
       </c>
       <c r="I856" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="857" spans="1:9">
@@ -23095,7 +23092,7 @@
         <v>2000</v>
       </c>
       <c r="I857" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="858" spans="1:9" ht="45">
@@ -23121,7 +23118,7 @@
         <v>2000</v>
       </c>
       <c r="I858" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="859" spans="1:9" ht="22.5">
@@ -23147,7 +23144,7 @@
         <v>400</v>
       </c>
       <c r="I859" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="860" spans="1:9">
@@ -23173,7 +23170,7 @@
         <v>250</v>
       </c>
       <c r="I860" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="861" spans="1:9">
@@ -23199,7 +23196,7 @@
         <v>150</v>
       </c>
       <c r="I861" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="862" spans="1:9">
@@ -23225,7 +23222,7 @@
         <v>-1</v>
       </c>
       <c r="I862" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="863" spans="1:9">
@@ -23251,7 +23248,7 @@
         <v>-1</v>
       </c>
       <c r="I863" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="864" spans="1:9">
@@ -23277,7 +23274,7 @@
         <v>100</v>
       </c>
       <c r="I864" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="865" spans="1:9">
@@ -23303,7 +23300,7 @@
         <v>100</v>
       </c>
       <c r="I865" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="866" spans="1:9">
@@ -23326,7 +23323,7 @@
         <v>100</v>
       </c>
       <c r="I866" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="867" spans="1:9">
@@ -23352,7 +23349,7 @@
         <v>400</v>
       </c>
       <c r="I867" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="868" spans="1:9">
@@ -23378,7 +23375,7 @@
         <v>20</v>
       </c>
       <c r="I868" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="22.5">
@@ -23404,7 +23401,7 @@
         <v>50</v>
       </c>
       <c r="I869" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="870" spans="1:9" ht="22.5">
@@ -23430,7 +23427,7 @@
         <v>20</v>
       </c>
       <c r="I870" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="871" spans="1:9" ht="22.5">
@@ -23456,7 +23453,7 @@
         <v>20</v>
       </c>
       <c r="I871" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="872" spans="1:9">
@@ -23508,7 +23505,7 @@
         <v>526</v>
       </c>
       <c r="I873" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="874" spans="1:9" ht="22.5">
@@ -23534,7 +23531,7 @@
         <v>200</v>
       </c>
       <c r="I874" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="875" spans="1:9">
@@ -23560,7 +23557,7 @@
         <v>200</v>
       </c>
       <c r="I875" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="876" spans="1:9">
@@ -23586,7 +23583,7 @@
         <v>500</v>
       </c>
       <c r="I876" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="877" spans="1:9">
@@ -23612,7 +23609,7 @@
         <v>500</v>
       </c>
       <c r="I877" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="878" spans="1:9" ht="22.5">
@@ -23638,7 +23635,7 @@
         <v>200</v>
       </c>
       <c r="I878" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="879" spans="1:9" ht="22.5">
@@ -23664,7 +23661,7 @@
         <v>200</v>
       </c>
       <c r="I879" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="880" spans="1:9" ht="33.75">
@@ -23687,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="I880" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="881" spans="1:9" ht="33.75">
@@ -23710,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="I881" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="882" spans="1:9">
@@ -23840,7 +23837,7 @@
         <v>2000</v>
       </c>
       <c r="I886" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="887" spans="1:9" ht="67.5">
@@ -23866,7 +23863,7 @@
         <v>526</v>
       </c>
       <c r="I887" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="888" spans="1:9" s="9" customFormat="1">
@@ -25002,10 +24999,10 @@
         <v>111</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I941" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="942" spans="1:9">
@@ -25013,10 +25010,10 @@
         <v>111</v>
       </c>
       <c r="B942" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C942" s="4" t="s">
         <v>1287</v>
-      </c>
-      <c r="C942" s="4" t="s">
-        <v>1288</v>
       </c>
       <c r="E942" s="5" t="s">
         <v>4</v>
@@ -25039,7 +25036,7 @@
         <v>111</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C943" s="4" t="s">
         <v>313</v>
@@ -25057,7 +25054,7 @@
         <v>526</v>
       </c>
       <c r="I943" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="944" spans="1:9">
@@ -25065,7 +25062,7 @@
         <v>111</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C944" s="4" t="s">
         <v>160</v>
@@ -25083,7 +25080,7 @@
         <v>526</v>
       </c>
       <c r="I944" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="945" spans="1:9" ht="22.5">
@@ -25091,10 +25088,10 @@
         <v>111</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E945" s="5" t="s">
         <v>4</v>
@@ -25109,7 +25106,7 @@
         <v>526</v>
       </c>
       <c r="I945" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="946" spans="1:9">
@@ -25117,7 +25114,7 @@
         <v>111</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C946" s="4" t="s">
         <v>13</v>
@@ -25143,7 +25140,7 @@
         <v>111</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C947" s="4" t="s">
         <v>16</v>
@@ -25169,7 +25166,7 @@
         <v>111</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C948" s="4" t="s">
         <v>128</v>
@@ -25195,7 +25192,7 @@
         <v>111</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C949" s="4" t="s">
         <v>129</v>
@@ -26056,7 +26053,7 @@
         <v>34</v>
       </c>
       <c r="I989" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -26105,7 +26102,7 @@
         <v>50</v>
       </c>
       <c r="I991" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -26128,7 +26125,7 @@
         <v>24</v>
       </c>
       <c r="I992" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -26177,7 +26174,7 @@
         <v>526</v>
       </c>
       <c r="I994" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="995" spans="1:9" ht="22.5">
@@ -26203,7 +26200,7 @@
         <v>2000</v>
       </c>
       <c r="I995" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -26226,7 +26223,7 @@
         <v>255</v>
       </c>
       <c r="I996" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="997" spans="1:9">
@@ -26249,7 +26246,7 @@
         <v>255</v>
       </c>
       <c r="I997" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="998" spans="1:9" ht="33.75">
@@ -26272,7 +26269,7 @@
         <v>60</v>
       </c>
       <c r="I998" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="999" spans="1:9" ht="22.5">
@@ -26295,7 +26292,7 @@
         <v>100</v>
       </c>
       <c r="I999" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1000" spans="1:9" ht="22.5">
@@ -26318,7 +26315,7 @@
         <v>255</v>
       </c>
       <c r="I1000" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1001" spans="1:9" ht="45">
@@ -26344,7 +26341,7 @@
         <v>527</v>
       </c>
       <c r="I1001" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1002" spans="1:9" ht="45">
@@ -26370,7 +26367,7 @@
         <v>527</v>
       </c>
       <c r="I1002" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1003" spans="1:9" ht="22.5">
@@ -26393,7 +26390,7 @@
         <v>150</v>
       </c>
       <c r="I1003" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1004" spans="1:9" ht="22.5">
@@ -26416,7 +26413,7 @@
         <v>255</v>
       </c>
       <c r="I1004" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1005" spans="1:9" ht="22.5">
@@ -26439,7 +26436,7 @@
         <v>100</v>
       </c>
       <c r="I1005" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
@@ -26465,7 +26462,7 @@
         <v>526</v>
       </c>
       <c r="I1006" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
@@ -26488,7 +26485,7 @@
         <v>-1</v>
       </c>
       <c r="I1007" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
@@ -26511,7 +26508,7 @@
         <v>100</v>
       </c>
       <c r="I1008" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1009" spans="1:9" ht="45">
@@ -26537,7 +26534,7 @@
         <v>0</v>
       </c>
       <c r="I1009" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
@@ -26586,7 +26583,7 @@
         <v>255</v>
       </c>
       <c r="I1011" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
@@ -26713,7 +26710,7 @@
         <v>100</v>
       </c>
       <c r="I1016" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1017" spans="1:9" ht="22.5">
@@ -26736,7 +26733,7 @@
         <v>450</v>
       </c>
       <c r="I1017" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1018" spans="1:9" ht="22.5">
@@ -26759,7 +26756,7 @@
         <v>100</v>
       </c>
       <c r="I1018" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1019" spans="1:9" ht="22.5">
@@ -26782,7 +26779,7 @@
         <v>255</v>
       </c>
       <c r="I1019" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1020" spans="1:9" ht="22.5">
@@ -26805,7 +26802,7 @@
         <v>255</v>
       </c>
       <c r="I1020" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1021" spans="1:9" ht="22.5">
@@ -26831,7 +26828,7 @@
         <v>526</v>
       </c>
       <c r="I1021" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1022" spans="1:9" s="9" customFormat="1">
@@ -27069,7 +27066,7 @@
         <v>482</v>
       </c>
       <c r="I1033" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
@@ -27147,7 +27144,7 @@
         <v>526</v>
       </c>
       <c r="I1036" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1037" spans="1:9">
@@ -27173,7 +27170,7 @@
         <v>500</v>
       </c>
       <c r="I1037" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1038" spans="1:9">
@@ -27199,7 +27196,7 @@
         <v>500</v>
       </c>
       <c r="I1038" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1039" spans="1:9">
@@ -27225,7 +27222,7 @@
         <v>500</v>
       </c>
       <c r="I1039" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1040" spans="1:9" ht="33.75">
@@ -27251,7 +27248,7 @@
         <v>0</v>
       </c>
       <c r="I1040" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -27277,7 +27274,7 @@
         <v>526</v>
       </c>
       <c r="I1041" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1042" spans="1:9">
@@ -27355,7 +27352,7 @@
         <v>500</v>
       </c>
       <c r="I1044" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
@@ -27381,7 +27378,7 @@
         <v>500</v>
       </c>
       <c r="I1045" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1046" spans="1:9">
@@ -27407,7 +27404,7 @@
         <v>500</v>
       </c>
       <c r="I1046" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1047" spans="1:9">
@@ -28815,7 +28812,7 @@
         <v>111</v>
       </c>
       <c r="B1112" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F1112" s="5"/>
       <c r="G1112" s="4">
@@ -28823,7 +28820,7 @@
       </c>
       <c r="H1112" s="6"/>
       <c r="I1112" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1113" spans="1:9">
@@ -28831,10 +28828,10 @@
         <v>111</v>
       </c>
       <c r="B1113" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1113" s="4" t="s">
         <v>1146</v>
-      </c>
-      <c r="C1113" s="4" t="s">
-        <v>1147</v>
       </c>
       <c r="E1113" s="4" t="s">
         <v>4</v>
@@ -28857,7 +28854,7 @@
         <v>111</v>
       </c>
       <c r="B1114" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1114" s="4" t="s">
         <v>32</v>
@@ -28875,7 +28872,7 @@
         <v>526</v>
       </c>
       <c r="I1114" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1115" spans="1:9">
@@ -28883,10 +28880,10 @@
         <v>111</v>
       </c>
       <c r="B1115" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1115" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E1115" s="4" t="s">
         <v>8</v>
@@ -28901,7 +28898,7 @@
         <v>526</v>
       </c>
       <c r="I1115" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1116" spans="1:9">
@@ -28909,7 +28906,7 @@
         <v>111</v>
       </c>
       <c r="B1116" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1116" s="4" t="s">
         <v>73</v>
@@ -28928,7 +28925,7 @@
       </c>
       <c r="H1116" s="6"/>
       <c r="I1116" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1117" spans="1:9">
@@ -28936,10 +28933,10 @@
         <v>111</v>
       </c>
       <c r="B1117" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1117" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E1117" s="4" t="s">
         <v>8</v>
@@ -28952,7 +28949,7 @@
       </c>
       <c r="H1117" s="6"/>
       <c r="I1117" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1118" spans="1:9">
@@ -28960,7 +28957,7 @@
         <v>111</v>
       </c>
       <c r="B1118" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1118" s="4" t="s">
         <v>13</v>
@@ -28987,7 +28984,7 @@
         <v>111</v>
       </c>
       <c r="B1119" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1119" s="4" t="s">
         <v>128</v>
@@ -29021,7 +29018,7 @@
         <v>510</v>
       </c>
       <c r="I1121" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1122" spans="1:9">
@@ -29099,7 +29096,7 @@
         <v>526</v>
       </c>
       <c r="I1124" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1125" spans="1:9">
@@ -29125,7 +29122,7 @@
         <v>-1</v>
       </c>
       <c r="I1125" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1126" spans="1:9">
@@ -29151,7 +29148,7 @@
         <v>-1</v>
       </c>
       <c r="I1126" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1127" spans="1:9" ht="33.75">
@@ -29177,7 +29174,7 @@
         <v>255</v>
       </c>
       <c r="I1127" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1128" spans="1:9" ht="33.75">
@@ -29203,7 +29200,7 @@
         <v>255</v>
       </c>
       <c r="I1128" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1129" spans="1:9">
@@ -29588,24 +29585,24 @@
     </row>
     <row r="1148" spans="1:9">
       <c r="A1148" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1148" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="B1148" s="4" t="s">
-        <v>1069</v>
-      </c>
       <c r="I1148" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1149" spans="1:9">
       <c r="A1149" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1149" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="B1149" s="4" t="s">
+      <c r="C1149" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="C1149" s="4" t="s">
-        <v>1070</v>
       </c>
       <c r="E1149" s="4" t="s">
         <v>4</v>
@@ -29625,13 +29622,13 @@
     </row>
     <row r="1150" spans="1:9">
       <c r="A1150" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1150" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="B1150" s="4" t="s">
-        <v>1069</v>
-      </c>
       <c r="C1150" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E1150" s="4" t="s">
         <v>4</v>
@@ -29651,13 +29648,13 @@
     </row>
     <row r="1151" spans="1:9">
       <c r="A1151" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1151" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="B1151" s="4" t="s">
-        <v>1069</v>
-      </c>
       <c r="C1151" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E1151" s="4" t="s">
         <v>4</v>
@@ -29669,15 +29666,15 @@
         <v>200</v>
       </c>
       <c r="I1151" s="6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1152" spans="1:9">
       <c r="A1152" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1152" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="B1152" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="C1152" s="4" t="s">
         <v>427</v>
@@ -29697,10 +29694,10 @@
     </row>
     <row r="1153" spans="1:9">
       <c r="A1153" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1153" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="B1153" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="C1153" s="4" t="s">
         <v>13</v>
@@ -29723,10 +29720,10 @@
     </row>
     <row r="1154" spans="1:9">
       <c r="A1154" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1154" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="B1154" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="C1154" s="4" t="s">
         <v>16</v>
@@ -29749,10 +29746,10 @@
     </row>
     <row r="1155" spans="1:9">
       <c r="A1155" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1155" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="B1155" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="C1155" s="4" t="s">
         <v>128</v>
@@ -29775,10 +29772,10 @@
     </row>
     <row r="1156" spans="1:9" ht="22.5">
       <c r="A1156" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1156" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="B1156" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="C1156" s="4" t="s">
         <v>129</v>
@@ -29805,24 +29802,24 @@
     </row>
     <row r="1158" spans="1:9" ht="22.5">
       <c r="A1158" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1158" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I1158" s="6" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1159" spans="1:9">
       <c r="A1159" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1159" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E1159" s="4" t="s">
         <v>4</v>
@@ -29842,10 +29839,10 @@
     </row>
     <row r="1160" spans="1:9">
       <c r="A1160" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1160" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1160" s="4" t="s">
         <v>467</v>
@@ -29868,10 +29865,10 @@
     </row>
     <row r="1161" spans="1:9">
       <c r="A1161" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1161" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1161" s="4" t="s">
         <v>286</v>
@@ -29894,10 +29891,10 @@
     </row>
     <row r="1162" spans="1:9">
       <c r="A1162" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1162" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1162" s="4" t="s">
         <v>13</v>
@@ -29920,10 +29917,10 @@
     </row>
     <row r="1163" spans="1:9">
       <c r="A1163" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1163" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1163" s="4" t="s">
         <v>16</v>
@@ -29946,10 +29943,10 @@
     </row>
     <row r="1164" spans="1:9">
       <c r="A1164" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1164" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1164" s="4" t="s">
         <v>128</v>
@@ -29972,10 +29969,10 @@
     </row>
     <row r="1165" spans="1:9" ht="22.5">
       <c r="A1165" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1165" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1165" s="4" t="s">
         <v>129</v>
@@ -30002,24 +29999,24 @@
     </row>
     <row r="1167" spans="1:9">
       <c r="A1167" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1167" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I1167" s="6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1168" spans="1:9">
       <c r="A1168" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1168" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1168" s="4" t="s">
         <v>1074</v>
-      </c>
-      <c r="C1168" s="4" t="s">
-        <v>1075</v>
       </c>
       <c r="E1168" s="4" t="s">
         <v>4</v>
@@ -30039,13 +30036,13 @@
     </row>
     <row r="1169" spans="1:9" ht="22.5">
       <c r="A1169" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1169" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1169" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E1169" s="4" t="s">
         <v>4</v>
@@ -30057,18 +30054,18 @@
         <v>0</v>
       </c>
       <c r="I1169" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1170" spans="1:9">
       <c r="A1170" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1170" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1170" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1170" s="4" t="s">
         <v>4</v>
@@ -30080,18 +30077,18 @@
         <v>0</v>
       </c>
       <c r="I1170" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1171" spans="1:9">
       <c r="A1171" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1171" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1171" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D1171" s="4" t="s">
         <v>10</v>
@@ -30106,15 +30103,15 @@
         <v>50</v>
       </c>
       <c r="I1171" s="6" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1172" spans="1:9">
       <c r="A1172" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1172" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1172" s="4" t="s">
         <v>34</v>
@@ -30132,15 +30129,15 @@
         <v>2000</v>
       </c>
       <c r="I1172" s="6" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1173" spans="1:9">
       <c r="A1173" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1173" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1173" s="4" t="s">
         <v>423</v>
@@ -30158,18 +30155,18 @@
         <v>2000</v>
       </c>
       <c r="I1173" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1174" spans="1:9" ht="33.75">
       <c r="A1174" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1174" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1174" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D1174" s="4" t="s">
         <v>10</v>
@@ -30184,15 +30181,15 @@
         <v>2000</v>
       </c>
       <c r="I1174" s="6" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1175" spans="1:9">
       <c r="A1175" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1175" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1175" s="4" t="s">
         <v>12</v>
@@ -30210,15 +30207,15 @@
         <v>100</v>
       </c>
       <c r="I1175" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1176" spans="1:9">
       <c r="A1176" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1176" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1176" s="4" t="s">
         <v>322</v>
@@ -30236,15 +30233,15 @@
         <v>100</v>
       </c>
       <c r="I1176" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1177" spans="1:9">
       <c r="A1177" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1177" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1177" s="4" t="s">
         <v>323</v>
@@ -30262,15 +30259,15 @@
         <v>100</v>
       </c>
       <c r="I1177" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1178" spans="1:9">
       <c r="A1178" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1178" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1178" s="4" t="s">
         <v>35</v>
@@ -30288,15 +30285,15 @@
         <v>400</v>
       </c>
       <c r="I1178" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1179" spans="1:9" ht="22.5">
       <c r="A1179" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1179" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1179" s="4" t="s">
         <v>36</v>
@@ -30314,15 +30311,15 @@
         <v>400</v>
       </c>
       <c r="I1179" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1180" spans="1:9">
       <c r="A1180" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1180" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1180" s="4" t="s">
         <v>406</v>
@@ -30340,15 +30337,15 @@
         <v>250</v>
       </c>
       <c r="I1180" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1181" spans="1:9">
       <c r="A1181" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1181" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1181" s="4" t="s">
         <v>405</v>
@@ -30366,15 +30363,15 @@
         <v>150</v>
       </c>
       <c r="I1181" s="6" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1182" spans="1:9">
       <c r="A1182" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1182" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1182" s="4" t="s">
         <v>222</v>
@@ -30392,15 +30389,15 @@
         <v>20</v>
       </c>
       <c r="I1182" s="6" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1183" spans="1:9" ht="22.5">
       <c r="A1183" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1183" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1183" s="4" t="s">
         <v>470</v>
@@ -30415,15 +30412,15 @@
         <v>0</v>
       </c>
       <c r="I1183" s="6" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1184" spans="1:9" ht="22.5">
       <c r="A1184" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1184" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1184" s="4" t="s">
         <v>471</v>
@@ -30438,15 +30435,15 @@
         <v>0</v>
       </c>
       <c r="I1184" s="6" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1185" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1185" s="4" t="s">
         <v>258</v>
@@ -30461,15 +30458,15 @@
         <v>30</v>
       </c>
       <c r="I1185" s="6" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1186" spans="1:9">
       <c r="A1186" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1186" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>549</v>
@@ -30487,15 +30484,15 @@
         <v>-1</v>
       </c>
       <c r="I1186" s="6" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
       <c r="A1187" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1187" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1187" s="4" t="s">
         <v>429</v>
@@ -30513,15 +30510,15 @@
         <v>-1</v>
       </c>
       <c r="I1187" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1188" spans="1:9">
       <c r="A1188" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1188" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1188" s="4" t="s">
         <v>228</v>
@@ -30539,15 +30536,15 @@
         <v>-1</v>
       </c>
       <c r="I1188" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1189" spans="1:9">
       <c r="A1189" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1189" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1189" s="4" t="s">
         <v>229</v>
@@ -30565,15 +30562,15 @@
         <v>-1</v>
       </c>
       <c r="I1189" s="6" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1190" spans="1:9">
       <c r="A1190" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1190" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1190" s="4" t="s">
         <v>230</v>
@@ -30591,18 +30588,18 @@
         <v>-1</v>
       </c>
       <c r="I1190" s="6" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1191" spans="1:9" ht="22.5">
       <c r="A1191" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1191" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1191" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D1191" s="4" t="s">
         <v>10</v>
@@ -30617,15 +30614,15 @@
         <v>-1</v>
       </c>
       <c r="I1191" s="6" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1192" spans="1:9" ht="22.5">
       <c r="A1192" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1192" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1192" s="4" t="s">
         <v>227</v>
@@ -30643,15 +30640,15 @@
         <v>200</v>
       </c>
       <c r="I1192" s="6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1193" spans="1:9" ht="22.5">
       <c r="A1193" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1193" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1193" s="4" t="s">
         <v>430</v>
@@ -30669,18 +30666,18 @@
         <v>50</v>
       </c>
       <c r="I1193" s="6" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1194" spans="1:9" ht="22.5">
       <c r="A1194" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1194" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D1194" s="4" t="s">
         <v>10</v>
@@ -30695,18 +30692,18 @@
         <v>20</v>
       </c>
       <c r="I1194" s="6" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="22.5">
       <c r="A1195" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1195" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1195" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D1195" s="4" t="s">
         <v>10</v>
@@ -30721,15 +30718,15 @@
         <v>20</v>
       </c>
       <c r="I1195" s="6" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1196" spans="1:9" ht="22.5">
       <c r="A1196" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1196" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1196" s="4" t="s">
         <v>434</v>
@@ -30747,15 +30744,15 @@
         <v>200</v>
       </c>
       <c r="I1196" s="6" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1197" spans="1:9">
       <c r="A1197" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1197" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1197" s="4" t="s">
         <v>252</v>
@@ -30773,15 +30770,15 @@
         <v>200</v>
       </c>
       <c r="I1197" s="6" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1198" spans="1:9">
       <c r="A1198" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1198" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1198" s="4" t="s">
         <v>173</v>
@@ -30799,15 +30796,15 @@
         <v>125</v>
       </c>
       <c r="I1198" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
       <c r="A1199" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1199" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1199" s="4" t="s">
         <v>399</v>
@@ -30825,15 +30822,15 @@
         <v>125</v>
       </c>
       <c r="I1199" s="6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
       <c r="A1200" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1200" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1200" s="4" t="s">
         <v>398</v>
@@ -30851,15 +30848,15 @@
         <v>125</v>
       </c>
       <c r="I1200" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1201" spans="1:9" ht="22.5">
       <c r="A1201" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1201" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1201" s="4" t="s">
         <v>397</v>
@@ -30877,18 +30874,18 @@
         <v>125</v>
       </c>
       <c r="I1201" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1202" spans="1:9">
       <c r="A1202" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1202" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1202" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D1202" s="4" t="s">
         <v>10</v>
@@ -30903,15 +30900,15 @@
         <v>125</v>
       </c>
       <c r="I1202" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1203" spans="1:9">
       <c r="A1203" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1203" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1203" s="4" t="s">
         <v>13</v>
@@ -30934,10 +30931,10 @@
     </row>
     <row r="1204" spans="1:9">
       <c r="A1204" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1204" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1204" s="4" t="s">
         <v>16</v>
@@ -30960,10 +30957,10 @@
     </row>
     <row r="1205" spans="1:9">
       <c r="A1205" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1205" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1205" s="4" t="s">
         <v>128</v>
@@ -30986,10 +30983,10 @@
     </row>
     <row r="1206" spans="1:9" ht="22.5">
       <c r="A1206" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1206" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1206" s="4" t="s">
         <v>129</v>
@@ -31016,24 +31013,24 @@
     </row>
     <row r="1208" spans="1:9">
       <c r="A1208" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1208" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="I1208" s="6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1209" spans="1:9">
       <c r="A1209" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1209" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1209" s="4" t="s">
         <v>1083</v>
-      </c>
-      <c r="C1209" s="4" t="s">
-        <v>1084</v>
       </c>
       <c r="E1209" s="4" t="s">
         <v>4</v>
@@ -31053,13 +31050,13 @@
     </row>
     <row r="1210" spans="1:9">
       <c r="A1210" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1210" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1210" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E1210" s="4" t="s">
         <v>4</v>
@@ -31071,15 +31068,15 @@
         <v>0</v>
       </c>
       <c r="I1210" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1211" spans="1:9" ht="45">
       <c r="A1211" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1211" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1211" s="4" t="s">
         <v>136</v>
@@ -31097,15 +31094,15 @@
         <v>300</v>
       </c>
       <c r="I1211" s="6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1212" spans="1:9">
       <c r="A1212" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1212" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1212" s="4" t="s">
         <v>138</v>
@@ -31123,15 +31120,15 @@
         <v>150</v>
       </c>
       <c r="I1212" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1213" spans="1:9">
       <c r="A1213" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1213" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1213" s="4" t="s">
         <v>137</v>
@@ -31149,15 +31146,15 @@
         <v>150</v>
       </c>
       <c r="I1213" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1214" spans="1:9" ht="33.75">
       <c r="A1214" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1214" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1214" s="4" t="s">
         <v>470</v>
@@ -31175,15 +31172,15 @@
         <v>25</v>
       </c>
       <c r="I1214" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1215" spans="1:9" ht="33.75">
       <c r="A1215" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1215" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1215" s="4" t="s">
         <v>471</v>
@@ -31201,15 +31198,15 @@
         <v>25</v>
       </c>
       <c r="I1215" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1216" spans="1:9" ht="22.5">
       <c r="A1216" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1216" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1216" s="4" t="s">
         <v>146</v>
@@ -31227,15 +31224,15 @@
         <v>50</v>
       </c>
       <c r="I1216" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1217" spans="1:9">
       <c r="A1217" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1217" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1217" s="4" t="s">
         <v>13</v>
@@ -31258,10 +31255,10 @@
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1218" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1218" s="4" t="s">
         <v>16</v>
@@ -31284,10 +31281,10 @@
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1219" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1219" s="4" t="s">
         <v>128</v>
@@ -31310,10 +31307,10 @@
     </row>
     <row r="1220" spans="1:9" ht="22.5">
       <c r="A1220" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1220" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C1220" s="4" t="s">
         <v>129</v>
@@ -31340,24 +31337,24 @@
     </row>
     <row r="1222" spans="1:9" ht="22.5">
       <c r="A1222" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1222" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I1222" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1223" spans="1:9">
       <c r="A1223" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1223" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1223" s="4" t="s">
         <v>1085</v>
-      </c>
-      <c r="C1223" s="4" t="s">
-        <v>1086</v>
       </c>
       <c r="E1223" s="4" t="s">
         <v>4</v>
@@ -31377,13 +31374,13 @@
     </row>
     <row r="1224" spans="1:9">
       <c r="A1224" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1224" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1224" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E1224" s="4" t="s">
         <v>4</v>
@@ -31395,15 +31392,15 @@
         <v>0</v>
       </c>
       <c r="I1224" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1225" spans="1:9">
       <c r="A1225" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1225" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1225" s="4" t="s">
         <v>278</v>
@@ -31421,18 +31418,18 @@
         <v>0</v>
       </c>
       <c r="I1225" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1226" spans="1:9">
       <c r="A1226" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1226" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1226" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D1226" s="4" t="s">
         <v>10</v>
@@ -31447,15 +31444,15 @@
         <v>-1</v>
       </c>
       <c r="I1226" s="6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1227" spans="1:9">
       <c r="A1227" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1227" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1227" s="4" t="s">
         <v>13</v>
@@ -31478,10 +31475,10 @@
     </row>
     <row r="1228" spans="1:9">
       <c r="A1228" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1228" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1228" s="4" t="s">
         <v>16</v>
@@ -31504,10 +31501,10 @@
     </row>
     <row r="1229" spans="1:9">
       <c r="A1229" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1229" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1229" s="4" t="s">
         <v>128</v>
@@ -31530,10 +31527,10 @@
     </row>
     <row r="1230" spans="1:9" ht="22.5">
       <c r="A1230" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1230" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C1230" s="4" t="s">
         <v>129</v>
@@ -31560,24 +31557,24 @@
     </row>
     <row r="1232" spans="1:9" ht="22.5">
       <c r="A1232" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1232" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I1232" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1233" spans="1:9">
       <c r="A1233" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1233" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1233" s="4" t="s">
         <v>1088</v>
-      </c>
-      <c r="C1233" s="4" t="s">
-        <v>1089</v>
       </c>
       <c r="E1233" s="4" t="s">
         <v>4</v>
@@ -31597,13 +31594,13 @@
     </row>
     <row r="1234" spans="1:9">
       <c r="A1234" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1234" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1234" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E1234" s="4" t="s">
         <v>4</v>
@@ -31615,15 +31612,15 @@
         <v>0</v>
       </c>
       <c r="I1234" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1235" spans="1:9">
       <c r="A1235" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1235" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1235" s="4" t="s">
         <v>256</v>
@@ -31641,15 +31638,15 @@
         <v>50</v>
       </c>
       <c r="I1235" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1236" spans="1:9">
       <c r="A1236" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1236" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1236" s="4" t="s">
         <v>13</v>
@@ -31672,10 +31669,10 @@
     </row>
     <row r="1237" spans="1:9">
       <c r="A1237" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1237" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1237" s="4" t="s">
         <v>16</v>
@@ -31698,10 +31695,10 @@
     </row>
     <row r="1238" spans="1:9">
       <c r="A1238" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1238" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1238" s="4" t="s">
         <v>128</v>
@@ -31724,10 +31721,10 @@
     </row>
     <row r="1239" spans="1:9" ht="22.5">
       <c r="A1239" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1239" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1239" s="4" t="s">
         <v>129</v>
@@ -31754,24 +31751,24 @@
     </row>
     <row r="1241" spans="1:9" ht="22.5">
       <c r="A1241" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1241" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I1241" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1242" spans="1:9">
       <c r="A1242" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1242" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1242" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E1242" s="4" t="s">
         <v>4</v>
@@ -31791,10 +31788,10 @@
     </row>
     <row r="1243" spans="1:9">
       <c r="A1243" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1243" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1243" s="4" t="s">
         <v>467</v>
@@ -31817,10 +31814,10 @@
     </row>
     <row r="1244" spans="1:9">
       <c r="A1244" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1244" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1244" s="4" t="s">
         <v>286</v>
@@ -31843,10 +31840,10 @@
     </row>
     <row r="1245" spans="1:9">
       <c r="A1245" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1245" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1245" s="4" t="s">
         <v>13</v>
@@ -31869,10 +31866,10 @@
     </row>
     <row r="1246" spans="1:9">
       <c r="A1246" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1246" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1246" s="4" t="s">
         <v>16</v>
@@ -31895,10 +31892,10 @@
     </row>
     <row r="1247" spans="1:9">
       <c r="A1247" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1247" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1247" s="4" t="s">
         <v>128</v>
@@ -31921,10 +31918,10 @@
     </row>
     <row r="1248" spans="1:9" ht="22.5">
       <c r="A1248" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1248" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C1248" s="4" t="s">
         <v>129</v>
@@ -31951,27 +31948,27 @@
     </row>
     <row r="1250" spans="1:9" ht="37.5" customHeight="1">
       <c r="A1250" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1250" s="4" t="s">
         <v>1155</v>
-      </c>
-      <c r="B1250" s="4" t="s">
-        <v>1156</v>
       </c>
       <c r="F1250" s="5"/>
       <c r="G1250" s="4"/>
       <c r="H1250" s="6"/>
       <c r="I1250" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1251" spans="1:9">
       <c r="A1251" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1251" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="B1251" s="4" t="s">
-        <v>1156</v>
-      </c>
       <c r="C1251" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E1251" s="4" t="s">
         <v>4</v>
@@ -31991,13 +31988,13 @@
     </row>
     <row r="1252" spans="1:9" ht="22.5">
       <c r="A1252" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1252" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="B1252" s="4" t="s">
-        <v>1156</v>
-      </c>
       <c r="C1252" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E1252" s="4" t="s">
         <v>4</v>
@@ -32010,7 +32007,7 @@
       </c>
       <c r="H1252" s="6"/>
       <c r="I1252" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1253" spans="1:9" s="9" customFormat="1">
@@ -32019,31 +32016,31 @@
     </row>
     <row r="1254" spans="1:9" ht="22.5">
       <c r="A1254" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1254" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F1254" s="5" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G1254" s="4">
         <v>0</v>
       </c>
       <c r="H1254" s="6"/>
       <c r="I1254" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1255" spans="1:9">
       <c r="A1255" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1255" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1255" s="4" t="s">
         <v>1160</v>
-      </c>
-      <c r="C1255" s="4" t="s">
-        <v>1161</v>
       </c>
       <c r="E1255" s="4" t="s">
         <v>4</v>
@@ -32063,13 +32060,13 @@
     </row>
     <row r="1256" spans="1:9">
       <c r="A1256" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1256" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C1256" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E1256" s="4" t="s">
         <v>4</v>
@@ -32084,18 +32081,18 @@
         <v>526</v>
       </c>
       <c r="I1256" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1257" spans="1:9">
       <c r="A1257" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1257" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C1257" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E1257" s="4" t="s">
         <v>4</v>
@@ -32108,18 +32105,18 @@
       </c>
       <c r="H1257" s="6"/>
       <c r="I1257" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
       <c r="A1258" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1258" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C1258" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E1258" s="4" t="s">
         <v>4</v>
@@ -32132,7 +32129,7 @@
       </c>
       <c r="H1258" s="6"/>
       <c r="I1258" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1259" spans="1:9" s="9" customFormat="1">
@@ -32141,27 +32138,27 @@
     </row>
     <row r="1260" spans="1:9" ht="33.75">
       <c r="A1260" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1260" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F1260" s="5"/>
       <c r="G1260" s="4"/>
       <c r="H1260" s="6"/>
       <c r="I1260" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1261" spans="1:9">
       <c r="A1261" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1261" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E1261" s="4" t="s">
         <v>4</v>
@@ -32181,13 +32178,13 @@
     </row>
     <row r="1262" spans="1:9">
       <c r="A1262" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1262" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1262" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E1262" s="4" t="s">
         <v>4</v>
@@ -32202,18 +32199,18 @@
         <v>526</v>
       </c>
       <c r="I1262" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1263" spans="1:9">
       <c r="A1263" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1263" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E1263" s="4" t="s">
         <v>4</v>
@@ -32226,18 +32223,18 @@
       </c>
       <c r="H1263" s="6"/>
       <c r="I1263" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1264" spans="1:9" ht="22.5">
       <c r="A1264" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1264" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1264" s="4" t="s">
         <v>1164</v>
-      </c>
-      <c r="C1264" s="4" t="s">
-        <v>1165</v>
       </c>
       <c r="E1264" s="4" t="s">
         <v>4</v>
@@ -32250,18 +32247,18 @@
       </c>
       <c r="H1264" s="6"/>
       <c r="I1264" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1265" spans="1:9">
       <c r="A1265" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1265" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1265" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E1265" s="4" t="s">
         <v>8</v>
@@ -32274,18 +32271,18 @@
       </c>
       <c r="H1265" s="6"/>
       <c r="I1265" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1266" spans="1:9">
       <c r="A1266" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1266" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1266" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1266" s="4" t="s">
         <v>8</v>
@@ -32298,18 +32295,18 @@
       </c>
       <c r="H1266" s="6"/>
       <c r="I1266" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1267" spans="1:9" ht="22.5">
       <c r="A1267" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1267" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C1267" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E1267" s="4" t="s">
         <v>4</v>
@@ -32322,7 +32319,7 @@
       </c>
       <c r="H1267" s="6"/>
       <c r="I1267" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1268" spans="1:9" s="9" customFormat="1">
@@ -32331,27 +32328,27 @@
     </row>
     <row r="1269" spans="1:9" ht="22.5">
       <c r="A1269" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1269" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F1269" s="5"/>
       <c r="G1269" s="4"/>
       <c r="H1269" s="6"/>
       <c r="I1269" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1270" spans="1:9">
       <c r="A1270" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1270" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1270" s="4" t="s">
         <v>1168</v>
-      </c>
-      <c r="C1270" s="4" t="s">
-        <v>1169</v>
       </c>
       <c r="E1270" s="4" t="s">
         <v>4</v>
@@ -32371,13 +32368,13 @@
     </row>
     <row r="1271" spans="1:9">
       <c r="A1271" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1271" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E1271" s="4" t="s">
         <v>4</v>
@@ -32392,18 +32389,18 @@
         <v>526</v>
       </c>
       <c r="I1271" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
       <c r="A1272" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1272" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1272" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E1272" s="4" t="s">
         <v>4</v>
@@ -32416,18 +32413,18 @@
       </c>
       <c r="H1272" s="6"/>
       <c r="I1272" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1273" spans="1:9">
       <c r="A1273" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1273" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1273" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E1273" s="4" t="s">
         <v>4</v>
@@ -32442,18 +32439,18 @@
         <v>526</v>
       </c>
       <c r="I1273" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1274" spans="1:9" ht="22.5">
       <c r="A1274" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1274" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C1274" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E1274" s="4" t="s">
         <v>4</v>
@@ -32466,7 +32463,7 @@
       </c>
       <c r="H1274" s="6"/>
       <c r="I1274" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1275" spans="1:9" s="9" customFormat="1">
@@ -32475,27 +32472,27 @@
     </row>
     <row r="1276" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1276" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1276" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F1276" s="5"/>
       <c r="G1276" s="4"/>
       <c r="H1276" s="6"/>
       <c r="I1276" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1277" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1277" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1277" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C1277" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="C1277" s="4" t="s">
-        <v>1172</v>
       </c>
       <c r="E1277" s="4" t="s">
         <v>4</v>
@@ -32515,13 +32512,13 @@
     </row>
     <row r="1278" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1278" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1278" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1278" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E1278" s="4" t="s">
         <v>4</v>
@@ -32536,18 +32533,18 @@
         <v>526</v>
       </c>
       <c r="I1278" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1279" spans="1:9">
       <c r="A1279" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1279" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1279" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E1279" s="4" t="s">
         <v>8</v>
@@ -32560,18 +32557,18 @@
       </c>
       <c r="H1279" s="6"/>
       <c r="I1279" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1280" spans="1:9">
       <c r="A1280" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1280" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1280" s="4" t="s">
         <v>8</v>
@@ -32584,15 +32581,15 @@
       </c>
       <c r="H1280" s="6"/>
       <c r="I1280" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1281" spans="1:9">
       <c r="A1281" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1281" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1281" s="4" t="s">
         <v>13</v>
@@ -32611,18 +32608,18 @@
       </c>
       <c r="H1281" s="6"/>
       <c r="I1281" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1282" spans="1:9">
       <c r="A1282" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1282" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1282" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E1282" s="4" t="s">
         <v>4</v>
@@ -32637,18 +32634,18 @@
         <v>526</v>
       </c>
       <c r="I1282" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1283" spans="1:9" ht="22.5">
       <c r="A1283" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C1283" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E1283" s="4" t="s">
         <v>8</v>
@@ -32661,7 +32658,7 @@
       </c>
       <c r="H1283" s="6"/>
       <c r="I1283" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1284" spans="1:9" s="9" customFormat="1">
@@ -32670,27 +32667,27 @@
     </row>
     <row r="1285" spans="1:9" ht="22.5">
       <c r="A1285" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1285" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F1285" s="5"/>
       <c r="G1285" s="4"/>
       <c r="H1285" s="6"/>
       <c r="I1285" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1286" spans="1:9">
       <c r="A1286" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1286" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E1286" s="4" t="s">
         <v>4</v>
@@ -32710,13 +32707,13 @@
     </row>
     <row r="1287" spans="1:9">
       <c r="A1287" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1287" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1287" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E1287" s="4" t="s">
         <v>4</v>
@@ -32729,18 +32726,18 @@
       </c>
       <c r="H1287" s="6"/>
       <c r="I1287" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1288" spans="1:9">
       <c r="A1288" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1288" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E1288" s="4" t="s">
         <v>8</v>
@@ -32753,18 +32750,18 @@
       </c>
       <c r="H1288" s="6"/>
       <c r="I1288" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1289" spans="1:9">
       <c r="A1289" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1289" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E1289" s="4" t="s">
         <v>8</v>
@@ -32777,15 +32774,15 @@
       </c>
       <c r="H1289" s="6"/>
       <c r="I1289" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1290" spans="1:9">
       <c r="A1290" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1290" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1290" s="4" t="s">
         <v>13</v>
@@ -32801,18 +32798,18 @@
       </c>
       <c r="H1290" s="6"/>
       <c r="I1290" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1291" spans="1:9">
       <c r="A1291" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1291" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1291" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E1291" s="4" t="s">
         <v>4</v>
@@ -32825,18 +32822,18 @@
       </c>
       <c r="H1291" s="6"/>
       <c r="I1291" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1292" spans="1:9" ht="22.5">
       <c r="A1292" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1292" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1292" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E1292" s="4" t="s">
         <v>8</v>
@@ -32849,7 +32846,7 @@
       </c>
       <c r="H1292" s="6"/>
       <c r="I1292" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1293" spans="1:9" s="9" customFormat="1">
@@ -32858,27 +32855,27 @@
     </row>
     <row r="1294" spans="1:9" ht="22.5">
       <c r="A1294" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1294" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1294" s="5"/>
       <c r="G1294" s="4"/>
       <c r="H1294" s="6"/>
       <c r="I1294" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1295" spans="1:9">
       <c r="A1295" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1295" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E1295" s="4" t="s">
         <v>4</v>
@@ -32898,13 +32895,13 @@
     </row>
     <row r="1296" spans="1:9">
       <c r="A1296" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1296" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1296" s="4" t="s">
         <v>1175</v>
-      </c>
-      <c r="C1296" s="4" t="s">
-        <v>1176</v>
       </c>
       <c r="E1296" s="4" t="s">
         <v>4</v>
@@ -32917,18 +32914,18 @@
       </c>
       <c r="H1296" s="6"/>
       <c r="I1296" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1297" spans="1:9">
       <c r="A1297" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1297" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C1297" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D1297" s="4" t="s">
         <v>44</v>
@@ -32946,7 +32943,7 @@
         <v>526</v>
       </c>
       <c r="I1297" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -32969,7 +32966,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="360">
       <c r="A1" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -2721,15 +2721,6 @@
     <t>Additional information about the title.  Not visible in the public user interface.</t>
   </si>
   <si>
-    <t>Years of publication of the title, as extracted from the MARC 260c field.</t>
-  </si>
-  <si>
-    <t>Publisher of the title, as extracted from the MARC 260b field.</t>
-  </si>
-  <si>
-    <t>Place of publication of the title, as extracted from the MARC 260a field.</t>
-  </si>
-  <si>
     <t>Additional title information that designates the number of a work. (ex. Part 1)</t>
   </si>
   <si>
@@ -4212,6 +4203,15 @@
   </si>
   <si>
     <t>Mappings of name sources used by the gnfinder Global Names utility to BHL identifiers</t>
+  </si>
+  <si>
+    <t>Place of publication of the title, as extracted from the MARC 260a field.  If there are repeating MARC 260a fields in the original source document, only the first 260a value is stored here.</t>
+  </si>
+  <si>
+    <t>Publisher of the title, as extracted from the MARC 260b field.  If there are repeating MARC 260b fields in the original source document, only the first 260b value is stored here</t>
+  </si>
+  <si>
+    <t>Years of publication of the title, as extracted from the MARC 260c field.  If there are repeating MARC 260c fields in the original source document, only the first 260c value is stored here</t>
   </si>
 </sst>
 </file>
@@ -4623,8 +4623,8 @@
   <dimension ref="A1:I1421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A1050" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1060" sqref="I1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4655,13 +4655,13 @@
         <v>523</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>537</v>
@@ -4678,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4730,7 +4730,7 @@
         <v>526</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5">
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.5">
@@ -4805,7 +4805,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4872,7 +4872,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4924,7 +4924,7 @@
         <v>526</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="22.5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="22.5">
@@ -5025,7 +5025,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5092,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5144,7 +5144,7 @@
         <v>526</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33.75">
@@ -5170,7 +5170,7 @@
         <v>-1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="22.5">
@@ -5196,7 +5196,7 @@
         <v>-1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5222,7 +5222,7 @@
         <v>-1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5289,7 +5289,7 @@
         <v>27</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5341,7 +5341,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5367,7 +5367,7 @@
         <v>500</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5434,7 +5434,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5486,7 +5486,7 @@
         <v>526</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="22.5">
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5">
@@ -5561,7 +5561,7 @@
         <v>100</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="22.5">
@@ -5587,7 +5587,7 @@
         <v>200</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="22.5">
@@ -5613,7 +5613,7 @@
         <v>50</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="22.5">
@@ -5639,7 +5639,7 @@
         <v>50</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="22.5">
@@ -5665,7 +5665,7 @@
         <v>100</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="22.5">
@@ -5691,7 +5691,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5717,7 +5717,7 @@
         <v>50</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5743,7 +5743,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5769,7 +5769,7 @@
         <v>200</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5836,7 +5836,7 @@
         <v>41</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5888,7 +5888,7 @@
         <v>526</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="22.5">
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5966,7 +5966,7 @@
         <v>-1</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="22.5">
@@ -5992,7 +5992,7 @@
         <v>-1</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="22.5">
@@ -6018,7 +6018,7 @@
         <v>-1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6044,7 +6044,7 @@
         <v>-1</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6070,7 +6070,7 @@
         <v>-1</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6096,7 +6096,7 @@
         <v>-1</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6163,7 +6163,7 @@
         <v>51</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6189,7 +6189,7 @@
         <v>525</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6215,7 +6215,7 @@
         <v>525</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6241,7 +6241,7 @@
         <v>525</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6302,7 +6302,7 @@
         <v>54</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -6354,7 +6354,7 @@
         <v>526</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="22.5">
@@ -6380,7 +6380,7 @@
         <v>100</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45">
@@ -6406,7 +6406,7 @@
         <v>526</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6473,7 +6473,7 @@
         <v>57</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6525,7 +6525,7 @@
         <v>20</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7101,7 +7101,7 @@
         <v>71</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7153,7 +7153,7 @@
         <v>526</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="22.5">
@@ -7179,7 +7179,7 @@
         <v>-1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7205,7 +7205,7 @@
         <v>-1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="22.5">
@@ -7231,7 +7231,7 @@
         <v>-1</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7324,7 +7324,7 @@
         <v>79</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7376,7 +7376,7 @@
         <v>526</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="22.5">
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="22.5">
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="22.5">
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="22.5">
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -7535,7 +7535,7 @@
         <v>81</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -7561,7 +7561,7 @@
         <v>525</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="33.75">
@@ -7590,7 +7590,7 @@
         <v>525</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -7616,7 +7616,7 @@
         <v>-1</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -7683,7 +7683,7 @@
         <v>84</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7735,7 +7735,7 @@
         <v>30</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="22.5">
@@ -7761,7 +7761,7 @@
         <v>-1</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -7828,7 +7828,7 @@
         <v>87</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7880,7 +7880,7 @@
         <v>526</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7906,7 +7906,7 @@
         <v>526</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7932,7 +7932,7 @@
         <v>526</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="22.5">
@@ -7958,7 +7958,7 @@
         <v>150</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8025,7 +8025,7 @@
         <v>91</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8077,7 +8077,7 @@
         <v>526</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="22.5">
@@ -8103,7 +8103,7 @@
         <v>20</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="22.5">
@@ -8129,7 +8129,7 @@
         <v>50</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8196,7 +8196,7 @@
         <v>94</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -8222,7 +8222,7 @@
         <v>525</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -8248,7 +8248,7 @@
         <v>525</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -8286,13 +8286,13 @@
         <v>111</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="4"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -8300,10 +8300,10 @@
         <v>111</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>4</v>
@@ -8326,7 +8326,7 @@
         <v>111</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>294</v>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="H170" s="6"/>
       <c r="I170" s="6" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="22.5">
@@ -8350,7 +8350,7 @@
         <v>111</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>451</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="9" customFormat="1">
@@ -8381,13 +8381,13 @@
         <v>111</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="4"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -8395,10 +8395,10 @@
         <v>111</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>4</v>
@@ -8421,10 +8421,10 @@
         <v>111</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>4</v>
@@ -8447,10 +8447,10 @@
         <v>111</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>8</v>
@@ -8471,10 +8471,10 @@
         <v>111</v>
       </c>
       <c r="B177" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>1188</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>1191</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>8</v>
@@ -8499,13 +8499,13 @@
         <v>111</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="4"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -8513,10 +8513,10 @@
         <v>111</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>4</v>
@@ -8531,7 +8531,7 @@
         <v>525</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -8539,10 +8539,10 @@
         <v>111</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>4</v>
@@ -8557,7 +8557,7 @@
         <v>525</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="22.5">
@@ -8565,10 +8565,10 @@
         <v>111</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>4</v>
@@ -8583,7 +8583,7 @@
         <v>525</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="9" customFormat="1">
@@ -8595,13 +8595,13 @@
         <v>111</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F184" s="5"/>
       <c r="G184" s="4"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8609,10 +8609,10 @@
         <v>111</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>4</v>
@@ -8627,7 +8627,7 @@
         <v>525</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8635,10 +8635,10 @@
         <v>111</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>4</v>
@@ -8653,7 +8653,7 @@
         <v>525</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1">
@@ -8665,13 +8665,13 @@
         <v>111</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F188" s="5"/>
       <c r="G188" s="4"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8679,10 +8679,10 @@
         <v>111</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>4</v>
@@ -8705,7 +8705,7 @@
         <v>111</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>138</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8729,7 +8729,7 @@
         <v>111</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>137</v>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8753,10 +8753,10 @@
         <v>111</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>4</v>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="6" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8777,10 +8777,10 @@
         <v>111</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>8</v>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="H193" s="6"/>
       <c r="I193" s="6" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8801,10 +8801,10 @@
         <v>111</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>1200</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>4</v>
@@ -8825,10 +8825,10 @@
         <v>111</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>8</v>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="H195" s="6"/>
       <c r="I195" s="6" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8849,10 +8849,10 @@
         <v>111</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>8</v>
@@ -8870,10 +8870,10 @@
         <v>111</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>8</v>
@@ -8894,10 +8894,10 @@
         <v>111</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>4</v>
@@ -8918,10 +8918,10 @@
         <v>111</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>4</v>
@@ -8942,10 +8942,10 @@
         <v>111</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>8</v>
@@ -8966,10 +8966,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>4</v>
@@ -8990,10 +8990,10 @@
         <v>111</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>4</v>
@@ -9014,10 +9014,10 @@
         <v>111</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>4</v>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H203" s="6"/>
       <c r="I203" s="6" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="9" customFormat="1">
@@ -9701,7 +9701,7 @@
         <v>33</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9779,7 +9779,7 @@
         <v>25</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="33.75">
@@ -9805,7 +9805,7 @@
         <v>25</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -9831,7 +9831,7 @@
         <v>300</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9857,7 +9857,7 @@
         <v>200</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9883,7 +9883,7 @@
         <v>300</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="22.5">
@@ -9909,7 +9909,7 @@
         <v>200</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="33.75">
@@ -10300,7 +10300,7 @@
         <v>134</v>
       </c>
       <c r="I262" s="6" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10378,7 +10378,7 @@
         <v>300</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="33.75">
@@ -10404,7 +10404,7 @@
         <v>150</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="33.75">
@@ -10430,7 +10430,7 @@
         <v>150</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="45">
@@ -10456,7 +10456,7 @@
         <v>150</v>
       </c>
       <c r="I268" s="6" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="56.25">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11062,7 +11062,7 @@
         <v>152</v>
       </c>
       <c r="I297" s="6" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -11114,7 +11114,7 @@
         <v>50</v>
       </c>
       <c r="I299" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="22.5">
@@ -11140,7 +11140,7 @@
         <v>4000</v>
       </c>
       <c r="I300" s="6" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="33.75">
@@ -11166,7 +11166,7 @@
         <v>50</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="67.5">
@@ -11192,7 +11192,7 @@
         <v>-1</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="45">
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="45">
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="33.75">
@@ -11270,7 +11270,7 @@
         <v>526</v>
       </c>
       <c r="I305" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="33.75">
@@ -11296,7 +11296,7 @@
         <v>526</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="33.75">
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -11400,7 +11400,7 @@
         <v>30</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="22.5">
@@ -11426,7 +11426,7 @@
         <v>100</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -11478,7 +11478,7 @@
         <v>100</v>
       </c>
       <c r="I313" s="6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="33.75">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="9" customFormat="1">
@@ -11733,7 +11733,7 @@
         <v>50</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="I330" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -12061,10 +12061,10 @@
         <v>111</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="I343" s="6" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -12072,10 +12072,10 @@
         <v>111</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>4</v>
@@ -12098,10 +12098,10 @@
         <v>111</v>
       </c>
       <c r="B345" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C345" s="4" t="s">
         <v>1050</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>1053</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>4</v>
@@ -12116,7 +12116,7 @@
         <v>526</v>
       </c>
       <c r="I345" s="6" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -12124,10 +12124,10 @@
         <v>111</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>4</v>
@@ -12139,15 +12139,15 @@
         <v>0</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>13</v>
@@ -12177,10 +12177,10 @@
         <v>111</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -12188,10 +12188,10 @@
         <v>111</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E350" s="4" t="s">
         <v>4</v>
@@ -12214,7 +12214,7 @@
         <v>111</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>136</v>
@@ -12232,7 +12232,7 @@
         <v>30</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="22.5">
@@ -12240,10 +12240,10 @@
         <v>111</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>10</v>
@@ -12258,7 +12258,7 @@
         <v>20</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="33.75">
@@ -12266,7 +12266,7 @@
         <v>111</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>193</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="6" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="354" spans="1:9" s="9" customFormat="1">
@@ -12516,10 +12516,10 @@
         <v>111</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="I365" s="4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -12527,10 +12527,10 @@
         <v>111</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E366" s="4" t="s">
         <v>4</v>
@@ -12553,7 +12553,7 @@
         <v>111</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>132</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="I367" s="6" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -12579,10 +12579,10 @@
         <v>111</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>10</v>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="I368" s="6" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -12605,7 +12605,7 @@
         <v>111</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>13</v>
@@ -12631,7 +12631,7 @@
         <v>111</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>16</v>
@@ -12657,7 +12657,7 @@
         <v>111</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>128</v>
@@ -12683,7 +12683,7 @@
         <v>111</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>129</v>
@@ -12713,10 +12713,10 @@
         <v>111</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="I374" s="6" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -12724,10 +12724,10 @@
         <v>111</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E375" s="4" t="s">
         <v>4</v>
@@ -12750,10 +12750,10 @@
         <v>111</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>10</v>
@@ -12768,7 +12768,7 @@
         <v>50</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -12776,7 +12776,7 @@
         <v>111</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>13</v>
@@ -12802,7 +12802,7 @@
         <v>111</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>16</v>
@@ -12828,7 +12828,7 @@
         <v>111</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>128</v>
@@ -12854,7 +12854,7 @@
         <v>111</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>129</v>
@@ -13364,7 +13364,7 @@
         <v>111</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="I404" s="6" t="s">
         <v>608</v>
@@ -13375,10 +13375,10 @@
         <v>111</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E405" s="4" t="s">
         <v>4</v>
@@ -13401,10 +13401,10 @@
         <v>111</v>
       </c>
       <c r="B406" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C406" s="4" t="s">
         <v>1370</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>1373</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>10</v>
@@ -13419,7 +13419,7 @@
         <v>300</v>
       </c>
       <c r="I406" s="6" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -13427,10 +13427,10 @@
         <v>111</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>10</v>
@@ -13445,7 +13445,7 @@
         <v>-1</v>
       </c>
       <c r="I407" s="6" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -13453,7 +13453,7 @@
         <v>111</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>13</v>
@@ -13479,7 +13479,7 @@
         <v>111</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>16</v>
@@ -13505,7 +13505,7 @@
         <v>111</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>128</v>
@@ -13531,7 +13531,7 @@
         <v>111</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>129</v>
@@ -13561,10 +13561,10 @@
         <v>111</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I413" s="6" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13572,10 +13572,10 @@
         <v>111</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E414" s="4" t="s">
         <v>4</v>
@@ -13598,10 +13598,10 @@
         <v>111</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E415" s="4" t="s">
         <v>4</v>
@@ -13616,7 +13616,7 @@
         <v>526</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="22.5">
@@ -13624,7 +13624,7 @@
         <v>111</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>160</v>
@@ -13642,7 +13642,7 @@
         <v>526</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13650,7 +13650,7 @@
         <v>111</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>13</v>
@@ -13676,7 +13676,7 @@
         <v>111</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>128</v>
@@ -13706,10 +13706,10 @@
         <v>111</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13717,10 +13717,10 @@
         <v>111</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E421" s="4" t="s">
         <v>4</v>
@@ -13743,10 +13743,10 @@
         <v>111</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>10</v>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="4" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13770,10 +13770,10 @@
         <v>111</v>
       </c>
       <c r="B423" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C423" s="4" t="s">
         <v>1256</v>
-      </c>
-      <c r="C423" s="4" t="s">
-        <v>1259</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>10</v>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="4" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13797,7 +13797,7 @@
         <v>111</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>13</v>
@@ -13823,7 +13823,7 @@
         <v>111</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>16</v>
@@ -13849,7 +13849,7 @@
         <v>111</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>128</v>
@@ -13875,7 +13875,7 @@
         <v>111</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>129</v>
@@ -14101,7 +14101,7 @@
         <v>-1</v>
       </c>
       <c r="I437" s="6" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="22.5">
@@ -14565,7 +14565,7 @@
         <v>20</v>
       </c>
       <c r="I456" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="22.5">
@@ -14588,7 +14588,7 @@
         <v>50</v>
       </c>
       <c r="I457" s="6" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="45">
@@ -14995,7 +14995,7 @@
         <v>20</v>
       </c>
       <c r="I473" s="6" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="56.25">
@@ -15006,7 +15006,7 @@
         <v>201</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>10</v>
@@ -15021,7 +15021,7 @@
         <v>10</v>
       </c>
       <c r="I474" s="6" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="475" spans="1:9" ht="56.25">
@@ -15032,7 +15032,7 @@
         <v>201</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>10</v>
@@ -15047,7 +15047,7 @@
         <v>10</v>
       </c>
       <c r="I475" s="6" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="56.25">
@@ -15058,7 +15058,7 @@
         <v>201</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>10</v>
@@ -15073,7 +15073,7 @@
         <v>10</v>
       </c>
       <c r="I476" s="6" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="45">
@@ -15084,7 +15084,7 @@
         <v>201</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>10</v>
@@ -15099,7 +15099,7 @@
         <v>10</v>
       </c>
       <c r="I477" s="6" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="478" spans="1:9" ht="56.25">
@@ -15110,7 +15110,7 @@
         <v>201</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>10</v>
@@ -15125,7 +15125,7 @@
         <v>10</v>
       </c>
       <c r="I478" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="56.25">
@@ -15136,7 +15136,7 @@
         <v>201</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>10</v>
@@ -15151,7 +15151,7 @@
         <v>10</v>
       </c>
       <c r="I479" s="6" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="56.25">
@@ -15162,7 +15162,7 @@
         <v>201</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>10</v>
@@ -15177,7 +15177,7 @@
         <v>10</v>
       </c>
       <c r="I480" s="6" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="45">
@@ -15188,7 +15188,7 @@
         <v>201</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>10</v>
@@ -15203,7 +15203,7 @@
         <v>10</v>
       </c>
       <c r="I481" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="56.25">
@@ -15214,7 +15214,7 @@
         <v>201</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>10</v>
@@ -15229,7 +15229,7 @@
         <v>10</v>
       </c>
       <c r="I482" s="6" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="45">
@@ -15240,7 +15240,7 @@
         <v>201</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>10</v>
@@ -15255,7 +15255,7 @@
         <v>10</v>
       </c>
       <c r="I483" s="6" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="56.25">
@@ -15266,7 +15266,7 @@
         <v>201</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>77</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="I484" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="33.75">
@@ -15292,7 +15292,7 @@
         <v>201</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>8</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="I485" s="6" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="33.75">
@@ -15315,7 +15315,7 @@
         <v>201</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>8</v>
@@ -15327,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="I486" s="6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="9" customFormat="1">
@@ -15458,10 +15458,10 @@
         <v>111</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I494" s="6" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -15469,10 +15469,10 @@
         <v>111</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E495" s="4" t="s">
         <v>4</v>
@@ -15495,7 +15495,7 @@
         <v>111</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>7</v>
@@ -15513,7 +15513,7 @@
         <v>526</v>
       </c>
       <c r="I496" s="4" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -15521,7 +15521,7 @@
         <v>111</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>160</v>
@@ -15539,7 +15539,7 @@
         <v>526</v>
       </c>
       <c r="I497" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="498" spans="1:9" ht="22.5">
@@ -15547,10 +15547,10 @@
         <v>111</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E498" s="4" t="s">
         <v>4</v>
@@ -15565,7 +15565,7 @@
         <v>526</v>
       </c>
       <c r="I498" s="6" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -15573,7 +15573,7 @@
         <v>111</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>13</v>
@@ -15599,7 +15599,7 @@
         <v>111</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>16</v>
@@ -15625,7 +15625,7 @@
         <v>111</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>128</v>
@@ -15651,7 +15651,7 @@
         <v>111</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>129</v>
@@ -16542,7 +16542,7 @@
         <v>260</v>
       </c>
       <c r="I546" s="6" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="547" spans="1:9">
@@ -16594,7 +16594,7 @@
         <v>526</v>
       </c>
       <c r="I548" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="549" spans="1:9" ht="22.5">
@@ -16620,7 +16620,7 @@
         <v>526</v>
       </c>
       <c r="I549" s="6" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -16646,7 +16646,7 @@
         <v>500</v>
       </c>
       <c r="I550" s="6" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -16695,7 +16695,7 @@
         <v>200</v>
       </c>
       <c r="I552" s="6" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="553" spans="1:9" ht="22.5">
@@ -16718,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="I553" s="6" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -16785,7 +16785,7 @@
         <v>266</v>
       </c>
       <c r="I557" s="6" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="558" spans="1:9">
@@ -16837,7 +16837,7 @@
         <v>526</v>
       </c>
       <c r="I559" s="6" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -16863,7 +16863,7 @@
         <v>3</v>
       </c>
       <c r="I560" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -16889,7 +16889,7 @@
         <v>200</v>
       </c>
       <c r="I561" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="562" spans="1:9">
@@ -16956,7 +16956,7 @@
         <v>270</v>
       </c>
       <c r="I565" s="6" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -17008,7 +17008,7 @@
         <v>526</v>
       </c>
       <c r="I567" s="6" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -17034,7 +17034,7 @@
         <v>3</v>
       </c>
       <c r="I568" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="569" spans="1:9" ht="22.5">
@@ -17060,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="I569" s="6" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="570" spans="1:9" ht="22.5">
@@ -17086,7 +17086,7 @@
         <v>1</v>
       </c>
       <c r="I570" s="6" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="571" spans="1:9">
@@ -17153,7 +17153,7 @@
         <v>274</v>
       </c>
       <c r="I574" s="6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="575" spans="1:9">
@@ -17205,7 +17205,7 @@
         <v>500</v>
       </c>
       <c r="I576" s="6" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="577" spans="1:9" ht="22.5">
@@ -17228,7 +17228,7 @@
         <v>10</v>
       </c>
       <c r="I577" s="6" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -17269,7 +17269,7 @@
         <v>276</v>
       </c>
       <c r="I580" s="6" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="I582" s="6" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="I584" s="6" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="585" spans="1:9">
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="I585" s="6" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="I586" s="6" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="587" spans="1:9">
@@ -17436,7 +17436,7 @@
         <v>0</v>
       </c>
       <c r="I587" s="6" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="588" spans="1:9">
@@ -17462,7 +17462,7 @@
         <v>126</v>
       </c>
       <c r="I588" s="6" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="589" spans="1:9" ht="22.5">
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="I589" s="6" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -17511,7 +17511,7 @@
         <v>4000</v>
       </c>
       <c r="I590" s="6" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="591" spans="1:9" s="9" customFormat="1">
@@ -17526,7 +17526,7 @@
         <v>285</v>
       </c>
       <c r="I592" s="6" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -17578,7 +17578,7 @@
         <v>30</v>
       </c>
       <c r="I594" s="6" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="595" spans="1:9" s="9" customFormat="1">
@@ -17593,7 +17593,7 @@
         <v>287</v>
       </c>
       <c r="I596" s="6" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -17645,7 +17645,7 @@
         <v>526</v>
       </c>
       <c r="I598" s="6" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="599" spans="1:9">
@@ -17671,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="I599" s="6" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="600" spans="1:9" ht="45">
@@ -17697,7 +17697,7 @@
         <v>200</v>
       </c>
       <c r="I600" s="6" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="601" spans="1:9">
@@ -17761,17 +17761,17 @@
         <v>111</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="F604" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G604" s="4">
         <v>0</v>
       </c>
       <c r="H604" s="6"/>
       <c r="I604" s="6" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="605" spans="1:9">
@@ -17779,10 +17779,10 @@
         <v>111</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E605" s="4" t="s">
         <v>4</v>
@@ -17805,10 +17805,10 @@
         <v>111</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D606" s="4" t="s">
         <v>10</v>
@@ -17824,7 +17824,7 @@
       </c>
       <c r="H606" s="6"/>
       <c r="I606" s="6" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="607" spans="1:9">
@@ -17832,10 +17832,10 @@
         <v>111</v>
       </c>
       <c r="B607" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C607" s="4" t="s">
         <v>1283</v>
-      </c>
-      <c r="C607" s="4" t="s">
-        <v>1286</v>
       </c>
       <c r="D607" s="4" t="s">
         <v>10</v>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="H607" s="6"/>
       <c r="I607" s="4" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="608" spans="1:9" ht="22.5">
@@ -17859,7 +17859,7 @@
         <v>111</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C608" s="4" t="s">
         <v>151</v>
@@ -17878,7 +17878,7 @@
       </c>
       <c r="H608" s="6"/>
       <c r="I608" s="6" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="609" spans="1:9" s="9" customFormat="1">
@@ -19479,10 +19479,10 @@
         <v>111</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I684" s="6" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="685" spans="1:9">
@@ -19490,10 +19490,10 @@
         <v>111</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E685" s="4" t="s">
         <v>4</v>
@@ -19516,10 +19516,10 @@
         <v>111</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D686" s="4" t="s">
         <v>10</v>
@@ -19542,11 +19542,11 @@
         <v>111</v>
       </c>
       <c r="B687" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C687" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="C687" s="4" t="s">
-        <v>1384</v>
-      </c>
       <c r="E687" s="4" t="s">
         <v>4</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="I687" s="6" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="688" spans="1:9" s="9" customFormat="1">
@@ -19569,7 +19569,7 @@
         <v>111</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F689" s="5"/>
       <c r="G689" s="4">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="H689" s="6"/>
       <c r="I689" s="6" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="690" spans="1:9">
@@ -19585,10 +19585,10 @@
         <v>111</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E690" s="4" t="s">
         <v>4</v>
@@ -19611,10 +19611,10 @@
         <v>111</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D691" s="4" t="s">
         <v>10</v>
@@ -19638,10 +19638,10 @@
         <v>111</v>
       </c>
       <c r="B692" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C692" s="4" t="s">
         <v>1127</v>
-      </c>
-      <c r="C692" s="4" t="s">
-        <v>1130</v>
       </c>
       <c r="D692" s="4" t="s">
         <v>10</v>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="H692" s="6"/>
       <c r="I692" s="4" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="693" spans="1:9" ht="33.75">
@@ -19665,7 +19665,7 @@
         <v>111</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C693" s="4" t="s">
         <v>506</v>
@@ -19684,7 +19684,7 @@
       </c>
       <c r="H693" s="6"/>
       <c r="I693" s="6" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="694" spans="1:9" ht="33.75">
@@ -19692,10 +19692,10 @@
         <v>111</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D694" s="4" t="s">
         <v>10</v>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="H694" s="6"/>
       <c r="I694" s="6" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="695" spans="1:9">
@@ -19719,7 +19719,7 @@
         <v>111</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C695" s="4" t="s">
         <v>13</v>
@@ -19746,7 +19746,7 @@
         <v>111</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C696" s="4" t="s">
         <v>16</v>
@@ -19773,7 +19773,7 @@
         <v>111</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C697" s="4" t="s">
         <v>128</v>
@@ -19800,7 +19800,7 @@
         <v>111</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C698" s="4" t="s">
         <v>129</v>
@@ -21531,7 +21531,7 @@
         <v>358</v>
       </c>
       <c r="I776" s="6" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="777" spans="1:9">
@@ -21612,16 +21612,16 @@
         <v>111</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="F781" s="4" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G781" s="5">
         <v>0</v>
       </c>
       <c r="I781" s="6" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -21629,10 +21629,10 @@
         <v>111</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E782" s="4" t="s">
         <v>4</v>
@@ -21655,7 +21655,7 @@
         <v>111</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C783" s="4" t="s">
         <v>19</v>
@@ -21673,7 +21673,7 @@
         <v>526</v>
       </c>
       <c r="I783" s="6" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="784" spans="1:9">
@@ -21681,10 +21681,10 @@
         <v>111</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D784" s="4" t="s">
         <v>10</v>
@@ -21699,7 +21699,7 @@
         <v>50</v>
       </c>
       <c r="I784" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="785" spans="1:9" ht="22.5">
@@ -21707,10 +21707,10 @@
         <v>111</v>
       </c>
       <c r="B785" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C785" s="4" t="s">
         <v>1291</v>
-      </c>
-      <c r="C785" s="4" t="s">
-        <v>1294</v>
       </c>
       <c r="E785" s="4" t="s">
         <v>8</v>
@@ -21725,7 +21725,7 @@
         <v>526</v>
       </c>
       <c r="I785" s="6" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="786" spans="1:9">
@@ -21733,7 +21733,7 @@
         <v>111</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C786" s="4" t="s">
         <v>13</v>
@@ -21759,7 +21759,7 @@
         <v>111</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C787" s="4" t="s">
         <v>128</v>
@@ -23366,7 +23366,7 @@
         <v>-1</v>
       </c>
       <c r="I859" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="860" spans="1:9">
@@ -23507,7 +23507,7 @@
         <v>401</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D865" s="4" t="s">
         <v>10</v>
@@ -23522,7 +23522,7 @@
         <v>-1</v>
       </c>
       <c r="I865" s="6" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="866" spans="1:9">
@@ -23533,7 +23533,7 @@
         <v>401</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D866" s="4" t="s">
         <v>10</v>
@@ -23548,7 +23548,7 @@
         <v>-1</v>
       </c>
       <c r="I866" s="6" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="867" spans="1:9" ht="22.5">
@@ -23559,7 +23559,7 @@
         <v>401</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E867" s="4" t="s">
         <v>8</v>
@@ -23571,7 +23571,7 @@
         <v>0</v>
       </c>
       <c r="I867" s="6" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="868" spans="1:9" ht="22.5">
@@ -23582,7 +23582,7 @@
         <v>401</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D868" s="4" t="s">
         <v>10</v>
@@ -23597,7 +23597,7 @@
         <v>-1</v>
       </c>
       <c r="I868" s="6" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="869" spans="1:9" ht="22.5">
@@ -23608,7 +23608,7 @@
         <v>401</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D869" s="4" t="s">
         <v>77</v>
@@ -23623,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="I869" s="6" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="870" spans="1:9" s="9" customFormat="1">
@@ -24205,7 +24205,7 @@
         <v>-1</v>
       </c>
       <c r="I896" s="6" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="897" spans="1:9">
@@ -24343,7 +24343,7 @@
         <v>421</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D902" s="4" t="s">
         <v>10</v>
@@ -24358,7 +24358,7 @@
         <v>-1</v>
       </c>
       <c r="I902" s="6" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="903" spans="1:9" ht="22.5">
@@ -24369,7 +24369,7 @@
         <v>421</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D903" s="4" t="s">
         <v>10</v>
@@ -24384,7 +24384,7 @@
         <v>-1</v>
       </c>
       <c r="I903" s="6" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="904" spans="1:9" ht="22.5">
@@ -24395,7 +24395,7 @@
         <v>421</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D904" s="4" t="s">
         <v>77</v>
@@ -24410,7 +24410,7 @@
         <v>0</v>
       </c>
       <c r="I904" s="6" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="9" customFormat="1">
@@ -26511,10 +26511,10 @@
         <v>111</v>
       </c>
       <c r="B997" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="I997" s="6" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="998" spans="1:9">
@@ -26522,10 +26522,10 @@
         <v>111</v>
       </c>
       <c r="B998" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C998" s="4" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E998" s="5" t="s">
         <v>4</v>
@@ -26548,7 +26548,7 @@
         <v>111</v>
       </c>
       <c r="B999" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C999" s="4" t="s">
         <v>313</v>
@@ -26566,7 +26566,7 @@
         <v>526</v>
       </c>
       <c r="I999" s="4" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -26574,7 +26574,7 @@
         <v>111</v>
       </c>
       <c r="B1000" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C1000" s="4" t="s">
         <v>160</v>
@@ -26592,7 +26592,7 @@
         <v>526</v>
       </c>
       <c r="I1000" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1001" spans="1:9" ht="22.5">
@@ -26600,10 +26600,10 @@
         <v>111</v>
       </c>
       <c r="B1001" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C1001" s="4" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E1001" s="5" t="s">
         <v>4</v>
@@ -26618,7 +26618,7 @@
         <v>526</v>
       </c>
       <c r="I1001" s="6" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
@@ -26626,7 +26626,7 @@
         <v>111</v>
       </c>
       <c r="B1002" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C1002" s="4" t="s">
         <v>13</v>
@@ -26652,7 +26652,7 @@
         <v>111</v>
       </c>
       <c r="B1003" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C1003" s="4" t="s">
         <v>16</v>
@@ -26678,7 +26678,7 @@
         <v>111</v>
       </c>
       <c r="B1004" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C1004" s="4" t="s">
         <v>128</v>
@@ -26704,7 +26704,7 @@
         <v>111</v>
       </c>
       <c r="B1005" s="4" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C1005" s="4" t="s">
         <v>129</v>
@@ -27882,7 +27882,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="1059" spans="1:9" ht="22.5">
+    <row r="1059" spans="1:9" ht="56.25">
       <c r="A1059" s="4" t="s">
         <v>111</v>
       </c>
@@ -27902,10 +27902,10 @@
         <v>150</v>
       </c>
       <c r="I1059" s="6" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:9" ht="22.5">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9" ht="45">
       <c r="A1060" s="4" t="s">
         <v>111</v>
       </c>
@@ -27925,10 +27925,10 @@
         <v>255</v>
       </c>
       <c r="I1060" s="6" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:9" ht="22.5">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9" ht="56.25">
       <c r="A1061" s="4" t="s">
         <v>111</v>
       </c>
@@ -27948,7 +27948,7 @@
         <v>100</v>
       </c>
       <c r="I1061" s="6" t="s">
-        <v>898</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1062" spans="1:9">
@@ -28222,7 +28222,7 @@
         <v>100</v>
       </c>
       <c r="I1072" s="6" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="1073" spans="1:9" ht="22.5">
@@ -28245,7 +28245,7 @@
         <v>450</v>
       </c>
       <c r="I1073" s="6" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1074" spans="1:9" ht="22.5">
@@ -28268,7 +28268,7 @@
         <v>100</v>
       </c>
       <c r="I1074" s="6" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1075" spans="1:9" ht="22.5">
@@ -28291,7 +28291,7 @@
         <v>255</v>
       </c>
       <c r="I1075" s="6" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1076" spans="1:9" ht="22.5">
@@ -28314,7 +28314,7 @@
         <v>255</v>
       </c>
       <c r="I1076" s="6" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1077" spans="1:9" ht="22.5">
@@ -28351,7 +28351,7 @@
         <v>34</v>
       </c>
       <c r="C1078" s="4" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E1078" s="4" t="s">
         <v>8</v>
@@ -28366,7 +28366,7 @@
         <v>526</v>
       </c>
       <c r="I1078" s="6" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1079" spans="1:9" s="9" customFormat="1">
@@ -28604,7 +28604,7 @@
         <v>482</v>
       </c>
       <c r="I1090" s="6" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1091" spans="1:9">
@@ -28682,7 +28682,7 @@
         <v>526</v>
       </c>
       <c r="I1093" s="6" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1094" spans="1:9">
@@ -28708,7 +28708,7 @@
         <v>500</v>
       </c>
       <c r="I1094" s="6" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1095" spans="1:9">
@@ -28734,7 +28734,7 @@
         <v>500</v>
       </c>
       <c r="I1095" s="6" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1096" spans="1:9">
@@ -28760,7 +28760,7 @@
         <v>500</v>
       </c>
       <c r="I1096" s="6" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1097" spans="1:9" ht="33.75">
@@ -28786,7 +28786,7 @@
         <v>0</v>
       </c>
       <c r="I1097" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1098" spans="1:9">
@@ -28812,7 +28812,7 @@
         <v>526</v>
       </c>
       <c r="I1098" s="6" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1099" spans="1:9">
@@ -28890,7 +28890,7 @@
         <v>500</v>
       </c>
       <c r="I1101" s="6" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1102" spans="1:9">
@@ -28916,7 +28916,7 @@
         <v>500</v>
       </c>
       <c r="I1102" s="6" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1103" spans="1:9">
@@ -28942,7 +28942,7 @@
         <v>500</v>
       </c>
       <c r="I1103" s="6" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1104" spans="1:9">
@@ -29768,17 +29768,17 @@
         <v>111</v>
       </c>
       <c r="B1142" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="F1142" s="14" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1142" s="13">
         <v>0</v>
       </c>
       <c r="H1142" s="15"/>
       <c r="I1142" s="6" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1143" spans="1:9" s="13" customFormat="1">
@@ -29786,10 +29786,10 @@
         <v>111</v>
       </c>
       <c r="B1143" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1143" s="13" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="E1143" s="13" t="s">
         <v>4</v>
@@ -29812,7 +29812,7 @@
         <v>111</v>
       </c>
       <c r="B1144" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1144" s="13" t="s">
         <v>32</v>
@@ -29830,7 +29830,7 @@
         <v>526</v>
       </c>
       <c r="I1144" s="13" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1145" spans="1:9" s="13" customFormat="1">
@@ -29838,7 +29838,7 @@
         <v>111</v>
       </c>
       <c r="B1145" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1145" s="13" t="s">
         <v>160</v>
@@ -29856,7 +29856,7 @@
         <v>526</v>
       </c>
       <c r="I1145" s="13" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1146" spans="1:9" s="13" customFormat="1">
@@ -29864,10 +29864,10 @@
         <v>111</v>
       </c>
       <c r="B1146" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1146" s="13" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E1146" s="13" t="s">
         <v>4</v>
@@ -29882,7 +29882,7 @@
         <v>526</v>
       </c>
       <c r="I1146" s="13" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1147" spans="1:9" s="13" customFormat="1">
@@ -29890,7 +29890,7 @@
         <v>111</v>
       </c>
       <c r="B1147" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1147" s="13" t="s">
         <v>434</v>
@@ -29909,7 +29909,7 @@
       </c>
       <c r="H1147" s="15"/>
       <c r="I1147" s="13" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1148" spans="1:9" s="13" customFormat="1">
@@ -29917,7 +29917,7 @@
         <v>111</v>
       </c>
       <c r="B1148" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1148" s="13" t="s">
         <v>13</v>
@@ -29944,7 +29944,7 @@
         <v>111</v>
       </c>
       <c r="B1149" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1149" s="13" t="s">
         <v>16</v>
@@ -29971,7 +29971,7 @@
         <v>111</v>
       </c>
       <c r="B1150" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1150" s="13" t="s">
         <v>128</v>
@@ -29998,7 +29998,7 @@
         <v>111</v>
       </c>
       <c r="B1151" s="13" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C1151" s="13" t="s">
         <v>129</v>
@@ -30611,7 +30611,7 @@
         <v>111</v>
       </c>
       <c r="B1180" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F1180" s="5"/>
       <c r="G1180" s="4">
@@ -30619,7 +30619,7 @@
       </c>
       <c r="H1180" s="6"/>
       <c r="I1180" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1181" spans="1:9">
@@ -30627,10 +30627,10 @@
         <v>111</v>
       </c>
       <c r="B1181" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1181" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E1181" s="4" t="s">
         <v>4</v>
@@ -30653,7 +30653,7 @@
         <v>111</v>
       </c>
       <c r="B1182" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1182" s="4" t="s">
         <v>32</v>
@@ -30671,7 +30671,7 @@
         <v>526</v>
       </c>
       <c r="I1182" s="4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1183" spans="1:9">
@@ -30679,10 +30679,10 @@
         <v>111</v>
       </c>
       <c r="B1183" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1183" s="4" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E1183" s="4" t="s">
         <v>8</v>
@@ -30697,7 +30697,7 @@
         <v>526</v>
       </c>
       <c r="I1183" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1184" spans="1:9">
@@ -30705,7 +30705,7 @@
         <v>111</v>
       </c>
       <c r="B1184" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1184" s="4" t="s">
         <v>73</v>
@@ -30724,7 +30724,7 @@
       </c>
       <c r="H1184" s="6"/>
       <c r="I1184" s="4" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1185" spans="1:9">
@@ -30732,10 +30732,10 @@
         <v>111</v>
       </c>
       <c r="B1185" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1185" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E1185" s="4" t="s">
         <v>8</v>
@@ -30748,7 +30748,7 @@
       </c>
       <c r="H1185" s="6"/>
       <c r="I1185" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1186" spans="1:9">
@@ -30756,7 +30756,7 @@
         <v>111</v>
       </c>
       <c r="B1186" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1186" s="4" t="s">
         <v>13</v>
@@ -30783,7 +30783,7 @@
         <v>111</v>
       </c>
       <c r="B1187" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C1187" s="4" t="s">
         <v>128</v>
@@ -30817,7 +30817,7 @@
         <v>510</v>
       </c>
       <c r="I1189" s="6" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1190" spans="1:9">
@@ -30895,7 +30895,7 @@
         <v>526</v>
       </c>
       <c r="I1192" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1193" spans="1:9">
@@ -30921,7 +30921,7 @@
         <v>-1</v>
       </c>
       <c r="I1193" s="6" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1194" spans="1:9">
@@ -30947,7 +30947,7 @@
         <v>-1</v>
       </c>
       <c r="I1194" s="6" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1195" spans="1:9" ht="33.75">
@@ -30973,7 +30973,7 @@
         <v>255</v>
       </c>
       <c r="I1195" s="6" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1196" spans="1:9" ht="33.75">
@@ -30999,7 +30999,7 @@
         <v>255</v>
       </c>
       <c r="I1196" s="6" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1197" spans="1:9">
@@ -31384,24 +31384,24 @@
     </row>
     <row r="1216" spans="1:9" ht="22.5">
       <c r="A1216" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1216" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I1216" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1217" spans="1:9">
       <c r="A1217" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1217" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1217" s="4" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E1217" s="4" t="s">
         <v>4</v>
@@ -31421,13 +31421,13 @@
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1218" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1218" s="4" t="s">
         <v>1064</v>
-      </c>
-      <c r="B1218" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C1218" s="4" t="s">
-        <v>1067</v>
       </c>
       <c r="E1218" s="4" t="s">
         <v>4</v>
@@ -31447,13 +31447,13 @@
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1219" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1219" s="4" t="s">
         <v>1065</v>
-      </c>
-      <c r="C1219" s="4" t="s">
-        <v>1068</v>
       </c>
       <c r="E1219" s="4" t="s">
         <v>4</v>
@@ -31465,15 +31465,15 @@
         <v>200</v>
       </c>
       <c r="I1219" s="6" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1220" spans="1:9">
       <c r="A1220" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1220" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1220" s="4" t="s">
         <v>427</v>
@@ -31493,10 +31493,10 @@
     </row>
     <row r="1221" spans="1:9">
       <c r="A1221" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1221" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1221" s="4" t="s">
         <v>13</v>
@@ -31519,10 +31519,10 @@
     </row>
     <row r="1222" spans="1:9">
       <c r="A1222" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1222" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1222" s="4" t="s">
         <v>16</v>
@@ -31545,10 +31545,10 @@
     </row>
     <row r="1223" spans="1:9">
       <c r="A1223" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1223" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1223" s="4" t="s">
         <v>128</v>
@@ -31571,10 +31571,10 @@
     </row>
     <row r="1224" spans="1:9" ht="22.5">
       <c r="A1224" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1224" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1224" s="4" t="s">
         <v>129</v>
@@ -31597,10 +31597,10 @@
     </row>
     <row r="1225" spans="1:9">
       <c r="A1225" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1225" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C1225" s="4" t="s">
         <v>428</v>
@@ -31615,7 +31615,7 @@
         <v>0</v>
       </c>
       <c r="I1225" s="6" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1226" spans="1:9" s="9" customFormat="1">
@@ -31624,24 +31624,24 @@
     </row>
     <row r="1227" spans="1:9" ht="22.5">
       <c r="A1227" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1227" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I1227" s="6" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1228" spans="1:9">
       <c r="A1228" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1228" s="4" t="s">
         <v>1064</v>
-      </c>
-      <c r="B1228" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C1228" s="4" t="s">
-        <v>1067</v>
       </c>
       <c r="E1228" s="4" t="s">
         <v>4</v>
@@ -31661,10 +31661,10 @@
     </row>
     <row r="1229" spans="1:9">
       <c r="A1229" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1229" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C1229" s="4" t="s">
         <v>467</v>
@@ -31687,10 +31687,10 @@
     </row>
     <row r="1230" spans="1:9">
       <c r="A1230" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1230" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C1230" s="4" t="s">
         <v>286</v>
@@ -31713,10 +31713,10 @@
     </row>
     <row r="1231" spans="1:9">
       <c r="A1231" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1231" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C1231" s="4" t="s">
         <v>13</v>
@@ -31739,10 +31739,10 @@
     </row>
     <row r="1232" spans="1:9">
       <c r="A1232" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1232" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C1232" s="4" t="s">
         <v>16</v>
@@ -31765,10 +31765,10 @@
     </row>
     <row r="1233" spans="1:9">
       <c r="A1233" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1233" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C1233" s="4" t="s">
         <v>128</v>
@@ -31791,10 +31791,10 @@
     </row>
     <row r="1234" spans="1:9" ht="22.5">
       <c r="A1234" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1234" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C1234" s="4" t="s">
         <v>129</v>
@@ -31821,24 +31821,24 @@
     </row>
     <row r="1236" spans="1:9">
       <c r="A1236" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1236" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="I1236" s="6" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1237" spans="1:9">
       <c r="A1237" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1237" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1237" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E1237" s="4" t="s">
         <v>4</v>
@@ -31858,13 +31858,13 @@
     </row>
     <row r="1238" spans="1:9" ht="22.5">
       <c r="A1238" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1238" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1238" s="4" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E1238" s="4" t="s">
         <v>4</v>
@@ -31876,18 +31876,18 @@
         <v>0</v>
       </c>
       <c r="I1238" s="6" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1239" spans="1:9">
       <c r="A1239" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1239" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1239" s="4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E1239" s="4" t="s">
         <v>4</v>
@@ -31899,18 +31899,18 @@
         <v>0</v>
       </c>
       <c r="I1239" s="6" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1240" spans="1:9">
       <c r="A1240" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1240" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1240" s="4" t="s">
         <v>1070</v>
-      </c>
-      <c r="C1240" s="4" t="s">
-        <v>1073</v>
       </c>
       <c r="D1240" s="4" t="s">
         <v>10</v>
@@ -31925,15 +31925,15 @@
         <v>50</v>
       </c>
       <c r="I1240" s="6" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1241" spans="1:9">
       <c r="A1241" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1241" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1241" s="4" t="s">
         <v>34</v>
@@ -31951,15 +31951,15 @@
         <v>2000</v>
       </c>
       <c r="I1241" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1242" spans="1:9">
       <c r="A1242" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1242" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1242" s="4" t="s">
         <v>423</v>
@@ -31977,18 +31977,18 @@
         <v>2000</v>
       </c>
       <c r="I1242" s="6" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1243" spans="1:9" ht="33.75">
       <c r="A1243" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1243" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1243" s="4" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D1243" s="4" t="s">
         <v>10</v>
@@ -32003,15 +32003,15 @@
         <v>2000</v>
       </c>
       <c r="I1243" s="6" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1244" spans="1:9">
       <c r="A1244" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1244" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1244" s="4" t="s">
         <v>12</v>
@@ -32034,10 +32034,10 @@
     </row>
     <row r="1245" spans="1:9">
       <c r="A1245" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1245" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1245" s="4" t="s">
         <v>322</v>
@@ -32060,10 +32060,10 @@
     </row>
     <row r="1246" spans="1:9">
       <c r="A1246" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1246" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1246" s="4" t="s">
         <v>323</v>
@@ -32086,10 +32086,10 @@
     </row>
     <row r="1247" spans="1:9">
       <c r="A1247" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1247" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1247" s="4" t="s">
         <v>35</v>
@@ -32112,10 +32112,10 @@
     </row>
     <row r="1248" spans="1:9" ht="22.5">
       <c r="A1248" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1248" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1248" s="4" t="s">
         <v>36</v>
@@ -32133,15 +32133,15 @@
         <v>400</v>
       </c>
       <c r="I1248" s="6" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1249" spans="1:9">
       <c r="A1249" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1249" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1249" s="4" t="s">
         <v>406</v>
@@ -32159,15 +32159,15 @@
         <v>250</v>
       </c>
       <c r="I1249" s="6" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1250" spans="1:9">
       <c r="A1250" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1250" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1250" s="4" t="s">
         <v>405</v>
@@ -32185,15 +32185,15 @@
         <v>150</v>
       </c>
       <c r="I1250" s="6" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1251" spans="1:9">
       <c r="A1251" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1251" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1251" s="4" t="s">
         <v>222</v>
@@ -32211,15 +32211,15 @@
         <v>20</v>
       </c>
       <c r="I1251" s="6" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1252" spans="1:9" ht="22.5">
       <c r="A1252" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1252" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1252" s="4" t="s">
         <v>470</v>
@@ -32234,15 +32234,15 @@
         <v>0</v>
       </c>
       <c r="I1252" s="6" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1253" spans="1:9" ht="22.5">
       <c r="A1253" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1253" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1253" s="4" t="s">
         <v>471</v>
@@ -32257,15 +32257,15 @@
         <v>0</v>
       </c>
       <c r="I1253" s="6" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1254" spans="1:9">
       <c r="A1254" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1254" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1254" s="4" t="s">
         <v>258</v>
@@ -32280,15 +32280,15 @@
         <v>30</v>
       </c>
       <c r="I1254" s="6" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1255" spans="1:9">
       <c r="A1255" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1255" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1255" s="4" t="s">
         <v>549</v>
@@ -32306,15 +32306,15 @@
         <v>-1</v>
       </c>
       <c r="I1255" s="6" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1256" spans="1:9">
       <c r="A1256" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1256" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1256" s="4" t="s">
         <v>429</v>
@@ -32332,15 +32332,15 @@
         <v>-1</v>
       </c>
       <c r="I1256" s="6" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1257" spans="1:9">
       <c r="A1257" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1257" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1257" s="4" t="s">
         <v>228</v>
@@ -32358,15 +32358,15 @@
         <v>-1</v>
       </c>
       <c r="I1257" s="6" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
       <c r="A1258" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1258" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1258" s="4" t="s">
         <v>229</v>
@@ -32384,15 +32384,15 @@
         <v>-1</v>
       </c>
       <c r="I1258" s="6" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1259" spans="1:9">
       <c r="A1259" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1259" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1259" s="4" t="s">
         <v>230</v>
@@ -32410,18 +32410,18 @@
         <v>-1</v>
       </c>
       <c r="I1259" s="6" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1260" spans="1:9" ht="22.5">
       <c r="A1260" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1260" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1260" s="4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D1260" s="4" t="s">
         <v>10</v>
@@ -32436,15 +32436,15 @@
         <v>-1</v>
       </c>
       <c r="I1260" s="6" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1261" spans="1:9" ht="22.5">
       <c r="A1261" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1261" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1261" s="4" t="s">
         <v>227</v>
@@ -32462,15 +32462,15 @@
         <v>200</v>
       </c>
       <c r="I1261" s="6" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1262" spans="1:9" ht="22.5">
       <c r="A1262" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1262" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1262" s="4" t="s">
         <v>430</v>
@@ -32488,18 +32488,18 @@
         <v>50</v>
       </c>
       <c r="I1262" s="6" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1263" spans="1:9" ht="22.5">
       <c r="A1263" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1263" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1263" s="4" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D1263" s="4" t="s">
         <v>10</v>
@@ -32514,18 +32514,18 @@
         <v>20</v>
       </c>
       <c r="I1263" s="6" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1264" spans="1:9" ht="22.5">
       <c r="A1264" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1264" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1264" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D1264" s="4" t="s">
         <v>10</v>
@@ -32540,15 +32540,15 @@
         <v>20</v>
       </c>
       <c r="I1264" s="6" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1265" spans="1:9" ht="22.5">
       <c r="A1265" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1265" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1265" s="4" t="s">
         <v>434</v>
@@ -32566,15 +32566,15 @@
         <v>200</v>
       </c>
       <c r="I1265" s="6" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1266" spans="1:9">
       <c r="A1266" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1266" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1266" s="4" t="s">
         <v>252</v>
@@ -32592,15 +32592,15 @@
         <v>200</v>
       </c>
       <c r="I1266" s="6" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1267" spans="1:9">
       <c r="A1267" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1267" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1267" s="4" t="s">
         <v>173</v>
@@ -32618,15 +32618,15 @@
         <v>125</v>
       </c>
       <c r="I1267" s="6" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1268" spans="1:9">
       <c r="A1268" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1268" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1268" s="4" t="s">
         <v>399</v>
@@ -32644,15 +32644,15 @@
         <v>125</v>
       </c>
       <c r="I1268" s="6" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1269" spans="1:9">
       <c r="A1269" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1269" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1269" s="4" t="s">
         <v>398</v>
@@ -32670,15 +32670,15 @@
         <v>125</v>
       </c>
       <c r="I1269" s="6" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1270" spans="1:9" ht="22.5">
       <c r="A1270" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1270" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1270" s="4" t="s">
         <v>397</v>
@@ -32696,18 +32696,18 @@
         <v>125</v>
       </c>
       <c r="I1270" s="6" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1271" spans="1:9">
       <c r="A1271" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1271" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1271" s="4" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D1271" s="4" t="s">
         <v>10</v>
@@ -32722,15 +32722,15 @@
         <v>125</v>
       </c>
       <c r="I1271" s="6" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
       <c r="A1272" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1272" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1272" s="4" t="s">
         <v>13</v>
@@ -32753,10 +32753,10 @@
     </row>
     <row r="1273" spans="1:9">
       <c r="A1273" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1273" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1273" s="4" t="s">
         <v>16</v>
@@ -32779,10 +32779,10 @@
     </row>
     <row r="1274" spans="1:9">
       <c r="A1274" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1274" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1274" s="4" t="s">
         <v>128</v>
@@ -32805,10 +32805,10 @@
     </row>
     <row r="1275" spans="1:9" ht="22.5">
       <c r="A1275" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1275" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1275" s="4" t="s">
         <v>129</v>
@@ -32831,10 +32831,10 @@
     </row>
     <row r="1276" spans="1:9" ht="22.5">
       <c r="A1276" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1276" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1276" s="4" t="s">
         <v>32</v>
@@ -32849,15 +32849,15 @@
         <v>0</v>
       </c>
       <c r="I1276" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1277" spans="1:9" ht="22.5">
       <c r="A1277" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1277" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1277" s="4" t="s">
         <v>7</v>
@@ -32872,15 +32872,15 @@
         <v>0</v>
       </c>
       <c r="I1277" s="6" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1278" spans="1:9">
       <c r="A1278" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1278" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1278" s="4" t="s">
         <v>313</v>
@@ -32895,15 +32895,15 @@
         <v>0</v>
       </c>
       <c r="I1278" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1279" spans="1:9">
       <c r="A1279" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1279" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1279" s="4" t="s">
         <v>433</v>
@@ -32918,18 +32918,18 @@
         <v>0</v>
       </c>
       <c r="I1279" s="6" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1280" spans="1:9">
       <c r="A1280" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C1280" s="4" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E1280" s="4" t="s">
         <v>8</v>
@@ -32941,7 +32941,7 @@
         <v>0</v>
       </c>
       <c r="I1280" s="6" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1281" spans="1:9" s="9" customFormat="1">
@@ -32950,24 +32950,24 @@
     </row>
     <row r="1282" spans="1:9">
       <c r="A1282" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1282" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I1282" s="6" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1283" spans="1:9">
       <c r="A1283" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1283" s="4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E1283" s="4" t="s">
         <v>4</v>
@@ -32987,13 +32987,13 @@
     </row>
     <row r="1284" spans="1:9">
       <c r="A1284" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1284" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1284" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E1284" s="4" t="s">
         <v>4</v>
@@ -33005,15 +33005,15 @@
         <v>0</v>
       </c>
       <c r="I1284" s="6" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1285" spans="1:9" ht="45">
       <c r="A1285" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1285" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1285" s="4" t="s">
         <v>136</v>
@@ -33031,15 +33031,15 @@
         <v>300</v>
       </c>
       <c r="I1285" s="6" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1286" spans="1:9">
       <c r="A1286" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1286" s="4" t="s">
         <v>138</v>
@@ -33057,15 +33057,15 @@
         <v>150</v>
       </c>
       <c r="I1286" s="6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1287" spans="1:9">
       <c r="A1287" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1287" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1287" s="4" t="s">
         <v>137</v>
@@ -33083,15 +33083,15 @@
         <v>150</v>
       </c>
       <c r="I1287" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1288" spans="1:9" ht="33.75">
       <c r="A1288" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1288" s="4" t="s">
         <v>470</v>
@@ -33109,15 +33109,15 @@
         <v>25</v>
       </c>
       <c r="I1288" s="6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1289" spans="1:9" ht="33.75">
       <c r="A1289" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1289" s="4" t="s">
         <v>471</v>
@@ -33135,15 +33135,15 @@
         <v>25</v>
       </c>
       <c r="I1289" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1290" spans="1:9" ht="22.5">
       <c r="A1290" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1290" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1290" s="4" t="s">
         <v>146</v>
@@ -33161,15 +33161,15 @@
         <v>50</v>
       </c>
       <c r="I1290" s="6" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1291" spans="1:9">
       <c r="A1291" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1291" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1291" s="4" t="s">
         <v>13</v>
@@ -33192,10 +33192,10 @@
     </row>
     <row r="1292" spans="1:9">
       <c r="A1292" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1292" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1292" s="4" t="s">
         <v>16</v>
@@ -33218,10 +33218,10 @@
     </row>
     <row r="1293" spans="1:9">
       <c r="A1293" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1293" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1293" s="4" t="s">
         <v>128</v>
@@ -33244,10 +33244,10 @@
     </row>
     <row r="1294" spans="1:9" ht="22.5">
       <c r="A1294" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1294" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1294" s="4" t="s">
         <v>129</v>
@@ -33270,10 +33270,10 @@
     </row>
     <row r="1295" spans="1:9">
       <c r="A1295" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C1295" s="4" t="s">
         <v>120</v>
@@ -33288,7 +33288,7 @@
         <v>0</v>
       </c>
       <c r="I1295" s="6" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1296" spans="1:9" s="9" customFormat="1">
@@ -33297,24 +33297,24 @@
     </row>
     <row r="1297" spans="1:9" ht="22.5">
       <c r="A1297" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1297" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="I1297" s="6" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1298" spans="1:9">
       <c r="A1298" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1298" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1298" s="4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E1298" s="4" t="s">
         <v>4</v>
@@ -33334,13 +33334,13 @@
     </row>
     <row r="1299" spans="1:9">
       <c r="A1299" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1299" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1299" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E1299" s="4" t="s">
         <v>4</v>
@@ -33352,15 +33352,15 @@
         <v>0</v>
       </c>
       <c r="I1299" s="6" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1300" spans="1:9">
       <c r="A1300" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1300" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1300" s="4" t="s">
         <v>278</v>
@@ -33378,18 +33378,18 @@
         <v>0</v>
       </c>
       <c r="I1300" s="6" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1301" spans="1:9">
       <c r="A1301" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1301" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1301" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D1301" s="4" t="s">
         <v>10</v>
@@ -33404,15 +33404,15 @@
         <v>-1</v>
       </c>
       <c r="I1301" s="6" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1302" spans="1:9">
       <c r="A1302" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1302" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1302" s="4" t="s">
         <v>13</v>
@@ -33435,10 +33435,10 @@
     </row>
     <row r="1303" spans="1:9">
       <c r="A1303" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1303" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1303" s="4" t="s">
         <v>16</v>
@@ -33461,10 +33461,10 @@
     </row>
     <row r="1304" spans="1:9">
       <c r="A1304" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1304" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1304" s="4" t="s">
         <v>128</v>
@@ -33487,10 +33487,10 @@
     </row>
     <row r="1305" spans="1:9" ht="22.5">
       <c r="A1305" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1305" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C1305" s="4" t="s">
         <v>129</v>
@@ -33517,24 +33517,24 @@
     </row>
     <row r="1307" spans="1:9" ht="22.5">
       <c r="A1307" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1307" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I1307" s="6" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1308" spans="1:9">
       <c r="A1308" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1308" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1308" s="4" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E1308" s="4" t="s">
         <v>4</v>
@@ -33554,13 +33554,13 @@
     </row>
     <row r="1309" spans="1:9">
       <c r="A1309" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1309" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1309" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E1309" s="4" t="s">
         <v>4</v>
@@ -33572,15 +33572,15 @@
         <v>0</v>
       </c>
       <c r="I1309" s="6" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1310" spans="1:9">
       <c r="A1310" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1310" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1310" s="4" t="s">
         <v>256</v>
@@ -33598,15 +33598,15 @@
         <v>50</v>
       </c>
       <c r="I1310" s="6" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1311" spans="1:9">
       <c r="A1311" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1311" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1311" s="4" t="s">
         <v>13</v>
@@ -33629,10 +33629,10 @@
     </row>
     <row r="1312" spans="1:9">
       <c r="A1312" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1312" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1312" s="4" t="s">
         <v>16</v>
@@ -33655,10 +33655,10 @@
     </row>
     <row r="1313" spans="1:9">
       <c r="A1313" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1313" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1313" s="4" t="s">
         <v>128</v>
@@ -33681,10 +33681,10 @@
     </row>
     <row r="1314" spans="1:9" ht="22.5">
       <c r="A1314" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1314" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C1314" s="4" t="s">
         <v>129</v>
@@ -33711,30 +33711,30 @@
     </row>
     <row r="1316" spans="1:9">
       <c r="A1316" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1316" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="F1316" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1316" s="4">
         <v>0</v>
       </c>
       <c r="I1316" s="6" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1317" spans="1:9">
       <c r="A1317" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1317" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1317" s="4" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E1317" s="4" t="s">
         <v>4</v>
@@ -33754,13 +33754,13 @@
     </row>
     <row r="1318" spans="1:9">
       <c r="A1318" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1318" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1318" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E1318" s="4" t="s">
         <v>4</v>
@@ -33772,15 +33772,15 @@
         <v>0</v>
       </c>
       <c r="I1318" s="6" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1319" spans="1:9">
       <c r="A1319" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1319" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1319" s="4" t="s">
         <v>19</v>
@@ -33795,15 +33795,15 @@
         <v>0</v>
       </c>
       <c r="I1319" s="6" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1320" spans="1:9">
       <c r="A1320" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1320" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1320" s="4" t="s">
         <v>317</v>
@@ -33821,15 +33821,15 @@
         <v>0</v>
       </c>
       <c r="I1320" s="6" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1321" spans="1:9">
       <c r="A1321" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1321" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1321" s="4" t="s">
         <v>13</v>
@@ -33852,10 +33852,10 @@
     </row>
     <row r="1322" spans="1:9">
       <c r="A1322" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1322" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1322" s="4" t="s">
         <v>16</v>
@@ -33878,10 +33878,10 @@
     </row>
     <row r="1323" spans="1:9">
       <c r="A1323" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1323" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1323" s="4" t="s">
         <v>128</v>
@@ -33904,10 +33904,10 @@
     </row>
     <row r="1324" spans="1:9" ht="22.5">
       <c r="A1324" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1324" s="4" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1324" s="4" t="s">
         <v>129</v>
@@ -33934,24 +33934,24 @@
     </row>
     <row r="1326" spans="1:9" ht="22.5">
       <c r="A1326" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1326" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="I1326" s="6" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1327" spans="1:9">
       <c r="A1327" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1327" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1327" s="4" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E1327" s="4" t="s">
         <v>4</v>
@@ -33971,10 +33971,10 @@
     </row>
     <row r="1328" spans="1:9">
       <c r="A1328" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1328" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1328" s="4" t="s">
         <v>467</v>
@@ -33997,10 +33997,10 @@
     </row>
     <row r="1329" spans="1:9">
       <c r="A1329" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1329" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1329" s="4" t="s">
         <v>286</v>
@@ -34023,10 +34023,10 @@
     </row>
     <row r="1330" spans="1:9">
       <c r="A1330" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1330" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1330" s="4" t="s">
         <v>13</v>
@@ -34049,10 +34049,10 @@
     </row>
     <row r="1331" spans="1:9">
       <c r="A1331" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1331" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1331" s="4" t="s">
         <v>16</v>
@@ -34075,10 +34075,10 @@
     </row>
     <row r="1332" spans="1:9">
       <c r="A1332" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1332" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1332" s="4" t="s">
         <v>128</v>
@@ -34101,10 +34101,10 @@
     </row>
     <row r="1333" spans="1:9" ht="22.5">
       <c r="A1333" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B1333" s="4" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C1333" s="4" t="s">
         <v>129</v>
@@ -34131,27 +34131,27 @@
     </row>
     <row r="1335" spans="1:9" ht="37.5" customHeight="1">
       <c r="A1335" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1335" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F1335" s="5"/>
       <c r="G1335" s="4"/>
       <c r="H1335" s="6"/>
       <c r="I1335" s="6" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1336" spans="1:9">
       <c r="A1336" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1336" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1336" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1336" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C1336" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1336" s="4" t="s">
         <v>4</v>
@@ -34171,13 +34171,13 @@
     </row>
     <row r="1337" spans="1:9" ht="22.5">
       <c r="A1337" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1337" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1337" s="4" t="s">
         <v>1146</v>
-      </c>
-      <c r="C1337" s="4" t="s">
-        <v>1149</v>
       </c>
       <c r="E1337" s="4" t="s">
         <v>4</v>
@@ -34190,7 +34190,7 @@
       </c>
       <c r="H1337" s="6"/>
       <c r="I1337" s="6" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1338" spans="1:9" s="9" customFormat="1">
@@ -34199,31 +34199,31 @@
     </row>
     <row r="1339" spans="1:9" ht="22.5">
       <c r="A1339" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1339" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F1339" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1339" s="4">
         <v>0</v>
       </c>
       <c r="H1339" s="6"/>
       <c r="I1339" s="6" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1340" spans="1:9">
       <c r="A1340" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1340" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C1340" s="4" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E1340" s="4" t="s">
         <v>4</v>
@@ -34243,13 +34243,13 @@
     </row>
     <row r="1341" spans="1:9">
       <c r="A1341" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1341" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1341" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1341" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C1341" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1341" s="4" t="s">
         <v>4</v>
@@ -34264,18 +34264,18 @@
         <v>526</v>
       </c>
       <c r="I1341" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1342" spans="1:9">
       <c r="A1342" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1342" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C1342" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E1342" s="4" t="s">
         <v>4</v>
@@ -34288,18 +34288,18 @@
       </c>
       <c r="H1342" s="6"/>
       <c r="I1342" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1343" spans="1:9">
       <c r="A1343" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1343" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1343" s="4" t="s">
         <v>1150</v>
-      </c>
-      <c r="C1343" s="4" t="s">
-        <v>1153</v>
       </c>
       <c r="E1343" s="4" t="s">
         <v>4</v>
@@ -34312,7 +34312,7 @@
       </c>
       <c r="H1343" s="6"/>
       <c r="I1343" s="6" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1344" spans="1:9" s="9" customFormat="1">
@@ -34321,27 +34321,27 @@
     </row>
     <row r="1345" spans="1:9" ht="33.75">
       <c r="A1345" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1345" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F1345" s="5"/>
       <c r="G1345" s="4"/>
       <c r="H1345" s="6"/>
       <c r="I1345" s="6" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1346" spans="1:9">
       <c r="A1346" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1346" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C1346" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E1346" s="4" t="s">
         <v>4</v>
@@ -34361,13 +34361,13 @@
     </row>
     <row r="1347" spans="1:9">
       <c r="A1347" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1347" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1347" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1347" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C1347" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1347" s="4" t="s">
         <v>4</v>
@@ -34382,18 +34382,18 @@
         <v>526</v>
       </c>
       <c r="I1347" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1348" spans="1:9">
       <c r="A1348" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1348" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C1348" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E1348" s="4" t="s">
         <v>4</v>
@@ -34406,18 +34406,18 @@
       </c>
       <c r="H1348" s="6"/>
       <c r="I1348" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1349" spans="1:9" ht="22.5">
       <c r="A1349" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1349" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C1349" s="4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E1349" s="4" t="s">
         <v>4</v>
@@ -34430,18 +34430,18 @@
       </c>
       <c r="H1349" s="6"/>
       <c r="I1349" s="6" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1350" spans="1:9">
       <c r="A1350" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1350" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C1350" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E1350" s="4" t="s">
         <v>8</v>
@@ -34454,18 +34454,18 @@
       </c>
       <c r="H1350" s="6"/>
       <c r="I1350" s="6" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1351" spans="1:9">
       <c r="A1351" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1351" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1351" s="4" t="s">
         <v>1154</v>
-      </c>
-      <c r="C1351" s="4" t="s">
-        <v>1157</v>
       </c>
       <c r="E1351" s="4" t="s">
         <v>8</v>
@@ -34478,18 +34478,18 @@
       </c>
       <c r="H1351" s="6"/>
       <c r="I1351" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1352" spans="1:9" ht="22.5">
       <c r="A1352" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1352" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C1352" s="4" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E1352" s="4" t="s">
         <v>4</v>
@@ -34502,7 +34502,7 @@
       </c>
       <c r="H1352" s="6"/>
       <c r="I1352" s="6" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1353" spans="1:9" s="9" customFormat="1">
@@ -34511,27 +34511,27 @@
     </row>
     <row r="1354" spans="1:9" ht="22.5">
       <c r="A1354" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1354" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F1354" s="5"/>
       <c r="G1354" s="4"/>
       <c r="H1354" s="6"/>
       <c r="I1354" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1355" spans="1:9">
       <c r="A1355" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1355" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C1355" s="4" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E1355" s="4" t="s">
         <v>4</v>
@@ -34551,13 +34551,13 @@
     </row>
     <row r="1356" spans="1:9">
       <c r="A1356" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1356" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1356" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1356" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C1356" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1356" s="4" t="s">
         <v>4</v>
@@ -34572,18 +34572,18 @@
         <v>526</v>
       </c>
       <c r="I1356" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1357" spans="1:9">
       <c r="A1357" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1357" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C1357" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E1357" s="4" t="s">
         <v>4</v>
@@ -34596,18 +34596,18 @@
       </c>
       <c r="H1357" s="6"/>
       <c r="I1357" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1358" spans="1:9">
       <c r="A1358" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1358" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C1358" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E1358" s="4" t="s">
         <v>4</v>
@@ -34622,18 +34622,18 @@
         <v>526</v>
       </c>
       <c r="I1358" s="6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1359" spans="1:9" ht="22.5">
       <c r="A1359" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1359" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C1359" s="4" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E1359" s="4" t="s">
         <v>4</v>
@@ -34646,7 +34646,7 @@
       </c>
       <c r="H1359" s="6"/>
       <c r="I1359" s="6" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1360" spans="1:9" s="9" customFormat="1">
@@ -34655,27 +34655,27 @@
     </row>
     <row r="1361" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1361" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1361" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F1361" s="5"/>
       <c r="G1361" s="4"/>
       <c r="H1361" s="6"/>
       <c r="I1361" s="6" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1362" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1362" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1362" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C1362" s="4" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E1362" s="4" t="s">
         <v>4</v>
@@ -34695,13 +34695,13 @@
     </row>
     <row r="1363" spans="1:9" ht="11.25" customHeight="1">
       <c r="A1363" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1363" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1363" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1363" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C1363" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1363" s="4" t="s">
         <v>4</v>
@@ -34716,18 +34716,18 @@
         <v>526</v>
       </c>
       <c r="I1363" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1364" spans="1:9">
       <c r="A1364" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1364" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C1364" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E1364" s="4" t="s">
         <v>8</v>
@@ -34740,18 +34740,18 @@
       </c>
       <c r="H1364" s="6"/>
       <c r="I1364" s="6" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1365" spans="1:9">
       <c r="A1365" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1365" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C1365" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E1365" s="4" t="s">
         <v>8</v>
@@ -34764,15 +34764,15 @@
       </c>
       <c r="H1365" s="6"/>
       <c r="I1365" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1366" spans="1:9">
       <c r="A1366" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1366" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C1366" s="4" t="s">
         <v>13</v>
@@ -34791,18 +34791,18 @@
       </c>
       <c r="H1366" s="6"/>
       <c r="I1366" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1367" spans="1:9">
       <c r="A1367" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1367" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C1367" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E1367" s="4" t="s">
         <v>4</v>
@@ -34817,18 +34817,18 @@
         <v>526</v>
       </c>
       <c r="I1367" s="6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1368" spans="1:9" ht="22.5">
       <c r="A1368" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1368" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C1368" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E1368" s="4" t="s">
         <v>8</v>
@@ -34841,7 +34841,7 @@
       </c>
       <c r="H1368" s="6"/>
       <c r="I1368" s="6" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1369" spans="1:9" s="9" customFormat="1">
@@ -34850,27 +34850,27 @@
     </row>
     <row r="1370" spans="1:9" ht="22.5">
       <c r="A1370" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1370" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F1370" s="5"/>
       <c r="G1370" s="4"/>
       <c r="H1370" s="6"/>
       <c r="I1370" s="6" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1371" spans="1:9">
       <c r="A1371" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1371" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C1371" s="4" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E1371" s="4" t="s">
         <v>4</v>
@@ -34890,13 +34890,13 @@
     </row>
     <row r="1372" spans="1:9">
       <c r="A1372" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1372" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1372" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1372" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C1372" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="E1372" s="4" t="s">
         <v>4</v>
@@ -34909,18 +34909,18 @@
       </c>
       <c r="H1372" s="6"/>
       <c r="I1372" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1373" spans="1:9">
       <c r="A1373" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1373" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C1373" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E1373" s="4" t="s">
         <v>8</v>
@@ -34933,18 +34933,18 @@
       </c>
       <c r="H1373" s="6"/>
       <c r="I1373" s="6" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1374" spans="1:9">
       <c r="A1374" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1374" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C1374" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E1374" s="4" t="s">
         <v>8</v>
@@ -34957,15 +34957,15 @@
       </c>
       <c r="H1374" s="6"/>
       <c r="I1374" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1375" spans="1:9">
       <c r="A1375" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1375" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C1375" s="4" t="s">
         <v>13</v>
@@ -34981,18 +34981,18 @@
       </c>
       <c r="H1375" s="6"/>
       <c r="I1375" s="6" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1376" spans="1:9">
       <c r="A1376" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1376" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C1376" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E1376" s="4" t="s">
         <v>4</v>
@@ -35005,18 +35005,18 @@
       </c>
       <c r="H1376" s="6"/>
       <c r="I1376" s="6" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1377" spans="1:9" ht="22.5">
       <c r="A1377" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1377" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C1377" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E1377" s="4" t="s">
         <v>8</v>
@@ -35029,7 +35029,7 @@
       </c>
       <c r="H1377" s="6"/>
       <c r="I1377" s="6" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1378" spans="1:9" s="9" customFormat="1">
@@ -35038,27 +35038,27 @@
     </row>
     <row r="1379" spans="1:9" ht="22.5">
       <c r="A1379" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1379" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F1379" s="5"/>
       <c r="G1379" s="4"/>
       <c r="H1379" s="6"/>
       <c r="I1379" s="6" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1380" spans="1:9">
       <c r="A1380" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1380" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C1380" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E1380" s="4" t="s">
         <v>4</v>
@@ -35078,13 +35078,13 @@
     </row>
     <row r="1381" spans="1:9">
       <c r="A1381" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B1381" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C1381" s="4" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E1381" s="4" t="s">
         <v>4</v>
@@ -35097,18 +35097,18 @@
       </c>
       <c r="H1381" s="6"/>
       <c r="I1381" s="6" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1382" spans="1:9">
       <c r="A1382" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1382" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1382" s="4" t="s">
         <v>1145</v>
-      </c>
-      <c r="B1382" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C1382" s="4" t="s">
-        <v>1148</v>
       </c>
       <c r="D1382" s="4" t="s">
         <v>44</v>
@@ -35126,7 +35126,7 @@
         <v>526</v>
       </c>
       <c r="I1382" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1383" spans="1:9" s="9" customFormat="1">
@@ -35135,31 +35135,31 @@
     </row>
     <row r="1384" spans="1:9" ht="22.5">
       <c r="A1384" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1384" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="F1384" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1384" s="4">
         <v>0</v>
       </c>
       <c r="H1384" s="6"/>
       <c r="I1384" s="6" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1385" spans="1:9">
       <c r="A1385" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1385" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C1385" s="4" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E1385" s="4" t="s">
         <v>4</v>
@@ -35179,13 +35179,13 @@
     </row>
     <row r="1386" spans="1:9">
       <c r="A1386" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1386" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1386" s="4" t="s">
         <v>1318</v>
-      </c>
-      <c r="B1386" s="4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C1386" s="4" t="s">
-        <v>1321</v>
       </c>
       <c r="E1386" s="4" t="s">
         <v>4</v>
@@ -35200,15 +35200,15 @@
         <v>526</v>
       </c>
       <c r="I1386" s="4" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1387" spans="1:9">
       <c r="A1387" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1387" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C1387" s="4" t="s">
         <v>13</v>
@@ -35232,10 +35232,10 @@
     </row>
     <row r="1388" spans="1:9">
       <c r="A1388" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1388" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C1388" s="4" t="s">
         <v>16</v>
@@ -35259,10 +35259,10 @@
     </row>
     <row r="1389" spans="1:9">
       <c r="A1389" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1389" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C1389" s="4" t="s">
         <v>128</v>
@@ -35286,10 +35286,10 @@
     </row>
     <row r="1390" spans="1:9" ht="22.5">
       <c r="A1390" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1390" s="4" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C1390" s="4" t="s">
         <v>129</v>
@@ -35317,31 +35317,31 @@
     </row>
     <row r="1392" spans="1:9">
       <c r="A1392" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1392" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="F1392" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1392" s="4">
         <v>0</v>
       </c>
       <c r="H1392" s="6"/>
       <c r="I1392" s="4" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1393" spans="1:9">
       <c r="A1393" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1393" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1393" s="4" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E1393" s="4" t="s">
         <v>4</v>
@@ -35361,13 +35361,13 @@
     </row>
     <row r="1394" spans="1:9">
       <c r="A1394" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1394" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1394" s="4" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="E1394" s="4" t="s">
         <v>4</v>
@@ -35382,18 +35382,18 @@
         <v>526</v>
       </c>
       <c r="I1394" s="4" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1395" spans="1:9">
       <c r="A1395" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1395" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1395" s="4" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="E1395" s="4" t="s">
         <v>4</v>
@@ -35408,15 +35408,15 @@
         <v>526</v>
       </c>
       <c r="I1395" s="4" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1396" spans="1:9">
       <c r="A1396" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1396" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1396" s="4" t="s">
         <v>7</v>
@@ -35434,18 +35434,18 @@
         <v>526</v>
       </c>
       <c r="I1396" s="4" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1397" spans="1:9">
       <c r="A1397" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1397" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1397" s="4" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D1397" s="4" t="s">
         <v>10</v>
@@ -35461,18 +35461,18 @@
       </c>
       <c r="H1397" s="6"/>
       <c r="I1397" s="4" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1398" spans="1:9">
       <c r="A1398" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1398" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1398" s="4" t="s">
         <v>1322</v>
-      </c>
-      <c r="C1398" s="4" t="s">
-        <v>1325</v>
       </c>
       <c r="D1398" s="4" t="s">
         <v>10</v>
@@ -35488,18 +35488,18 @@
       </c>
       <c r="H1398" s="6"/>
       <c r="I1398" s="4" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1399" spans="1:9">
       <c r="A1399" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1399" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1399" s="4" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D1399" s="4" t="s">
         <v>10</v>
@@ -35515,15 +35515,15 @@
       </c>
       <c r="H1399" s="6"/>
       <c r="I1399" s="4" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1400" spans="1:9">
       <c r="A1400" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1400" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1400" s="4" t="s">
         <v>13</v>
@@ -35547,10 +35547,10 @@
     </row>
     <row r="1401" spans="1:9">
       <c r="A1401" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1401" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1401" s="4" t="s">
         <v>16</v>
@@ -35574,10 +35574,10 @@
     </row>
     <row r="1402" spans="1:9">
       <c r="A1402" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1402" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1402" s="4" t="s">
         <v>128</v>
@@ -35601,10 +35601,10 @@
     </row>
     <row r="1403" spans="1:9" ht="22.5">
       <c r="A1403" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1403" s="4" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C1403" s="4" t="s">
         <v>129</v>
@@ -35632,31 +35632,31 @@
     </row>
     <row r="1405" spans="1:9">
       <c r="A1405" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1405" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="F1405" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1405" s="4">
         <v>0</v>
       </c>
       <c r="H1405" s="6"/>
       <c r="I1405" s="4" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1406" spans="1:9">
       <c r="A1406" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1406" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1406" s="4" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="E1406" s="4" t="s">
         <v>4</v>
@@ -35676,10 +35676,10 @@
     </row>
     <row r="1407" spans="1:9">
       <c r="A1407" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1407" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1407" s="4" t="s">
         <v>467</v>
@@ -35698,15 +35698,15 @@
       </c>
       <c r="H1407" s="6"/>
       <c r="I1407" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1408" spans="1:9">
       <c r="A1408" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1408" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1408" s="4" t="s">
         <v>286</v>
@@ -35725,15 +35725,15 @@
       </c>
       <c r="H1408" s="6"/>
       <c r="I1408" s="4" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1409" spans="1:9">
       <c r="A1409" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1409" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1409" s="4" t="s">
         <v>13</v>
@@ -35757,10 +35757,10 @@
     </row>
     <row r="1410" spans="1:9">
       <c r="A1410" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1410" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1410" s="4" t="s">
         <v>16</v>
@@ -35784,10 +35784,10 @@
     </row>
     <row r="1411" spans="1:9">
       <c r="A1411" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1411" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1411" s="4" t="s">
         <v>128</v>
@@ -35811,10 +35811,10 @@
     </row>
     <row r="1412" spans="1:9" ht="22.5">
       <c r="A1412" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1412" s="4" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1412" s="4" t="s">
         <v>129</v>
@@ -35842,31 +35842,31 @@
     </row>
     <row r="1414" spans="1:9">
       <c r="A1414" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1414" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="F1414" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G1414" s="4">
         <v>0</v>
       </c>
       <c r="H1414" s="6"/>
       <c r="I1414" s="6" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1415" spans="1:9">
       <c r="A1415" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1415" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C1415" s="4" t="s">
         <v>1318</v>
-      </c>
-      <c r="B1415" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C1415" s="4" t="s">
-        <v>1321</v>
       </c>
       <c r="E1415" s="4" t="s">
         <v>4</v>
@@ -35886,10 +35886,10 @@
     </row>
     <row r="1416" spans="1:9">
       <c r="A1416" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1416" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1416" s="4" t="s">
         <v>467</v>
@@ -35908,15 +35908,15 @@
       </c>
       <c r="H1416" s="6"/>
       <c r="I1416" s="4" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1417" spans="1:9">
       <c r="A1417" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1417" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1417" s="4" t="s">
         <v>286</v>
@@ -35935,15 +35935,15 @@
       </c>
       <c r="H1417" s="6"/>
       <c r="I1417" s="4" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1418" spans="1:9">
       <c r="A1418" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1418" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1418" s="4" t="s">
         <v>13</v>
@@ -35967,10 +35967,10 @@
     </row>
     <row r="1419" spans="1:9">
       <c r="A1419" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1419" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1419" s="4" t="s">
         <v>16</v>
@@ -35994,10 +35994,10 @@
     </row>
     <row r="1420" spans="1:9">
       <c r="A1420" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1420" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1420" s="4" t="s">
         <v>128</v>
@@ -36021,10 +36021,10 @@
     </row>
     <row r="1421" spans="1:9" ht="22.5">
       <c r="A1421" s="4" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B1421" s="4" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C1421" s="4" t="s">
         <v>129</v>
@@ -36066,7 +36066,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="360">
       <c r="A1" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -4639,8 +4639,8 @@
   <dimension ref="A1:O1426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1006" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1017" sqref="A1017"/>
+      <pane ySplit="1" topLeftCell="A967" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C978" sqref="C978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11263,7 +11263,7 @@
         <v>11</v>
       </c>
       <c r="G304" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="6" t="s">
@@ -26247,7 +26247,7 @@
         <v>11</v>
       </c>
       <c r="G978" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H978" s="4"/>
       <c r="I978" s="6" t="s">

--- a/Documentation/DataModel/BHLDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLDataDictionary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8302" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8429" uniqueCount="1418">
   <si>
     <t xml:space="preserve">SCHEMA</t>
   </si>
@@ -3637,6 +3637,54 @@
     <t xml:space="preserve">TitleCollectionID</t>
   </si>
   <si>
+    <t xml:space="preserve">TitleExternalResource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External resources associated with a title.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitleExternalResourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier of the Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitleExternalResourceTypeID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier of the External Resource Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UrlText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text description of the external resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL to which the external resources is linked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postiion at which the resource should be displayed, when all resources are displayed in a list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitleExternalResourceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of external resources (ex: Content, Collection Guide, Digital Exhibition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExternalResourceTypeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the external resource type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExternalResourceTypeLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label used for the external resource in interfaces</t>
+  </si>
+  <si>
     <t xml:space="preserve">TitleInstitution</t>
   </si>
   <si>
@@ -3644,9 +3692,6 @@
   </si>
   <si>
     <t xml:space="preserve">TitleInstitutionID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier of the Title</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier of the Institution</t>
@@ -4498,20 +4543,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1431"/>
+  <dimension ref="A1:AMJ1452"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A1152" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I406" activeCellId="0" sqref="I406"/>
+      <selection pane="bottomLeft" activeCell="A1167" activeCellId="0" sqref="A1167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="7"/>
@@ -30428,29 +30473,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1161" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1161" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1161" s="8"/>
       <c r="I1161" s="9"/>
     </row>
-    <row r="1162" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1162" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="F1162" s="2" t="s">
+      <c r="E1162" s="2"/>
+      <c r="F1162" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G1162" s="1" t="n">
+      <c r="G1162" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H1162" s="3"/>
       <c r="I1162" s="3" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="1163" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1162" s="0"/>
+    </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="1" t="s">
         <v>174</v>
       </c>
@@ -30460,23 +30507,24 @@
       <c r="C1163" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="E1163" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1163" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1163" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1163" s="3" t="s">
+      <c r="E1163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1163" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1163" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1163" s="1" t="s">
+      <c r="I1163" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1164" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1163" s="0"/>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="1" t="s">
         <v>174</v>
       </c>
@@ -30486,23 +30534,24 @@
       <c r="C1164" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1164" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1164" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1164" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1164" s="3" t="s">
+      <c r="E1164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1164" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1164" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1164" s="1" t="s">
+      <c r="I1164" s="3" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="1165" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1164" s="0"/>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="1" t="s">
         <v>174</v>
       </c>
@@ -30510,25 +30559,26 @@
         <v>1202</v>
       </c>
       <c r="C1165" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1165" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1165" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1165" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H1165" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1165" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1165" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1165" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1166" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1165" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AMJ1165" s="0"/>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="1" t="s">
         <v>174</v>
       </c>
@@ -30536,25 +30586,26 @@
         <v>1202</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1166" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1166" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1166" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1166" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1167" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1208</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1166" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I1166" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AMJ1166" s="0"/>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1167" s="1" t="s">
         <v>174</v>
       </c>
@@ -30567,21 +30618,21 @@
       <c r="D1167" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1167" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1167" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="H1167" s="3"/>
-      <c r="I1167" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1168" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1167" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1167" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AMJ1167" s="0"/>
+    </row>
+    <row r="1168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="1" t="s">
         <v>174</v>
       </c>
@@ -30589,26 +30640,27 @@
         <v>1202</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>28</v>
+        <v>569</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1168" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1168" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1168" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="E1168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1168" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1168" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H1168" s="3"/>
       <c r="I1168" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1169" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1211</v>
+      </c>
+      <c r="AMJ1168" s="0"/>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="1" t="s">
         <v>174</v>
       </c>
@@ -30616,26 +30668,27 @@
         <v>1202</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1169" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1169" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1169" s="2" t="s">
+      <c r="E1169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1169" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1169" s="1" t="n">
+      <c r="G1169" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H1169" s="3"/>
       <c r="I1169" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1170" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="AMJ1169" s="0"/>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="1" t="s">
         <v>174</v>
       </c>
@@ -30643,26 +30696,27 @@
         <v>1202</v>
       </c>
       <c r="C1170" s="1" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1170" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1170" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1170" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H1170" s="3"/>
       <c r="I1170" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1171" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="AMJ1170" s="0"/>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="1" t="s">
         <v>174</v>
       </c>
@@ -30670,408 +30724,481 @@
         <v>1202</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D1171" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1171" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1171" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1171" s="1" t="n">
+      <c r="E1171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1171" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H1171" s="3"/>
       <c r="I1171" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AMJ1171" s="0"/>
+    </row>
+    <row r="1172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1172" s="3"/>
+      <c r="I1172" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="1172" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1172" s="8"/>
-      <c r="I1172" s="9"/>
-    </row>
-    <row r="1173" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1173" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1173" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I1173" s="3" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1174" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1172" s="0"/>
+    </row>
+    <row r="1173" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1173" s="8"/>
+      <c r="I1173" s="9"/>
+    </row>
+    <row r="1174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1174" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C1174" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E1174" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>1212</v>
+      </c>
+      <c r="E1174" s="2"/>
       <c r="F1174" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1174" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1174" s="3"/>
+      <c r="I1174" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AMJ1174" s="0"/>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1175" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1174" s="3" t="s">
+      <c r="I1175" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1175" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1175" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1175" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C1175" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1175" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1175" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1175" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1175" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="1176" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1175" s="0"/>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E1176" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F1176" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1176" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1176" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="G1176" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1176" s="3"/>
       <c r="I1176" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="1177" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1215</v>
+      </c>
+      <c r="AMJ1176" s="0"/>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1177" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C1177" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E1177" s="1" t="s">
-        <v>20</v>
+        <v>1216</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1177" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F1177" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1177" s="2" t="n">
-        <v>50</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="G1177" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1177" s="3"/>
       <c r="I1177" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AMJ1177" s="0"/>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1178" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="1178" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1178" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1178" s="1" t="s">
-        <v>1209</v>
-      </c>
       <c r="C1178" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E1178" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1178" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F1178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1178" s="2" t="n">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G1178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1178" s="3"/>
       <c r="I1178" s="3" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="1179" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="AMJ1178" s="0"/>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C1179" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1179" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1179" s="1" t="s">
-        <v>20</v>
+      <c r="E1179" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F1179" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1179" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="G1179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1179" s="3"/>
       <c r="I1179" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1180" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="AMJ1179" s="0"/>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1180" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1180" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="E1180" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F1180" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1180" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G1180" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1180" s="3"/>
       <c r="I1180" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1181" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+      <c r="AMJ1180" s="0"/>
+    </row>
+    <row r="1181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1181" s="1" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="C1181" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D1181" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1181" s="1" t="s">
-        <v>20</v>
+      <c r="E1181" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F1181" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1181" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="G1181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1181" s="3"/>
       <c r="I1181" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1182" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1182" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1182" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C1182" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1182" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1182" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1182" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1182" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="1183" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1183" s="8"/>
-      <c r="I1183" s="9"/>
-    </row>
-    <row r="1184" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1181" s="0"/>
+    </row>
+    <row r="1182" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1182" s="8"/>
+      <c r="I1182" s="9"/>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F1183" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1183" s="3"/>
+      <c r="I1183" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1184" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1184" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I1184" s="3" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="1185" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1218</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1184" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1185" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>1217</v>
+        <v>64</v>
       </c>
       <c r="E1185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1185" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1185" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1185" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1185" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1186" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1185" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1186" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C1186" s="1" t="s">
-        <v>64</v>
+        <v>418</v>
       </c>
       <c r="E1186" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1186" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1186" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1186" s="1" t="s">
+      <c r="F1186" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1186" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1186" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1186" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="1187" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1186" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1187" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C1187" s="1" t="s">
-        <v>328</v>
+        <v>544</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1187" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1187" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H1187" s="1" t="s">
+      <c r="F1187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1187" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1187" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="1188" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1187" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="C1188" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1188" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="H1188" s="3"/>
+      <c r="I1188" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1189" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1188" s="1" t="s">
+      <c r="D1189" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1188" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1188" s="1" t="s">
+      <c r="E1189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1189" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1188" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" s="3" t="s">
+      <c r="G1189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1189" s="3"/>
+      <c r="I1189" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="1189" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1189" s="8"/>
-      <c r="I1189" s="9"/>
-    </row>
-    <row r="1190" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1190" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="F1190" s="2"/>
+      <c r="C1190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1190" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G1190" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H1190" s="3"/>
-      <c r="I1190" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="1191" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1190" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="1" t="s">
         <v>174</v>
       </c>
@@ -31079,7 +31206,10 @@
         <v>1218</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>1220</v>
+        <v>279</v>
+      </c>
+      <c r="D1191" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E1191" s="1" t="s">
         <v>13</v>
@@ -31090,14 +31220,12 @@
       <c r="G1191" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1191" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1191" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1192" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1191" s="3"/>
+      <c r="I1191" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1192" s="1" t="s">
         <v>174</v>
       </c>
@@ -31105,7 +31233,10 @@
         <v>1218</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>64</v>
+        <v>281</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E1192" s="1" t="s">
         <v>13</v>
@@ -31116,88 +31247,50 @@
       <c r="G1192" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1192" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1192" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="1193" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1193" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1193" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C1193" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="E1193" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1193" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1193" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1193" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1193" s="1" t="s">
-        <v>1222</v>
-      </c>
+      <c r="H1192" s="3"/>
+      <c r="I1192" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1193" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1193" s="8"/>
+      <c r="I1193" s="9"/>
     </row>
     <row r="1194" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C1194" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1194" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1194" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1194" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H1194" s="3"/>
-      <c r="I1194" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1224</v>
+      </c>
+      <c r="I1194" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1195" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="C1195" s="1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E1195" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1195" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1195" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1195" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F1195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1195" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I1195" s="3" t="s">
-        <v>1225</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31205,26 +31298,25 @@
         <v>174</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1196" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E1196" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1196" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1196" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1196" s="3"/>
+      <c r="F1196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1196" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I1196" s="3" t="s">
-        <v>31</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31232,41 +31324,71 @@
         <v>174</v>
       </c>
       <c r="B1197" s="1" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1197" s="1" t="s">
-        <v>83</v>
+        <v>587</v>
       </c>
       <c r="E1197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1197" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1198" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E1198" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1197" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1197" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1197" s="3"/>
-      <c r="I1197" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1198" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1198" s="8"/>
-      <c r="I1198" s="9"/>
-    </row>
-    <row r="1199" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1198" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1198" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1199" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E1199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1199" s="2" t="n">
+        <v>50</v>
       </c>
       <c r="I1199" s="3" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31274,25 +31396,25 @@
         <v>174</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C1200" s="1" t="s">
-        <v>1228</v>
+        <v>28</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1200" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1200" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1200" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H1200" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1200" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31300,25 +31422,25 @@
         <v>174</v>
       </c>
       <c r="B1201" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C1201" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="D1201" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1201" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1201" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1201" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H1201" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1201" s="3" t="s">
-        <v>636</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31326,13 +31448,16 @@
         <v>174</v>
       </c>
       <c r="B1202" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C1202" s="1" t="s">
-        <v>1229</v>
+        <v>279</v>
+      </c>
+      <c r="D1202" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E1202" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1202" s="1" t="s">
         <v>14</v>
@@ -31340,115 +31465,75 @@
       <c r="G1202" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H1202" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1202" s="3" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="1203" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1203" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C1203" s="1" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E1203" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1203" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1203" s="2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I1203" s="3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1204" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1204" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1204" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C1204" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D1204" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1204" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1204" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1204" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I1204" s="3" t="s">
-        <v>1233</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1204" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1204" s="8"/>
+      <c r="I1204" s="9"/>
     </row>
     <row r="1205" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1205" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1205" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C1205" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D1205" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1205" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1205" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1205" s="2" t="n">
-        <v>255</v>
+        <v>1230</v>
       </c>
       <c r="I1205" s="3" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="1206" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1206" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C1206" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1206" s="1" t="s">
-        <v>23</v>
+        <v>1232</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1206" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1206" s="2" t="n">
-        <v>255</v>
+        <v>0</v>
+      </c>
+      <c r="H1206" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I1206" s="3" t="s">
-        <v>1235</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31456,25 +31541,25 @@
         <v>174</v>
       </c>
       <c r="B1207" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C1207" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1207" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E1207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1207" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1207" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="H1207" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I1207" s="3" t="s">
-        <v>31</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31482,25 +31567,25 @@
         <v>174</v>
       </c>
       <c r="B1208" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1208" s="1" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="E1208" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1208" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1208" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H1208" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I1208" s="3" t="s">
-        <v>33</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31508,60 +31593,71 @@
         <v>174</v>
       </c>
       <c r="B1209" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>279</v>
+        <v>28</v>
+      </c>
+      <c r="D1209" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1209" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1209" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1209" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I1209" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1210" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1210" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1210" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C1210" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1210" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1210" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1211" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1211" s="8"/>
-      <c r="I1211" s="9"/>
-    </row>
-    <row r="1212" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1210" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1210" s="8"/>
+      <c r="I1210" s="9"/>
+    </row>
+    <row r="1211" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F1211" s="2"/>
+      <c r="G1211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1211" s="3"/>
+      <c r="I1211" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I1212" s="3" t="s">
-        <v>1237</v>
+        <v>1233</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1212" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31569,25 +31665,25 @@
         <v>174</v>
       </c>
       <c r="B1213" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1213" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1213" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1213" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="C1213" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E1213" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1213" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1213" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1213" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1213" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="1214" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31595,25 +31691,25 @@
         <v>174</v>
       </c>
       <c r="B1214" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D1214" s="1" t="s">
-        <v>23</v>
+        <v>786</v>
       </c>
       <c r="E1214" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1214" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1214" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I1214" s="3" t="s">
-        <v>1239</v>
+        <v>20</v>
+      </c>
+      <c r="F1214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1214" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31621,10 +31717,10 @@
         <v>174</v>
       </c>
       <c r="B1215" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>1186</v>
+        <v>128</v>
       </c>
       <c r="D1215" s="1" t="s">
         <v>23</v>
@@ -31632,107 +31728,108 @@
       <c r="E1215" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1215" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1215" s="2" t="n">
+      <c r="F1215" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1215" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H1215" s="3"/>
+      <c r="I1215" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1216" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1216" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1215" s="3" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1216" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1216" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1216" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C1216" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D1216" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1216" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1216" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1216" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="F1216" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1216" s="3"/>
       <c r="I1216" s="3" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1217" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B1217" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>1240</v>
+        <v>28</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1217" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1217" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1217" s="2" t="n">
+      <c r="F1217" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="G1217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1217" s="3"/>
       <c r="I1217" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1218" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1218" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1218" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1218" s="3"/>
+      <c r="I1218" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1219" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1219" s="8"/>
+      <c r="I1219" s="9"/>
+    </row>
+    <row r="1220" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1220" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1220" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="1218" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1218" s="8"/>
-      <c r="I1218" s="9"/>
-    </row>
-    <row r="1219" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1219" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1219" s="1" t="s">
+      <c r="I1220" s="3" t="s">
         <v>1242</v>
-      </c>
-      <c r="I1219" s="3" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="1220" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1220" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1220" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C1220" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E1220" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1220" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1220" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1220" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1220" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31740,22 +31837,25 @@
         <v>174</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1221" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1221" s="2" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I1221" s="3" t="s">
-        <v>1245</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31763,580 +31863,583 @@
         <v>174</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1222" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1222" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1223" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1223" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1224" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1224" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I1224" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="E1222" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1222" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1222" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I1222" s="3" t="s">
+    </row>
+    <row r="1225" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1225" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1225" s="1" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="1223" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1223" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1223" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C1223" s="1" t="s">
+      <c r="D1225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1225" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1225" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I1225" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="E1223" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1223" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1223" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I1223" s="3" t="s">
+    </row>
+    <row r="1226" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1226" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1226" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1226" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="I1226" s="3" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1224" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1224" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1224" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C1224" s="1" t="s">
+    <row r="1227" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1227" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1227" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="I1227" s="3" t="s">
         <v>1250</v>
-      </c>
-      <c r="E1224" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1224" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1224" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I1224" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1225" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1225" s="8"/>
-      <c r="I1225" s="9"/>
-    </row>
-    <row r="1226" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1226" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1226" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I1226" s="3" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="1227" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1227" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1227" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1227" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E1227" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1227" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1227" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1227" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1227" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1228" s="1" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>1256</v>
+        <v>28</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1228" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1228" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1228" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1228" s="3" t="s">
-        <v>17</v>
+      <c r="F1228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1228" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I1228" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>1257</v>
+        <v>32</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1229" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1229" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1229" s="1" t="n">
-        <v>200</v>
+      <c r="F1229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1229" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I1229" s="3" t="s">
-        <v>1258</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1230" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1231" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1231" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1232" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1232" s="8"/>
+      <c r="I1232" s="9"/>
+    </row>
+    <row r="1233" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I1233" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="B1230" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1230" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E1230" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1230" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1230" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I1230" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="1231" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1231" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1231" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1231" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1231" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1231" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1231" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1231" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1232" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1232" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1232" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1232" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1232" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1232" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1232" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1232" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1233" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1233" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1233" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C1233" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1233" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1233" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1233" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1233" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1234" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="1234" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C1234" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1234" s="1" t="s">
-        <v>83</v>
+        <v>1244</v>
       </c>
       <c r="E1234" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1234" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1234" s="1" t="n">
-        <v>0</v>
+      <c r="F1234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1234" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1234" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I1234" s="3" t="s">
-        <v>282</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1235" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1235" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C1235" s="1" t="s">
-        <v>1033</v>
+      <c r="D1235" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1235" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1235" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1235" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1236" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F1235" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1235" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" s="3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="1236" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1236" s="8"/>
-      <c r="I1236" s="9"/>
+      <c r="I1236" s="3" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="1237" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>1261</v>
+        <v>1251</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1237" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1237" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I1237" s="3" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="1238" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1238" s="1" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="C1238" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1238" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1238" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1238" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="E1238" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1238" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1238" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1238" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1238" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1239" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1239" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1239" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C1239" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D1239" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1239" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1239" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1239" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="I1239" s="3" t="s">
-        <v>630</v>
-      </c>
+    </row>
+    <row r="1239" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1239" s="8"/>
+      <c r="I1239" s="9"/>
     </row>
     <row r="1240" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C1240" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1240" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1240" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1240" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1240" s="1" t="n">
-        <v>500</v>
+        <v>1257</v>
       </c>
       <c r="I1240" s="3" t="s">
-        <v>632</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1241" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C1241" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1241" s="1" t="s">
-        <v>29</v>
+        <v>558</v>
       </c>
       <c r="E1241" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1241" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1241" s="1" t="n">
-        <v>0</v>
+      <c r="F1241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1241" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1241" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I1241" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1242" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C1242" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1242" s="1" t="s">
-        <v>29</v>
+        <v>1259</v>
       </c>
       <c r="E1242" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1242" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1242" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G1242" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I1242" s="3" t="s">
-        <v>33</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1243" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1243" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C1243" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1243" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E1243" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1243" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1243" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F1243" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1243" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="I1243" s="3" t="s">
-        <v>280</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="1" t="s">
-        <v>1252</v>
+        <v>174</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C1244" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1244" s="1" t="s">
-        <v>83</v>
+        <v>1263</v>
       </c>
       <c r="E1244" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1244" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1244" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F1244" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1244" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="I1244" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1245" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1245" s="8"/>
-      <c r="I1245" s="9"/>
-    </row>
-    <row r="1246" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1246" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1246" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="I1246" s="3" t="s">
+    </row>
+    <row r="1245" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1245" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1245" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="1247" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1245" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1245" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I1245" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1246" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1246" s="8"/>
+      <c r="I1246" s="9"/>
+    </row>
+    <row r="1247" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1247" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1247" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E1247" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1247" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1247" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1247" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1247" s="3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1248" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E1248" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1248" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1248" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1247" s="3" t="s">
+      <c r="I1248" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="1248" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1248" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1248" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1248" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E1248" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1248" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1248" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" s="3" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="E1249" s="1" t="s">
         <v>13</v>
@@ -32347,22 +32450,22 @@
       <c r="G1249" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H1249" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1249" s="3" t="s">
-        <v>1269</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1250" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D1250" s="1" t="s">
-        <v>23</v>
+        <v>1272</v>
       </c>
       <c r="E1250" s="1" t="s">
         <v>13</v>
@@ -32371,24 +32474,21 @@
         <v>24</v>
       </c>
       <c r="G1250" s="1" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I1250" s="3" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1251" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1251" s="1" t="s">
-        <v>23</v>
+        <v>1274</v>
       </c>
       <c r="E1251" s="1" t="s">
         <v>13</v>
@@ -32397,229 +32497,189 @@
         <v>24</v>
       </c>
       <c r="G1251" s="1" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="I1251" s="3" t="s">
-        <v>1272</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1252" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>1010</v>
+        <v>28</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1252" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1252" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1252" s="1" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I1252" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="1253" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1253" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1253" s="1" t="s">
-        <v>1274</v>
+        <v>32</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1253" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1253" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1253" s="1" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I1253" s="3" t="s">
-        <v>1275</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1254" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E1254" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1254" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1254" s="1" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I1254" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1255" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1255" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1255" s="1" t="s">
-        <v>806</v>
+        <v>281</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E1255" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1255" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1255" s="1" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I1255" s="3" t="s">
-        <v>1052</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D1256" s="1" t="s">
-        <v>23</v>
+        <v>1033</v>
       </c>
       <c r="E1256" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1256" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1256" s="1" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I1256" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1257" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1257" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1257" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1257" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1257" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1257" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1257" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1257" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="I1257" s="3" t="s">
-        <v>1054</v>
-      </c>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1257" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1257" s="8"/>
+      <c r="I1257" s="9"/>
     </row>
     <row r="1258" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1258" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1258" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1258" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1258" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1258" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1258" s="1" t="n">
-        <v>400</v>
+        <v>1276</v>
       </c>
       <c r="I1258" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="D1259" s="1" t="s">
-        <v>23</v>
+        <v>1271</v>
       </c>
       <c r="E1259" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1259" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1259" s="1" t="n">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="H1259" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I1259" s="3" t="s">
-        <v>1277</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1260" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>962</v>
+        <v>1278</v>
       </c>
       <c r="D1260" s="1" t="s">
         <v>23</v>
@@ -32631,21 +32691,21 @@
         <v>24</v>
       </c>
       <c r="G1260" s="1" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I1260" s="3" t="s">
-        <v>1278</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1261" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="D1261" s="1" t="s">
         <v>23</v>
@@ -32657,246 +32717,212 @@
         <v>24</v>
       </c>
       <c r="G1261" s="1" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="I1261" s="3" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1262" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1262" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>337</v>
+        <v>28</v>
+      </c>
+      <c r="D1262" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1262" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1262" s="2" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="G1262" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1262" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="1263" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1263" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>339</v>
+        <v>32</v>
+      </c>
+      <c r="D1263" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1263" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1263" s="2" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="G1263" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1263" s="3" t="s">
-        <v>1281</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1264" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>652</v>
+        <v>279</v>
+      </c>
+      <c r="D1264" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E1264" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1264" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1264" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I1264" s="3" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="1265" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="C1265" s="1" t="s">
-        <v>1049</v>
+        <v>281</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E1265" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1265" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1265" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I1265" s="3" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="1266" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1266" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1266" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1266" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D1266" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1266" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1266" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1266" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I1266" s="3" t="s">
-        <v>1285</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1266" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1266" s="8"/>
+      <c r="I1266" s="9"/>
     </row>
     <row r="1267" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1267" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1267" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1267" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1267" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1267" s="1" t="n">
-        <v>-1</v>
+        <v>1279</v>
       </c>
       <c r="I1267" s="3" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1268" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1268" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1268" s="1" t="s">
-        <v>23</v>
+        <v>1281</v>
       </c>
       <c r="E1268" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1268" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1268" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="H1268" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I1268" s="3" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="1269" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1269" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1269" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1269" s="1" t="s">
-        <v>23</v>
+        <v>1270</v>
       </c>
       <c r="E1269" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1269" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1269" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I1269" s="3" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1270" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1270" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1270" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D1270" s="1" t="s">
-        <v>23</v>
+        <v>1283</v>
       </c>
       <c r="E1270" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1270" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1270" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I1270" s="3" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="1271" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1271" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1271" s="1" t="s">
-        <v>369</v>
+        <v>1285</v>
       </c>
       <c r="D1271" s="1" t="s">
         <v>23</v>
@@ -32908,21 +32934,21 @@
         <v>24</v>
       </c>
       <c r="G1271" s="1" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I1271" s="3" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="1272" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1272" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1272" s="1" t="s">
-        <v>1056</v>
+        <v>68</v>
       </c>
       <c r="D1272" s="1" t="s">
         <v>23</v>
@@ -32934,21 +32960,21 @@
         <v>24</v>
       </c>
       <c r="G1272" s="1" t="n">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="I1272" s="3" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="1273" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1273" s="1" t="s">
-        <v>1293</v>
+        <v>1010</v>
       </c>
       <c r="D1273" s="1" t="s">
         <v>23</v>
@@ -32960,21 +32986,21 @@
         <v>24</v>
       </c>
       <c r="G1273" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I1273" s="3" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="1274" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1274" s="1" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D1274" s="1" t="s">
         <v>23</v>
@@ -32986,21 +33012,21 @@
         <v>24</v>
       </c>
       <c r="G1274" s="1" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I1274" s="3" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="1275" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1275" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1275" s="1" t="s">
-        <v>1062</v>
+        <v>26</v>
       </c>
       <c r="D1275" s="1" t="s">
         <v>23</v>
@@ -33012,21 +33038,21 @@
         <v>24</v>
       </c>
       <c r="G1275" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I1275" s="3" t="s">
-        <v>1297</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1276" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1276" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
       <c r="D1276" s="1" t="s">
         <v>23</v>
@@ -33038,21 +33064,21 @@
         <v>24</v>
       </c>
       <c r="G1276" s="1" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I1276" s="3" t="s">
-        <v>1298</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1277" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1277" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1277" s="1" t="s">
-        <v>440</v>
+        <v>808</v>
       </c>
       <c r="D1277" s="1" t="s">
         <v>23</v>
@@ -33064,21 +33090,21 @@
         <v>24</v>
       </c>
       <c r="G1277" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I1277" s="3" t="s">
-        <v>1299</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1278" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1278" s="1" t="s">
-        <v>944</v>
+        <v>70</v>
       </c>
       <c r="D1278" s="1" t="s">
         <v>23</v>
@@ -33090,21 +33116,21 @@
         <v>24</v>
       </c>
       <c r="G1278" s="1" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="I1278" s="3" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="1279" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1279" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1279" s="1" t="s">
-        <v>942</v>
+        <v>72</v>
       </c>
       <c r="D1279" s="1" t="s">
         <v>23</v>
@@ -33116,21 +33142,21 @@
         <v>24</v>
       </c>
       <c r="G1279" s="1" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="I1279" s="3" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="1280" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1280" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1280" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1280" s="1" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="D1280" s="1" t="s">
         <v>23</v>
@@ -33142,21 +33168,21 @@
         <v>24</v>
       </c>
       <c r="G1280" s="1" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I1280" s="3" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1281" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1281" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1281" s="1" t="s">
-        <v>1303</v>
+        <v>962</v>
       </c>
       <c r="D1281" s="1" t="s">
         <v>23</v>
@@ -33168,304 +33194,350 @@
         <v>24</v>
       </c>
       <c r="G1281" s="1" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="I1281" s="3" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1282" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1282" s="1" t="s">
-        <v>28</v>
+        <v>733</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1282" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1282" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1282" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1282" s="3" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1283" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1283" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1283" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1283" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1284" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1284" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1284" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1285" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1285" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1285" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1285" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G1282" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1282" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1283" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1283" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1283" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1283" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1283" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1283" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1283" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1283" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1283" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1284" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1284" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1284" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1284" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1284" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1284" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1284" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1284" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1285" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1285" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1285" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C1285" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1285" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1285" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1285" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1285" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="I1285" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1286" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1286" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1286" s="1" t="s">
-        <v>64</v>
+        <v>1049</v>
+      </c>
+      <c r="D1286" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1286" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1286" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1286" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I1286" s="3" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="1287" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1287" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1287" s="1" t="s">
-        <v>19</v>
+        <v>1299</v>
+      </c>
+      <c r="D1287" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1287" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1287" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1287" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I1287" s="3" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1288" s="1" t="s">
-        <v>1007</v>
+        <v>371</v>
+      </c>
+      <c r="D1288" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1288" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1288" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1288" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I1288" s="3" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1289" s="1" t="s">
-        <v>1035</v>
+        <v>373</v>
+      </c>
+      <c r="D1289" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1289" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1289" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1289" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I1289" s="3" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="C1290" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1290" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1290" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1290" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I1290" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1291" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D1291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1291" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1291" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I1291" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1292" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1292" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1292" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I1292" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1293" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1293" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1293" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="I1293" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1294" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1294" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1294" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1294" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="E1290" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1290" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1290" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1290" s="3" t="s">
+    </row>
+    <row r="1295" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1295" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1295" s="1" t="s">
         <v>1310</v>
-      </c>
-    </row>
-    <row r="1291" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1291" s="8"/>
-      <c r="I1291" s="9"/>
-    </row>
-    <row r="1292" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1292" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1292" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I1292" s="3" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="1293" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1293" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1293" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1293" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E1293" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1293" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1293" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1293" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1293" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1294" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1294" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1294" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1294" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E1294" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1294" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1294" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1294" s="3" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1295" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1295" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1295" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1295" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D1295" s="1" t="s">
         <v>23</v>
@@ -33477,21 +33549,21 @@
         <v>24</v>
       </c>
       <c r="G1295" s="1" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="I1295" s="3" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="1296" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1296" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1296" s="1" t="s">
-        <v>201</v>
+        <v>1062</v>
       </c>
       <c r="D1296" s="1" t="s">
         <v>23</v>
@@ -33503,21 +33575,21 @@
         <v>24</v>
       </c>
       <c r="G1296" s="1" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I1296" s="3" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1297" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1297" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1297" s="1" t="s">
-        <v>203</v>
+        <v>623</v>
       </c>
       <c r="D1297" s="1" t="s">
         <v>23</v>
@@ -33529,21 +33601,21 @@
         <v>24</v>
       </c>
       <c r="G1297" s="1" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I1297" s="3" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="1298" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1298" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1298" s="1" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="D1298" s="1" t="s">
         <v>23</v>
@@ -33555,21 +33627,21 @@
         <v>24</v>
       </c>
       <c r="G1298" s="1" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I1298" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="1299" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1299" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1299" s="1" t="s">
-        <v>339</v>
+        <v>944</v>
       </c>
       <c r="D1299" s="1" t="s">
         <v>23</v>
@@ -33581,21 +33653,21 @@
         <v>24</v>
       </c>
       <c r="G1299" s="1" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I1299" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="1300" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>310</v>
+        <v>942</v>
       </c>
       <c r="D1300" s="1" t="s">
         <v>23</v>
@@ -33607,128 +33679,131 @@
         <v>24</v>
       </c>
       <c r="G1300" s="1" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I1300" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="1301" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1301" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>28</v>
+        <v>940</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1301" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1301" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1301" s="1" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I1301" s="3" t="s">
-        <v>31</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1302" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1302" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>32</v>
+        <v>1318</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1302" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1302" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1302" s="1" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I1302" s="3" t="s">
-        <v>33</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1303" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1303" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E1303" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1303" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1303" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1303" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1304" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1304" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E1304" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1304" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1304" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1304" s="3" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1305" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>1311</v>
+        <v>1279</v>
       </c>
       <c r="C1305" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
+      </c>
+      <c r="D1305" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E1305" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1305" s="2" t="s">
         <v>14</v>
@@ -33737,62 +33812,93 @@
         <v>0</v>
       </c>
       <c r="I1305" s="3" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="1306" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1306" s="8"/>
-      <c r="I1306" s="9"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1306" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1306" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1306" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1306" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1306" s="3" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="1307" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1307" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1307" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1307" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1307" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1307" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1307" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="I1307" s="3" t="s">
+    </row>
+    <row r="1308" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1308" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1308" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1308" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1308" s="3" t="s">
         <v>1321</v>
-      </c>
-    </row>
-    <row r="1308" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1308" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1308" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C1308" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E1308" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1308" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1308" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1308" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1308" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1309" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1309" s="1" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>1266</v>
+        <v>1007</v>
       </c>
       <c r="E1309" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1309" s="2" t="s">
         <v>14</v>
@@ -33801,27 +33907,24 @@
         <v>0</v>
       </c>
       <c r="I1309" s="3" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1310" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1310" s="1" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D1310" s="1" t="s">
-        <v>29</v>
+        <v>1035</v>
       </c>
       <c r="E1310" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1310" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1310" s="1" t="n">
         <v>0</v>
@@ -33832,94 +33935,51 @@
     </row>
     <row r="1311" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1311" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1311" s="1" t="s">
-        <v>1320</v>
+        <v>1279</v>
       </c>
       <c r="C1311" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="D1311" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1311" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1311" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1311" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I1311" s="3" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="1312" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1312" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1312" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C1312" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1312" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1312" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1312" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1312" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="1312" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1312" s="8"/>
+      <c r="I1312" s="9"/>
     </row>
     <row r="1313" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1313" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C1313" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1313" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1313" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1313" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1313" s="1" t="n">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="I1313" s="3" t="s">
-        <v>33</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1314" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1314" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1314" s="1" t="s">
-        <v>83</v>
+        <v>1328</v>
       </c>
       <c r="E1314" s="1" t="s">
         <v>13</v>
@@ -33930,22 +33990,22 @@
       <c r="G1314" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H1314" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I1314" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1315" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1315" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1315" s="1" t="s">
-        <v>83</v>
+        <v>1281</v>
       </c>
       <c r="E1315" s="1" t="s">
         <v>13</v>
@@ -33957,82 +34017,122 @@
         <v>0</v>
       </c>
       <c r="I1315" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1316" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1316" s="8"/>
-      <c r="I1316" s="9"/>
-    </row>
-    <row r="1317" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1316" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1316" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1316" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1316" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="I1316" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1317" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1317" s="1" t="s">
         <v>1326</v>
       </c>
+      <c r="C1317" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1317" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1317" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1317" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1317" s="1" t="n">
+        <v>150</v>
+      </c>
       <c r="I1317" s="3" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1318" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1318" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>1328</v>
+        <v>203</v>
+      </c>
+      <c r="D1318" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1318" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1318" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1318" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1318" s="3" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="I1318" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1319" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1319" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1319" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>1266</v>
+        <v>337</v>
+      </c>
+      <c r="D1319" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1319" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1319" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1319" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I1319" s="3" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1320" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1320" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1320" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>649</v>
+        <v>339</v>
       </c>
       <c r="D1320" s="1" t="s">
         <v>23</v>
@@ -34044,47 +34144,47 @@
         <v>24</v>
       </c>
       <c r="G1320" s="1" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I1320" s="3" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="1321" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1321" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1321" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1321" s="1" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1321" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1321" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1321" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I1321" s="3" t="s">
-        <v>31</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1322" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1322" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1322" s="1" t="s">
         <v>29</v>
@@ -34099,44 +34199,44 @@
         <v>0</v>
       </c>
       <c r="I1322" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1323" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E1323" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1323" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1323" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1323" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1324" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1324" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D1324" s="1" t="s">
         <v>83</v>
@@ -34151,88 +34251,82 @@
         <v>0</v>
       </c>
       <c r="I1324" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1325" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1325" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1325" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1325" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1325" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1325" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="1325" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1325" s="8"/>
-      <c r="I1325" s="9"/>
     </row>
     <row r="1326" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1326" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
+      </c>
+      <c r="C1326" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1326" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F1326" s="2" t="s">
-        <v>723</v>
+        <v>14</v>
       </c>
       <c r="G1326" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1326" s="3" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="1327" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1327" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1327" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C1327" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E1327" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1327" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1327" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1327" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1327" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1328" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1327" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1327" s="8"/>
+      <c r="I1327" s="9"/>
+    </row>
+    <row r="1328" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1328" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C1328" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E1328" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1328" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1328" s="1" t="n">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="I1328" s="3" t="s">
-        <v>1314</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="C1329" s="1" t="s">
-        <v>38</v>
+        <v>1337</v>
       </c>
       <c r="E1329" s="1" t="s">
         <v>13</v>
@@ -34243,45 +34337,45 @@
       <c r="G1329" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H1329" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I1329" s="3" t="s">
-        <v>1333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1330" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1330" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D1330" s="1" t="s">
-        <v>83</v>
+        <v>1281</v>
       </c>
       <c r="E1330" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1330" s="2" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="G1330" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1330" s="3" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="C1331" s="1" t="s">
-        <v>28</v>
+        <v>697</v>
       </c>
       <c r="D1331" s="1" t="s">
         <v>29</v>
@@ -34296,382 +34390,412 @@
         <v>0</v>
       </c>
       <c r="I1331" s="3" t="s">
-        <v>31</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="C1332" s="1" t="s">
-        <v>32</v>
+        <v>1339</v>
       </c>
       <c r="D1332" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1332" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1332" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1332" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I1332" s="3" t="s">
-        <v>33</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="C1333" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1333" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1333" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1333" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1334" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1334" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1334" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1334" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1334" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1335" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D1333" s="1" t="s">
+      <c r="D1335" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1333" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1333" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1333" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1333" s="3" t="s">
+      <c r="E1335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1335" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1335" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="1334" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1334" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1334" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C1334" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1334" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1334" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1334" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1334" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1334" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1335" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1335" s="8"/>
-      <c r="I1335" s="9"/>
     </row>
     <row r="1336" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1336" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1336" s="1" t="s">
         <v>1335</v>
       </c>
+      <c r="C1336" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1336" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1336" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1336" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1336" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="I1336" s="3" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="1337" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1337" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1337" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C1337" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E1337" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1337" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1337" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1337" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1337" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1338" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1337" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1337" s="8"/>
+      <c r="I1337" s="9"/>
+    </row>
+    <row r="1338" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1338" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C1338" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D1338" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1338" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1338" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1338" s="1" t="n">
-        <v>50</v>
+        <v>1341</v>
       </c>
       <c r="I1338" s="3" t="s">
-        <v>630</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1339" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="C1339" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1339" s="1" t="s">
-        <v>23</v>
+        <v>1343</v>
       </c>
       <c r="E1339" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1339" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1339" s="1" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="H1339" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I1339" s="3" t="s">
-        <v>632</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1340" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1340" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="C1340" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1340" s="1" t="s">
-        <v>29</v>
+        <v>1281</v>
       </c>
       <c r="E1340" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1340" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1340" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I1340" s="3" t="s">
-        <v>31</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1341" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="C1341" s="1" t="s">
-        <v>32</v>
+        <v>649</v>
       </c>
       <c r="D1341" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1341" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1341" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1341" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I1341" s="3" t="s">
-        <v>33</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1342" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="1" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="B1342" s="1" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="C1342" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1342" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1342" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1342" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1343" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1343" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1343" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1343" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1343" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1343" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1344" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1344" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D1342" s="1" t="s">
+      <c r="D1344" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1342" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1342" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1342" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1342" s="3" t="s">
+      <c r="E1344" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1344" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1344" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="1343" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1343" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1343" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C1343" s="1" t="s">
+    <row r="1345" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1345" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1345" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D1343" s="1" t="s">
+      <c r="D1345" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1343" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1343" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1343" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1343" s="3" t="s">
+      <c r="E1345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1345" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1345" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="1344" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1344" s="8"/>
-      <c r="I1344" s="9"/>
-    </row>
-    <row r="1345" s="1" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1345" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1345" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F1345" s="2"/>
-      <c r="H1345" s="3"/>
-      <c r="I1345" s="3" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="1346" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1346" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1346" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C1346" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1346" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1346" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1346" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1346" s="3" t="s">
+    <row r="1346" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1346" s="8"/>
+      <c r="I1346" s="9"/>
+    </row>
+    <row r="1347" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1347" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F1347" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1347" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1348" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1348" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E1348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1348" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1348" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1346" s="3" t="s">
+      <c r="I1348" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1347" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1347" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1347" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C1347" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E1347" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1347" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="G1347" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="H1347" s="3"/>
-      <c r="I1347" s="3" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="1348" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1348" s="8"/>
-      <c r="I1348" s="9"/>
-    </row>
-    <row r="1349" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1349" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
+      </c>
+      <c r="C1349" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1349" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F1349" s="2" t="s">
-        <v>723</v>
+        <v>14</v>
       </c>
       <c r="G1349" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1349" s="3"/>
       <c r="I1349" s="3" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C1350" s="1" t="s">
-        <v>1345</v>
+        <v>38</v>
       </c>
       <c r="E1350" s="1" t="s">
         <v>13</v>
@@ -34682,48 +34806,48 @@
       <c r="G1350" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1350" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I1350" s="3" t="s">
-        <v>15</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1351" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1351" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C1351" s="1" t="s">
-        <v>1340</v>
+        <v>569</v>
+      </c>
+      <c r="D1351" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E1351" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1351" s="2" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="G1351" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1351" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I1351" s="3" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1352" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1352" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C1352" s="1" t="s">
-        <v>1347</v>
+        <v>28</v>
+      </c>
+      <c r="D1352" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1352" s="1" t="s">
         <v>13</v>
@@ -34734,520 +34858,500 @@
       <c r="G1352" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1352" s="3"/>
       <c r="I1352" s="3" t="s">
-        <v>1348</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1353" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1353" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="C1353" s="1" t="s">
-        <v>1349</v>
+        <v>32</v>
+      </c>
+      <c r="D1353" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1353" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1353" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1353" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1353" s="3"/>
       <c r="I1353" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1354" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1354" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1354" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1354" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1354" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1355" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1355" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1355" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1355" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1355" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1356" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1356" s="8"/>
+      <c r="I1356" s="9"/>
+    </row>
+    <row r="1357" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1357" s="1" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="1354" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1354" s="8"/>
-      <c r="I1354" s="9"/>
-    </row>
-    <row r="1355" s="1" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1355" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1355" s="1" t="s">
+      <c r="I1357" s="3" t="s">
         <v>1351</v>
-      </c>
-      <c r="F1355" s="2"/>
-      <c r="H1355" s="3"/>
-      <c r="I1355" s="3" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="1356" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1356" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1356" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C1356" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E1356" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1356" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1356" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1356" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1356" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1357" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1357" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1357" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C1357" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1357" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1357" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1357" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1357" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1357" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="1358" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1358" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1358" s="1" t="s">
-        <v>1347</v>
+        <v>1283</v>
       </c>
       <c r="E1358" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1358" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1358" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1358" s="3"/>
+      <c r="H1358" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I1358" s="3" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="1359" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1359" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1359" s="1" t="s">
-        <v>1353</v>
+        <v>1278</v>
+      </c>
+      <c r="D1359" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1359" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1359" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1359" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1359" s="3"/>
+        <v>50</v>
+      </c>
       <c r="I1359" s="3" t="s">
-        <v>1354</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1360" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1360" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>1355</v>
+        <v>713</v>
+      </c>
+      <c r="D1360" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E1360" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1360" s="2" t="s">
-        <v>856</v>
+        <v>24</v>
       </c>
       <c r="G1360" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="H1360" s="3"/>
+        <v>500</v>
+      </c>
       <c r="I1360" s="3" t="s">
-        <v>1356</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1361" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1361" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>1357</v>
+        <v>28</v>
+      </c>
+      <c r="D1361" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1361" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1361" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1361" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1361" s="3"/>
       <c r="I1361" s="3" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1362" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1362" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>1349</v>
+        <v>32</v>
+      </c>
+      <c r="D1362" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1362" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1362" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1362" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1362" s="3"/>
       <c r="I1362" s="3" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="1363" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1363" s="8"/>
-      <c r="I1363" s="9"/>
-    </row>
-    <row r="1364" s="1" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1363" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1363" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1363" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1363" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1363" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1363" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1364" s="1" t="s">
-        <v>1337</v>
+        <v>1267</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F1364" s="2"/>
-      <c r="H1364" s="3"/>
+        <v>1350</v>
+      </c>
+      <c r="C1364" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1364" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1364" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1364" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="I1364" s="3" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="1365" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1365" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1365" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C1365" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E1365" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1365" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1365" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1365" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1365" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1366" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1365" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1365" s="8"/>
+      <c r="I1365" s="9"/>
+    </row>
+    <row r="1366" s="1" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1366" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C1366" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1366" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1366" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1366" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1366" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>1353</v>
+      </c>
+      <c r="F1366" s="2"/>
+      <c r="H1366" s="3"/>
       <c r="I1366" s="3" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1367" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1367" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1367" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C1367" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E1367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1367" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1367" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1367" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1367" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C1368" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E1368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1368" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1368" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1368" s="3"/>
+      <c r="I1368" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1369" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1369" s="8"/>
+      <c r="I1369" s="9"/>
+    </row>
+    <row r="1370" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F1370" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1370" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1370" s="3"/>
+      <c r="I1370" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1371" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="C1367" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E1367" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1367" s="2" t="s">
+      <c r="E1371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1371" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1371" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1371" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1372" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E1372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1372" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1372" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1372" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1372" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1373" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E1373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1373" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1367" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1367" s="3"/>
-      <c r="I1367" s="3" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="1368" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1368" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1368" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C1368" s="1" t="s">
+      <c r="G1373" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1373" s="3"/>
+      <c r="I1373" s="3" t="s">
         <v>1363</v>
-      </c>
-      <c r="E1368" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1368" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1368" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1368" s="3" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="1369" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1369" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1369" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C1369" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E1369" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1369" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1369" s="3"/>
-      <c r="I1369" s="3" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="1370" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1370" s="8"/>
-      <c r="I1370" s="9"/>
-    </row>
-    <row r="1371" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1371" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1371" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F1371" s="2"/>
-      <c r="H1371" s="3"/>
-      <c r="I1371" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="1372" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1372" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1372" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C1372" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E1372" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1372" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1372" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1372" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1373" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1373" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1373" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C1373" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E1373" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1373" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1373" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1373" s="3" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="1374" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1374" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="C1374" s="1" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
       <c r="E1374" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1374" s="2" t="s">
-        <v>856</v>
+        <v>14</v>
       </c>
       <c r="G1374" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1374" s="3"/>
       <c r="I1374" s="3" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="1375" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1375" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1375" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C1375" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E1375" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1375" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1375" s="3"/>
-      <c r="I1375" s="3" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1376" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1375" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1375" s="8"/>
+      <c r="I1375" s="9"/>
+    </row>
+    <row r="1376" s="1" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1376" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1376" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C1376" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1376" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1376" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1376" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1376" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="F1376" s="2"/>
       <c r="H1376" s="3"/>
       <c r="I1376" s="3" t="s">
-        <v>1348</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1377" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1377" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1377" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="C1377" s="1" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="E1377" s="1" t="s">
         <v>13</v>
@@ -35259,91 +35363,122 @@
         <v>0</v>
       </c>
       <c r="H1377" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1377" s="3" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="1378" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1378" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1378" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="E1378" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1378" s="2" t="s">
-        <v>856</v>
+        <v>14</v>
       </c>
       <c r="G1378" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H1378" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H1378" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1378" s="3" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1379" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1379" s="8"/>
-      <c r="I1379" s="9"/>
-    </row>
-    <row r="1380" s="1" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1379" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1379" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E1379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1379" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1379" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1379" s="3"/>
+      <c r="I1379" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1380" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1380" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F1380" s="2"/>
+        <v>1366</v>
+      </c>
+      <c r="C1380" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E1380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1380" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1380" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="H1380" s="3"/>
       <c r="I1380" s="3" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1381" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1381" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1381" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1381" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E1381" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1381" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1381" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1381" s="3"/>
+      <c r="I1381" s="3" t="s">
         <v>1371</v>
-      </c>
-      <c r="C1381" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E1381" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1381" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1381" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1381" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1382" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>1340</v>
+        <v>1372</v>
       </c>
       <c r="E1382" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1382" s="2" t="s">
         <v>14</v>
@@ -35353,156 +35488,162 @@
       </c>
       <c r="H1382" s="3"/>
       <c r="I1382" s="3" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="1383" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1383" s="1" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="C1383" s="1" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
       <c r="E1383" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1383" s="2" t="s">
-        <v>856</v>
+        <v>14</v>
       </c>
       <c r="G1383" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H1383" s="3"/>
       <c r="I1383" s="3" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="1384" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1384" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1384" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C1384" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E1384" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1384" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1384" s="3"/>
-      <c r="I1384" s="3" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1385" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1384" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1384" s="8"/>
+      <c r="I1384" s="9"/>
+    </row>
+    <row r="1385" s="1" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1385" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C1385" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1385" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1385" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1385" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="F1385" s="2"/>
       <c r="H1385" s="3"/>
       <c r="I1385" s="3" t="s">
-        <v>1348</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1386" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1386" s="1" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="C1386" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E1386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1386" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1386" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1386" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1387" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E1387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1387" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1387" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1387" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1388" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E1388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1388" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1388" s="3"/>
+      <c r="I1388" s="3" t="s">
         <v>1363</v>
       </c>
-      <c r="E1386" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1386" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1386" s="3"/>
-      <c r="I1386" s="3" t="s">
+    </row>
+    <row r="1389" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1389" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1389" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1389" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1389" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1390" s="1" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="1387" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1387" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1387" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C1387" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E1387" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1387" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="G1387" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H1387" s="3"/>
-      <c r="I1387" s="3" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1388" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1388" s="8"/>
-      <c r="I1388" s="9"/>
-    </row>
-    <row r="1389" s="1" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1389" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1389" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F1389" s="2"/>
-      <c r="H1389" s="3"/>
-      <c r="I1389" s="3" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1390" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1390" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1390" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C1390" s="1" t="s">
-        <v>1363</v>
-      </c>
       <c r="E1390" s="1" t="s">
         <v>13</v>
       </c>
@@ -35512,126 +35653,116 @@
       <c r="G1390" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1390" s="3" t="s">
+      <c r="H1390" s="3"/>
+      <c r="I1390" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1391" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1391" s="8"/>
+      <c r="I1391" s="9"/>
+    </row>
+    <row r="1392" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F1392" s="2"/>
+      <c r="H1392" s="3"/>
+      <c r="I1392" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1393" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E1393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1393" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1393" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1390" s="3" t="s">
+      <c r="I1393" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1391" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1391" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1391" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C1391" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E1391" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1391" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="G1391" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="H1391" s="3"/>
-      <c r="I1391" s="3" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1392" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1392" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1392" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C1392" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D1392" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1392" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1392" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1392" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1392" s="3" t="s">
+    <row r="1394" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1394" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E1394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1394" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1394" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1392" s="3" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="1393" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1393" s="8"/>
-      <c r="I1393" s="9"/>
-    </row>
-    <row r="1394" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1394" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B1394" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F1394" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="G1394" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1394" s="3"/>
       <c r="I1394" s="3" t="s">
-        <v>1379</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E1395" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1395" s="2" t="s">
-        <v>14</v>
+        <v>856</v>
       </c>
       <c r="G1395" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1395" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1395" s="1" t="s">
-        <v>15</v>
+      <c r="H1395" s="3"/>
+      <c r="I1395" s="3" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C1396" s="1" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="E1396" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1396" s="2" t="s">
         <v>14</v>
@@ -35639,19 +35770,17 @@
       <c r="G1396" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1396" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1396" s="1" t="s">
-        <v>1382</v>
+      <c r="H1396" s="3"/>
+      <c r="I1396" s="3" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="1397" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1397" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C1397" s="1" t="s">
         <v>28</v>
@@ -35670,121 +35799,111 @@
       </c>
       <c r="H1397" s="3"/>
       <c r="I1397" s="3" t="s">
-        <v>31</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1398" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1398" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1398" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="C1398" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1398" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1398" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1398" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1398" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1398" s="3"/>
+      <c r="H1398" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1398" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1399" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1399" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C1399" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1399" s="1" t="s">
-        <v>83</v>
+        <v>1384</v>
       </c>
       <c r="E1399" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1399" s="2" t="s">
-        <v>14</v>
+        <v>856</v>
       </c>
       <c r="G1399" s="1" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H1399" s="3"/>
       <c r="I1399" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1400" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1400" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B1400" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C1400" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1400" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1400" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1400" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1400" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1400" s="3"/>
-      <c r="I1400" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="1401" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1401" s="8"/>
-      <c r="I1401" s="9"/>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1400" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1400" s="8"/>
+      <c r="I1400" s="9"/>
+    </row>
+    <row r="1401" s="1" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F1401" s="2"/>
+      <c r="H1401" s="3"/>
+      <c r="I1401" s="3" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="1402" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1402" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1402" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1402" s="1" t="s">
         <v>1383</v>
       </c>
+      <c r="E1402" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F1402" s="2" t="s">
-        <v>723</v>
+        <v>14</v>
       </c>
       <c r="G1402" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1402" s="3"/>
-      <c r="I1402" s="1" t="s">
-        <v>1384</v>
+      <c r="H1402" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1402" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1403" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C1403" s="1" t="s">
-        <v>884</v>
+        <v>1355</v>
       </c>
       <c r="E1403" s="1" t="s">
         <v>13</v>
@@ -35795,51 +35914,47 @@
       <c r="G1403" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1403" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1403" s="1" t="s">
-        <v>15</v>
+      <c r="H1403" s="3"/>
+      <c r="I1403" s="3" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1404" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C1404" s="1" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E1404" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1404" s="2" t="s">
-        <v>14</v>
+        <v>856</v>
       </c>
       <c r="G1404" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1404" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1404" s="1" t="s">
-        <v>1385</v>
+        <v>15</v>
+      </c>
+      <c r="H1404" s="3"/>
+      <c r="I1404" s="3" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1405" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C1405" s="1" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="E1405" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1405" s="2" t="s">
         <v>14</v>
@@ -35847,210 +35962,159 @@
       <c r="G1405" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1405" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1405" s="1" t="s">
-        <v>1387</v>
+      <c r="H1405" s="3"/>
+      <c r="I1405" s="3" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1406" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C1406" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E1406" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F1406" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1406" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1406" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1406" s="1" t="s">
-        <v>1388</v>
+      <c r="H1406" s="3"/>
+      <c r="I1406" s="3" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1407" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C1407" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D1407" s="1" t="s">
-        <v>23</v>
+        <v>1378</v>
       </c>
       <c r="E1407" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1407" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1407" s="1" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H1407" s="3"/>
-      <c r="I1407" s="1" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1408" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1407" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1408" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1408" s="1" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C1408" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D1408" s="1" t="s">
-        <v>23</v>
+        <v>1384</v>
       </c>
       <c r="E1408" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1408" s="2" t="s">
-        <v>24</v>
+        <v>856</v>
       </c>
       <c r="G1408" s="1" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H1408" s="3"/>
-      <c r="I1408" s="1" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="1409" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1409" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B1409" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C1409" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D1409" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1409" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1409" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1409" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H1409" s="3"/>
-      <c r="I1409" s="1" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1410" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1408" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1409" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1409" s="8"/>
+      <c r="I1409" s="9"/>
+    </row>
+    <row r="1410" s="1" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1410" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C1410" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1410" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1410" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1410" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1410" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>1388</v>
+      </c>
+      <c r="F1410" s="2"/>
       <c r="H1410" s="3"/>
       <c r="I1410" s="3" t="s">
-        <v>31</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1411" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="C1411" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1411" s="1" t="s">
-        <v>29</v>
+        <v>1378</v>
       </c>
       <c r="E1411" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1411" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1411" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1411" s="3"/>
+      <c r="H1411" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I1411" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1412" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="C1412" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1412" s="1" t="s">
-        <v>83</v>
+        <v>1390</v>
       </c>
       <c r="E1412" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1412" s="2" t="s">
-        <v>14</v>
+        <v>856</v>
       </c>
       <c r="G1412" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H1412" s="3"/>
       <c r="I1412" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1413" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1413" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="C1413" s="1" t="s">
-        <v>281</v>
+        <v>1355</v>
       </c>
       <c r="D1413" s="1" t="s">
         <v>83</v>
@@ -36064,21 +36128,23 @@
       <c r="G1413" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1413" s="3"/>
+      <c r="H1413" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1413" s="3" t="s">
-        <v>282</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1414" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1414" s="8"/>
       <c r="I1414" s="9"/>
     </row>
-    <row r="1415" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1415" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1415" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F1415" s="2" t="s">
         <v>723</v>
@@ -36087,19 +36153,19 @@
         <v>0</v>
       </c>
       <c r="H1415" s="3"/>
-      <c r="I1415" s="1" t="s">
-        <v>1395</v>
+      <c r="I1415" s="3" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1416" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1416" s="1" t="s">
-        <v>1386</v>
+        <v>1395</v>
       </c>
       <c r="E1416" s="1" t="s">
         <v>13</v>
@@ -36119,67 +36185,66 @@
     </row>
     <row r="1417" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1417" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1417" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D1417" s="1" t="s">
-        <v>23</v>
+        <v>1396</v>
       </c>
       <c r="E1417" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1417" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1417" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="H1417" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H1417" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1417" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1418" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1418" s="1" t="s">
-        <v>713</v>
+        <v>28</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1418" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1418" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G1418" s="1" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H1418" s="3"/>
-      <c r="I1418" s="1" t="s">
-        <v>1397</v>
+      <c r="I1418" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1419" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1419" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1419" s="1" t="s">
         <v>29</v>
@@ -36195,45 +36260,45 @@
       </c>
       <c r="H1419" s="3"/>
       <c r="I1419" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1420" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1420" s="1" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="D1420" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E1420" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1420" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1420" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H1420" s="3"/>
       <c r="I1420" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="1421" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1421" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1421" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D1421" s="1" t="s">
         <v>83</v>
@@ -36249,67 +36314,66 @@
       </c>
       <c r="H1421" s="3"/>
       <c r="I1421" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1422" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1422" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B1422" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C1422" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1422" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1422" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1422" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1422" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1422" s="3"/>
-      <c r="I1422" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="1423" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1423" s="8"/>
-      <c r="I1423" s="9"/>
+    <row r="1422" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1422" s="8"/>
+      <c r="I1422" s="9"/>
+    </row>
+    <row r="1423" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1423" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F1423" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1423" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1423" s="3"/>
+      <c r="I1423" s="1" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="1424" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1424" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>1398</v>
       </c>
+      <c r="C1424" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E1424" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F1424" s="2" t="s">
-        <v>723</v>
+        <v>14</v>
       </c>
       <c r="G1424" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H1424" s="3"/>
-      <c r="I1424" s="3" t="s">
-        <v>1399</v>
+      <c r="H1424" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1424" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1425" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1425" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1425" s="1" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
       <c r="E1425" s="1" t="s">
         <v>13</v>
@@ -36321,171 +36385,670 @@
         <v>0</v>
       </c>
       <c r="H1425" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1425" s="1" t="s">
-        <v>15</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1426" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1426" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1426" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1426" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D1426" s="1" t="s">
-        <v>23</v>
+        <v>1401</v>
       </c>
       <c r="E1426" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1426" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1426" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="H1426" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H1426" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1426" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1427" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1427" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1427" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1427" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1427" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1427" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F1427" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G1427" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="H1427" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="H1427" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I1427" s="1" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1428" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1428" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1428" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1428" s="1" t="s">
-        <v>28</v>
+        <v>1404</v>
       </c>
       <c r="D1428" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1428" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1428" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1428" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H1428" s="3"/>
-      <c r="I1428" s="3" t="s">
-        <v>31</v>
+      <c r="I1428" s="1" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="1429" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1429" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1429" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1429" s="1" t="s">
-        <v>32</v>
+        <v>1406</v>
       </c>
       <c r="D1429" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1429" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1429" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1429" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H1429" s="3"/>
-      <c r="I1429" s="3" t="s">
-        <v>33</v>
+      <c r="I1429" s="1" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1430" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1430" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1430" s="1" t="s">
-        <v>279</v>
+        <v>1339</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E1430" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1430" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G1430" s="1" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H1430" s="3"/>
-      <c r="I1430" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="1431" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1430" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1431" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="B1431" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="C1431" s="1" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E1431" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1431" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1431" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H1431" s="3"/>
       <c r="I1431" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1432" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1432" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1432" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1432" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1432" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1432" s="3"/>
+      <c r="I1432" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1433" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1433" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1433" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1433" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1433" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1433" s="3"/>
+      <c r="I1433" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C1434" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1434" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1434" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1434" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1434" s="3"/>
+      <c r="I1434" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1435" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1435" s="8"/>
+      <c r="I1435" s="9"/>
+    </row>
+    <row r="1436" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F1436" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1436" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1436" s="3"/>
+      <c r="I1436" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1437" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E1437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1437" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1437" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1437" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1437" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1438" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1438" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1438" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1438" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1438" s="3"/>
+      <c r="I1438" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1439" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1439" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1439" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1439" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="H1439" s="3"/>
+      <c r="I1439" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1440" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1440" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1440" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1440" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1440" s="3"/>
+      <c r="I1440" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1441" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1441" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1441" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1441" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1441" s="3"/>
+      <c r="I1441" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1442" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1442" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1442" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1442" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1442" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1442" s="3"/>
+      <c r="I1442" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1443" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1443" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1443" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1443" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1443" s="3"/>
+      <c r="I1443" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="1444" s="7" customFormat="true" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1444" s="8"/>
+      <c r="I1444" s="9"/>
+    </row>
+    <row r="1445" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F1445" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1445" s="3"/>
+      <c r="I1445" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1446" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E1446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1446" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1446" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1446" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1447" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1447" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1447" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1447" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1447" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1447" s="3"/>
+      <c r="I1447" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1448" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1448" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1448" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1448" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="H1448" s="3"/>
+      <c r="I1448" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1449" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1449" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1449" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1449" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1449" s="3"/>
+      <c r="I1449" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1450" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1450" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1450" s="3"/>
+      <c r="I1450" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1451" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1451" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1451" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1451" s="3"/>
+      <c r="I1451" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1452" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1452" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1452" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1452" s="3"/>
+      <c r="I1452" s="3" t="s">
         <v>282</v>
       </c>
     </row>
@@ -36494,8 +37057,8 @@
     <hyperlink ref="I408" r:id="rId1" display="A prefix for every identifier of this type (ex: https://doi.org/)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -36514,20 +37077,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="158.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>1402</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
